--- a/docs/Comp_Module_Map_2022_V5.xlsx
+++ b/docs/Comp_Module_Map_2022_V5.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ssu-my.sharepoint.com/personal/martin_reid_solent_ac_uk/Documents/comp_course_manage_2020/comp_planning_2021-22/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ssu-my.sharepoint.com/personal/martin_reid_solent_ac_uk/Documents/solent_store/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="31" documentId="8_{F910275D-011D-4B9B-94BD-9ED687CDE8E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A91724BA-580F-46FC-AE1E-7BBE67F00D04}"/>
+  <xr:revisionPtr revIDLastSave="82" documentId="8_{F910275D-011D-4B9B-94BD-9ED687CDE8E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{62DFF729-FD9A-8947-8F76-0EBE44DF1880}"/>
   <bookViews>
-    <workbookView xWindow="-27870" yWindow="3090" windowWidth="24015" windowHeight="14400" xr2:uid="{E69C05BD-5864-2041-BCC3-203BAAF63D0E}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="28340" activeTab="3" xr2:uid="{E69C05BD-5864-2041-BCC3-203BAAF63D0E}"/>
   </bookViews>
   <sheets>
-    <sheet name="UG Map" sheetId="1" r:id="rId1"/>
-    <sheet name="PG Map" sheetId="5" r:id="rId2"/>
-    <sheet name="PG MAIDS" sheetId="3" r:id="rId3"/>
+    <sheet name="Foundation" sheetId="6" r:id="rId1"/>
+    <sheet name="UG Map L4-L6" sheetId="1" r:id="rId2"/>
+    <sheet name="PG Map" sheetId="5" r:id="rId3"/>
+    <sheet name="PG MAIDS" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="99">
   <si>
     <t>COM411 Problem Solving Through Programming</t>
   </si>
@@ -335,6 +336,27 @@
   </si>
   <si>
     <t>COM427 Principles and Methods of Data Analysis  (Apprentice only module) Kenton (AL)</t>
+  </si>
+  <si>
+    <t>Computing Foundation</t>
+  </si>
+  <si>
+    <t>COM306 Digital Media Technologies</t>
+  </si>
+  <si>
+    <t>COM300 Problem Solving</t>
+  </si>
+  <si>
+    <t>COM302 Group Technology Project</t>
+  </si>
+  <si>
+    <t>COM304 Foundation Computing</t>
+  </si>
+  <si>
+    <t>COM305 Induviudual Degree Related Project</t>
+  </si>
+  <si>
+    <t>COM307 Foundation Mathematics</t>
   </si>
 </sst>
 </file>
@@ -773,7 +795,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -948,6 +970,22 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1263,23 +1301,103 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F30BF1D-852F-3C41-AD35-7CF114F6F6A5}">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6.5" customWidth="1"/>
+    <col min="2" max="2" width="41" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="76" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="77"/>
+    </row>
+    <row r="2" spans="1:2" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="78"/>
+      <c r="B2" s="79"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="18">
+        <v>1</v>
+      </c>
+      <c r="B3" s="75" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="16">
+        <v>2</v>
+      </c>
+      <c r="B4" s="39" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="18">
+        <v>3</v>
+      </c>
+      <c r="B5" s="75" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="16">
+        <v>4</v>
+      </c>
+      <c r="B6" s="39" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="18">
+        <v>5</v>
+      </c>
+      <c r="B7" s="75" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="74">
+        <v>6</v>
+      </c>
+      <c r="B8" s="42" t="s">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFDE26D5-4215-1D47-A0E4-BF6B097FFA25}">
   <dimension ref="A1:I55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.125" customWidth="1"/>
+    <col min="1" max="1" width="6.1640625" customWidth="1"/>
     <col min="2" max="2" width="76.5" customWidth="1"/>
-    <col min="7" max="7" width="11.625" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" customWidth="1"/>
     <col min="8" max="8" width="13.5" customWidth="1"/>
-    <col min="9" max="9" width="12.25" customWidth="1"/>
+    <col min="9" max="9" width="12.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="60" t="s">
         <v>59</v>
       </c>
@@ -1296,7 +1414,7 @@
       </c>
       <c r="I1" s="67"/>
     </row>
-    <row r="2" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="62"/>
       <c r="B2" s="62"/>
       <c r="C2" s="47" t="s">
@@ -1321,7 +1439,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="12">
         <v>1</v>
       </c>
@@ -1350,7 +1468,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="16">
         <v>2</v>
       </c>
@@ -1377,7 +1495,7 @@
       </c>
       <c r="I4" s="17"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="18">
         <v>3</v>
       </c>
@@ -1396,7 +1514,7 @@
       <c r="H5" s="6"/>
       <c r="I5" s="19"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="16">
         <v>4</v>
       </c>
@@ -1417,7 +1535,7 @@
       </c>
       <c r="I6" s="17"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="18">
         <v>5</v>
       </c>
@@ -1438,7 +1556,7 @@
       </c>
       <c r="I7" s="19"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="16">
         <v>6</v>
       </c>
@@ -1457,7 +1575,7 @@
       <c r="H8" s="2"/>
       <c r="I8" s="17"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="18">
         <v>7</v>
       </c>
@@ -1486,7 +1604,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="16">
         <v>8</v>
       </c>
@@ -1507,7 +1625,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="18">
         <v>9</v>
       </c>
@@ -1528,7 +1646,7 @@
       <c r="H11" s="6"/>
       <c r="I11" s="19"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="16">
         <v>10</v>
       </c>
@@ -1545,7 +1663,7 @@
       <c r="H12" s="2"/>
       <c r="I12" s="20"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="18">
         <v>11</v>
       </c>
@@ -1564,7 +1682,7 @@
       </c>
       <c r="I13" s="19"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="16">
         <v>12</v>
       </c>
@@ -1581,7 +1699,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="18">
         <v>13</v>
       </c>
@@ -1600,7 +1718,7 @@
       </c>
       <c r="I15" s="20"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="18">
         <v>15</v>
       </c>
@@ -1617,7 +1735,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="51">
         <v>16</v>
       </c>
@@ -1636,7 +1754,7 @@
       </c>
       <c r="I17" s="69"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="12">
         <v>17</v>
       </c>
@@ -1657,7 +1775,7 @@
       </c>
       <c r="I18" s="41"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="22">
         <v>18</v>
       </c>
@@ -1676,7 +1794,7 @@
       </c>
       <c r="I19" s="40"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="18">
         <v>19</v>
       </c>
@@ -1701,7 +1819,7 @@
       <c r="H20" s="35"/>
       <c r="I20" s="40"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="22">
         <v>20</v>
       </c>
@@ -1720,7 +1838,7 @@
       </c>
       <c r="I21" s="40"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="18">
         <v>21</v>
       </c>
@@ -1739,7 +1857,7 @@
       <c r="H22" s="35"/>
       <c r="I22" s="40"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="22">
         <v>22</v>
       </c>
@@ -1758,7 +1876,7 @@
       </c>
       <c r="I23" s="40"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="18">
         <v>23</v>
       </c>
@@ -1781,7 +1899,7 @@
       </c>
       <c r="I24" s="40"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="22">
         <v>24</v>
       </c>
@@ -1802,7 +1920,7 @@
       </c>
       <c r="I25" s="40"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="18">
         <v>25</v>
       </c>
@@ -1823,7 +1941,7 @@
       </c>
       <c r="I26" s="40"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="22">
         <v>26</v>
       </c>
@@ -1842,7 +1960,7 @@
       </c>
       <c r="I27" s="40"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="18">
         <v>27</v>
       </c>
@@ -1861,7 +1979,7 @@
       </c>
       <c r="I28" s="40"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="22">
         <v>28</v>
       </c>
@@ -1878,7 +1996,7 @@
       <c r="H29" s="36"/>
       <c r="I29" s="40"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="18">
         <v>29</v>
       </c>
@@ -1895,7 +2013,7 @@
       <c r="H30" s="36"/>
       <c r="I30" s="20"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="22">
         <v>30</v>
       </c>
@@ -1912,7 +2030,7 @@
       <c r="H31" s="36"/>
       <c r="I31" s="39"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="18">
         <v>31</v>
       </c>
@@ -1931,7 +2049,7 @@
       </c>
       <c r="I32" s="39"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="22">
         <v>32</v>
       </c>
@@ -1950,7 +2068,7 @@
       </c>
       <c r="I33" s="39"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="18">
         <v>33</v>
       </c>
@@ -1971,7 +2089,7 @@
       </c>
       <c r="I34" s="39"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="22">
         <v>34</v>
       </c>
@@ -1988,7 +2106,7 @@
       </c>
       <c r="I35" s="39"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="18">
         <v>35</v>
       </c>
@@ -2005,7 +2123,7 @@
       </c>
       <c r="I36" s="39"/>
     </row>
-    <row r="37" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="23">
         <v>36</v>
       </c>
@@ -2022,7 +2140,7 @@
       </c>
       <c r="I37" s="42"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="12">
         <v>37</v>
       </c>
@@ -2043,7 +2161,7 @@
       <c r="H38" s="14"/>
       <c r="I38" s="38"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="22">
         <v>38</v>
       </c>
@@ -2064,7 +2182,7 @@
       </c>
       <c r="I39" s="39"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="18">
         <v>39</v>
       </c>
@@ -2085,7 +2203,7 @@
       </c>
       <c r="I40" s="39"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="22">
         <v>40</v>
       </c>
@@ -2106,7 +2224,7 @@
       </c>
       <c r="I41" s="39"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="18">
         <v>41</v>
       </c>
@@ -2131,7 +2249,7 @@
       <c r="H42" s="6"/>
       <c r="I42" s="39"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="22">
         <v>42</v>
       </c>
@@ -2158,7 +2276,7 @@
       </c>
       <c r="I43" s="39"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="18">
         <v>43</v>
       </c>
@@ -2181,7 +2299,7 @@
       </c>
       <c r="I44" s="39"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="22">
         <v>44</v>
       </c>
@@ -2202,7 +2320,7 @@
       </c>
       <c r="I45" s="39"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="18">
         <v>45</v>
       </c>
@@ -2223,7 +2341,7 @@
       <c r="H46" s="6"/>
       <c r="I46" s="39"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="22">
         <v>46</v>
       </c>
@@ -2238,7 +2356,7 @@
       <c r="H47" s="4"/>
       <c r="I47" s="39"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="18">
         <v>47</v>
       </c>
@@ -2255,7 +2373,7 @@
       <c r="H48" s="6"/>
       <c r="I48" s="39"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="22">
         <v>48</v>
       </c>
@@ -2276,7 +2394,7 @@
       </c>
       <c r="I49" s="39"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="18">
         <v>49</v>
       </c>
@@ -2295,7 +2413,7 @@
       </c>
       <c r="I50" s="39"/>
     </row>
-    <row r="51" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="23">
         <v>50</v>
       </c>
@@ -2312,10 +2430,10 @@
       </c>
       <c r="I51" s="42"/>
     </row>
-    <row r="52" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="10"/>
     </row>
-    <row r="53" spans="1:9" ht="56.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" ht="56" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="10"/>
       <c r="B53" s="58" t="s">
         <v>88</v>
@@ -2329,7 +2447,7 @@
       <c r="G53" s="64"/>
       <c r="H53" s="65"/>
     </row>
-    <row r="54" spans="1:9" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="5"/>
       <c r="C54" s="26"/>
       <c r="D54" s="25"/>
@@ -2338,7 +2456,7 @@
       <c r="G54" s="25"/>
       <c r="H54" s="25"/>
     </row>
-    <row r="55" spans="1:9" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C55" s="52"/>
       <c r="D55" s="63" t="s">
         <v>78</v>
@@ -2362,25 +2480,25 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F81969C-1129-7B49-AAFA-87F4D4FA5C16}">
   <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.125" customWidth="1"/>
-    <col min="2" max="2" width="41.625" customWidth="1"/>
-    <col min="3" max="3" width="13.625" customWidth="1"/>
+    <col min="1" max="1" width="6.1640625" customWidth="1"/>
+    <col min="2" max="2" width="41.6640625" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" customWidth="1"/>
     <col min="4" max="4" width="12.5" customWidth="1"/>
-    <col min="5" max="5" width="11.875" customWidth="1"/>
+    <col min="5" max="5" width="11.83203125" customWidth="1"/>
     <col min="6" max="6" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="60" t="s">
         <v>60</v>
       </c>
@@ -2391,7 +2509,7 @@
       <c r="D1" s="71"/>
       <c r="E1" s="72"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="62"/>
       <c r="B2" s="61"/>
       <c r="C2" s="11" t="s">
@@ -2404,7 +2522,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="31">
         <v>1</v>
       </c>
@@ -2421,7 +2539,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="28">
         <v>2</v>
       </c>
@@ -2438,7 +2556,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="31">
         <v>3</v>
       </c>
@@ -2455,7 +2573,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="28">
         <v>4</v>
       </c>
@@ -2468,7 +2586,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="31">
         <v>5</v>
       </c>
@@ -2483,7 +2601,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="28">
         <v>6</v>
       </c>
@@ -2498,7 +2616,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="31">
         <v>7</v>
       </c>
@@ -2512,7 +2630,7 @@
       </c>
       <c r="F9" s="5"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="28">
         <v>8</v>
       </c>
@@ -2526,7 +2644,7 @@
       <c r="E10" s="2"/>
       <c r="F10" s="5"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="31">
         <v>9</v>
       </c>
@@ -2540,7 +2658,7 @@
       <c r="E11" s="6"/>
       <c r="F11" s="29"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="28">
         <v>10</v>
       </c>
@@ -2554,7 +2672,7 @@
       <c r="E12" s="2"/>
       <c r="F12" s="30"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="31">
         <v>11</v>
       </c>
@@ -2568,7 +2686,7 @@
       <c r="E13" s="6"/>
       <c r="F13" s="30"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="28">
         <v>12</v>
       </c>
@@ -2582,7 +2700,7 @@
       <c r="E14" s="2"/>
       <c r="F14" s="30"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="31">
         <v>13</v>
       </c>
@@ -2596,7 +2714,7 @@
       <c r="E15" s="6"/>
       <c r="F15" s="30"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="33">
         <v>14</v>
       </c>
@@ -2614,7 +2732,7 @@
       </c>
       <c r="F16" s="30"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="31">
         <v>15</v>
       </c>
@@ -2632,7 +2750,7 @@
       </c>
       <c r="F17" s="30"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="33">
         <v>16</v>
       </c>
@@ -2650,43 +2768,43 @@
       </c>
       <c r="F18" s="30"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="30"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="30"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="30"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="30"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="30"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="30"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="30"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="30"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="30"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="30"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="29"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="10"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="5"/>
       <c r="C52" s="26"/>
       <c r="D52" s="25"/>
@@ -2701,32 +2819,32 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCA73B5C-D9F3-8C4C-8480-D7DAE5FA9C24}">
   <dimension ref="A1:B52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.125" customWidth="1"/>
-    <col min="2" max="2" width="77.375" customWidth="1"/>
+    <col min="1" max="1" width="6.1640625" customWidth="1"/>
+    <col min="2" max="2" width="77.33203125" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="73" t="s">
         <v>75</v>
       </c>
       <c r="B1" s="73"/>
     </row>
-    <row r="2" spans="1:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="73"/>
       <c r="B2" s="73"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="31">
         <v>1</v>
       </c>
@@ -2734,7 +2852,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="28">
         <v>2</v>
       </c>
@@ -2742,7 +2860,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="31">
         <v>3</v>
       </c>
@@ -2750,7 +2868,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="28">
         <v>4</v>
       </c>
@@ -2758,7 +2876,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="31">
         <v>5</v>
       </c>
@@ -2766,43 +2884,43 @@
         <v>74</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="30"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="30"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="30"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="30"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" s="30"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" s="30"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" s="30"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" s="30"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" s="30"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" s="30"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" s="29"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" s="10"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" s="5"/>
     </row>
   </sheetData>

--- a/docs/Comp_Module_Map_2022_V5.xlsx
+++ b/docs/Comp_Module_Map_2022_V5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ssu-my.sharepoint.com/personal/martin_reid_solent_ac_uk/Documents/solent_store/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="82" documentId="8_{F910275D-011D-4B9B-94BD-9ED687CDE8E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{62DFF729-FD9A-8947-8F76-0EBE44DF1880}"/>
+  <xr:revisionPtr revIDLastSave="110" documentId="8_{F910275D-011D-4B9B-94BD-9ED687CDE8E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{59913388-1D91-4EA3-93D7-236650C70F65}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="28340" firstSheet="3" activeTab="3" xr2:uid="{E69C05BD-5864-2041-BCC3-203BAAF63D0E}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="28340" firstSheet="3" activeTab="1" xr2:uid="{E69C05BD-5864-2041-BCC3-203BAAF63D0E}"/>
   </bookViews>
   <sheets>
     <sheet name="Foundation" sheetId="6" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="99">
   <si>
     <t>Computing Foundation</t>
   </si>
@@ -203,7 +203,7 @@
     <t>COM529 Economics and Financial Analysis</t>
   </si>
   <si>
-    <t>COM530 - Work Based Business Organisation (Apprentice only module) Kentin (AL)</t>
+    <t>COM530 - Work Based Business Organisation (Apprentice only module) Kenton (AL)</t>
   </si>
   <si>
     <t>COM532 - Work Based IT Project Management (Apprentice only module) Kenton (AL)</t>
@@ -365,7 +365,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -385,6 +385,22 @@
       <b/>
       <sz val="22"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -797,7 +813,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -904,7 +920,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -958,6 +973,19 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1287,20 +1315,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="29.1" customHeight="1">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47"/>
+      <c r="B1" s="46"/>
     </row>
     <row r="2" spans="1:2" ht="29.1" customHeight="1">
-      <c r="A2" s="48"/>
-      <c r="B2" s="49"/>
+      <c r="A2" s="47"/>
+      <c r="B2" s="48"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="15">
         <v>1</v>
       </c>
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="44" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1316,7 +1344,7 @@
       <c r="A5" s="15">
         <v>3</v>
       </c>
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="44" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1332,7 +1360,7 @@
       <c r="A7" s="15">
         <v>5</v>
       </c>
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="44" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1356,8 +1384,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFDE26D5-4215-1D47-A0E4-BF6B097FFA25}">
   <dimension ref="A1:I55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="H51" sqref="H51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
@@ -1370,25 +1398,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="26.1" customHeight="1" thickBot="1">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="50" t="s">
+      <c r="B1" s="51"/>
+      <c r="C1" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="56" t="s">
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="57"/>
+      <c r="I1" s="56"/>
     </row>
     <row r="2" spans="1:9" ht="17.100000000000001" thickBot="1">
-      <c r="A2" s="51"/>
-      <c r="B2" s="51"/>
+      <c r="A2" s="50"/>
+      <c r="B2" s="50"/>
       <c r="C2" s="35" t="s">
         <v>10</v>
       </c>
@@ -1447,9 +1475,7 @@
       <c r="B4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
         <v>18</v>
       </c>
@@ -1528,14 +1554,14 @@
       </c>
       <c r="I7" s="16"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" ht="15.75">
       <c r="A8" s="13">
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="22" t="s">
         <v>18</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -1618,11 +1644,11 @@
       <c r="H11" s="3"/>
       <c r="I11" s="16"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" ht="15.75">
       <c r="A12" s="13">
         <v>10</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="63" t="s">
         <v>27</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -1707,24 +1733,24 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="17.100000000000001" thickBot="1">
+    <row r="17" spans="1:9" ht="15.75">
       <c r="A17" s="39">
         <v>16</v>
       </c>
-      <c r="B17" s="44" t="s">
+      <c r="B17" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="67" t="s">
         <v>18</v>
       </c>
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
       <c r="F17" s="17"/>
       <c r="G17" s="17"/>
-      <c r="H17" s="58" t="s">
+      <c r="H17" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="I17" s="59"/>
+      <c r="I17" s="58"/>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="9">
@@ -1951,14 +1977,14 @@
       </c>
       <c r="I28" s="30"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" ht="15.75">
       <c r="A29" s="13">
         <v>28</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="65" t="s">
         <v>47</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="68" t="s">
         <v>18</v>
       </c>
       <c r="D29" s="2"/>
@@ -1968,14 +1994,14 @@
       <c r="H29" s="27"/>
       <c r="I29" s="30"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" ht="15.75">
       <c r="A30" s="15">
         <v>29</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="69" t="s">
         <v>18</v>
       </c>
       <c r="D30" s="3"/>
@@ -1985,14 +2011,14 @@
       <c r="H30" s="27"/>
       <c r="I30" s="14"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" ht="15.75">
       <c r="A31" s="13">
         <v>30</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="65" t="s">
         <v>49</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="68" t="s">
         <v>18</v>
       </c>
       <c r="D31" s="2"/>
@@ -2313,15 +2339,19 @@
       <c r="H46" s="3"/>
       <c r="I46" s="30"/>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" ht="15.75">
       <c r="A47" s="13">
         <v>46</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B47" s="65" t="s">
         <v>65</v>
       </c>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
+      <c r="C47" s="68" t="s">
+        <v>18</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
@@ -2411,13 +2441,13 @@
         <v>70</v>
       </c>
       <c r="C53" s="21"/>
-      <c r="D53" s="53" t="s">
+      <c r="D53" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="E53" s="54"/>
-      <c r="F53" s="54"/>
-      <c r="G53" s="54"/>
-      <c r="H53" s="55"/>
+      <c r="E53" s="53"/>
+      <c r="F53" s="53"/>
+      <c r="G53" s="53"/>
+      <c r="H53" s="54"/>
     </row>
     <row r="54" spans="1:9" ht="12" customHeight="1" thickBot="1">
       <c r="D54" s="20"/>
@@ -2428,13 +2458,13 @@
     </row>
     <row r="55" spans="1:9" ht="55.5" customHeight="1" thickBot="1">
       <c r="C55" s="40"/>
-      <c r="D55" s="53" t="s">
+      <c r="D55" s="52" t="s">
         <v>72</v>
       </c>
-      <c r="E55" s="54"/>
-      <c r="F55" s="54"/>
-      <c r="G55" s="54"/>
-      <c r="H55" s="55"/>
+      <c r="E55" s="53"/>
+      <c r="F55" s="53"/>
+      <c r="G55" s="53"/>
+      <c r="H55" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -2469,19 +2499,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="26.1" customHeight="1">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="60" t="s">
+      <c r="B1" s="51"/>
+      <c r="C1" s="59" t="s">
         <v>74</v>
       </c>
-      <c r="D1" s="61"/>
-      <c r="E1" s="62"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="61"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="51"/>
-      <c r="B2" s="52"/>
+      <c r="A2" s="50"/>
+      <c r="B2" s="51"/>
       <c r="C2" s="8" t="s">
         <v>75</v>
       </c>
@@ -2752,7 +2782,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCA73B5C-D9F3-8C4C-8480-D7DAE5FA9C24}">
   <dimension ref="A1:B51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
@@ -2764,14 +2794,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="26.1" customHeight="1">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="62" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="63"/>
+      <c r="B1" s="62"/>
     </row>
     <row r="2" spans="1:2" ht="15.95" customHeight="1">
-      <c r="A2" s="63"/>
-      <c r="B2" s="63"/>
+      <c r="A2" s="62"/>
+      <c r="B2" s="62"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="24">

--- a/docs/Comp_Module_Map_2022_V5.xlsx
+++ b/docs/Comp_Module_Map_2022_V5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ssu-my.sharepoint.com/personal/martin_reid_solent_ac_uk/Documents/solent_store/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="110" documentId="8_{F910275D-011D-4B9B-94BD-9ED687CDE8E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{59913388-1D91-4EA3-93D7-236650C70F65}"/>
+  <xr:revisionPtr revIDLastSave="163" documentId="8_{F910275D-011D-4B9B-94BD-9ED687CDE8E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A20F6FC5-4369-4AC9-97A0-3CD40905EAA9}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="28340" firstSheet="3" activeTab="1" xr2:uid="{E69C05BD-5864-2041-BCC3-203BAAF63D0E}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="28340" firstSheet="2" activeTab="1" xr2:uid="{E69C05BD-5864-2041-BCC3-203BAAF63D0E}"/>
   </bookViews>
   <sheets>
     <sheet name="Foundation" sheetId="6" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="101">
   <si>
     <t>Computing Foundation</t>
   </si>
@@ -71,7 +71,7 @@
     <t xml:space="preserve">Apprentice </t>
   </si>
   <si>
-    <t>DDWD</t>
+    <t>DDWD (RO)</t>
   </si>
   <si>
     <t>COMP</t>
@@ -95,6 +95,9 @@
     <t>COM411 Problem Solving Through Programming</t>
   </si>
   <si>
+    <t>n/a</t>
+  </si>
+  <si>
     <t>X</t>
   </si>
   <si>
@@ -122,19 +125,35 @@
     <t>COM419 Web Technologies</t>
   </si>
   <si>
-    <t>COM420 Digital Creativity</t>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">COM420 Digital Creativity </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>(NOT RUNNING from 2022)</t>
+    </r>
   </si>
   <si>
     <t>COM421 Data Structures, Algorithms &amp; Mathematics</t>
   </si>
   <si>
-    <t>X (48)</t>
+    <t>X (48hrs)</t>
   </si>
   <si>
     <t>COM426 Computing Project  (Apprentice only module)</t>
   </si>
   <si>
-    <t>X (36)</t>
+    <t>X (36hrs)</t>
   </si>
   <si>
     <t xml:space="preserve">COM422 Software Testing and Reliability Engineering </t>
@@ -143,7 +162,7 @@
     <t>COM427 Principles and Methods of Data Analysis  (Apprentice only module) Kenton (AL)</t>
   </si>
   <si>
-    <t>X (24)</t>
+    <t>X (24hrs)</t>
   </si>
   <si>
     <t>COM423 Systems Analysis &amp; Design Work Based Project</t>
@@ -182,13 +201,67 @@
     <t>COM522 Threat Intelligence Analysis</t>
   </si>
   <si>
-    <t xml:space="preserve">COM523 UI </t>
-  </si>
-  <si>
-    <t>COM524 Digital Marketing</t>
-  </si>
-  <si>
-    <t>COM525 Interaction Design</t>
+    <r>
+      <rPr>
+        <b/>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">COM523 UI </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>(NOT RUNNING from 2023)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>COM524</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> Digital Marketing (NOT RUNNING from 2023)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>COM525</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> Interaction Design (NOT RUNNING from 2023)</t>
+    </r>
   </si>
   <si>
     <t>COM526 - Introduction to AI</t>
@@ -280,6 +353,9 @@
     </r>
   </si>
   <si>
+    <t>DDWD is closed form 2023 - we did not have an intake in 2022 and is running out (RO).  This course has 4 unique modules and other modules were shared with other courses. 2022-23 Levels 5 &amp; 6 the 2023-24 Level 6 only.</t>
+  </si>
+  <si>
     <t>Blue highlight unique module to apprentices</t>
   </si>
   <si>
@@ -319,7 +395,7 @@
     <t>COM715 Cyber Security Management</t>
   </si>
   <si>
-    <t xml:space="preserve">COM716 Security &amp; Ethical Hacking </t>
+    <t xml:space="preserve">COM716 Security &amp; Ethical Hacking* </t>
   </si>
   <si>
     <t>COM720 Digital Design Fundamentals</t>
@@ -365,7 +441,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -390,7 +466,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <strike/>
+      <b/>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -398,9 +474,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <strike/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
       <b/>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -813,7 +927,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -895,9 +1009,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -921,6 +1032,19 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -975,19 +1099,13 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1006,7 +1124,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1294,7 +1412,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1315,20 +1433,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="29.1" customHeight="1">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46"/>
+      <c r="B1" s="50"/>
     </row>
     <row r="2" spans="1:2" ht="29.1" customHeight="1">
-      <c r="A2" s="47"/>
-      <c r="B2" s="48"/>
+      <c r="A2" s="51"/>
+      <c r="B2" s="52"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="15">
         <v>1</v>
       </c>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="43" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1344,7 +1462,7 @@
       <c r="A5" s="15">
         <v>3</v>
       </c>
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="43" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1360,7 +1478,7 @@
       <c r="A7" s="15">
         <v>5</v>
       </c>
-      <c r="B7" s="44" t="s">
+      <c r="B7" s="43" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1384,58 +1502,59 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFDE26D5-4215-1D47-A0E4-BF6B097FFA25}">
   <dimension ref="A1:I55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="H51" sqref="H51"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
   <cols>
     <col min="1" max="1" width="6.125" customWidth="1"/>
     <col min="2" max="2" width="76.5" customWidth="1"/>
+    <col min="3" max="3" width="12.125" customWidth="1"/>
     <col min="7" max="7" width="11.625" customWidth="1"/>
     <col min="8" max="8" width="13.5" customWidth="1"/>
     <col min="9" max="9" width="12.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="26.1" customHeight="1" thickBot="1">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="49" t="s">
+      <c r="B1" s="55"/>
+      <c r="C1" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="55" t="s">
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="56"/>
-    </row>
-    <row r="2" spans="1:9" ht="17.100000000000001" thickBot="1">
-      <c r="A2" s="50"/>
-      <c r="B2" s="50"/>
-      <c r="C2" s="35" t="s">
+      <c r="I1" s="60"/>
+    </row>
+    <row r="2" spans="1:9" ht="15.75">
+      <c r="A2" s="54"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="D2" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="36" t="s">
+      <c r="E2" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="36" t="s">
+      <c r="F2" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="36" t="s">
+      <c r="G2" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="37" t="s">
+      <c r="H2" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="38" t="s">
+      <c r="I2" s="37" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1450,22 +1569,22 @@
         <v>18</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1473,23 +1592,23 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I4" s="14"/>
     </row>
@@ -1498,16 +1617,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="16"/>
@@ -1517,19 +1636,19 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I6" s="14"/>
     </row>
@@ -1538,19 +1657,19 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I7" s="16"/>
     </row>
@@ -1559,13 +1678,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" s="22" t="s">
         <v>18</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -1578,28 +1697,28 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I9" s="16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1607,20 +1726,20 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I10" s="14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1628,16 +1747,16 @@
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
@@ -1648,10 +1767,10 @@
       <c r="A12" s="13">
         <v>10</v>
       </c>
-      <c r="B12" s="63" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="2" t="s">
+      <c r="B12" s="68" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="45" t="s">
         <v>18</v>
       </c>
       <c r="D12" s="2"/>
@@ -1666,17 +1785,17 @@
         <v>11</v>
       </c>
       <c r="B13" s="33" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="34" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I13" s="16"/>
     </row>
@@ -1685,7 +1804,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -1693,8 +1812,8 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
-      <c r="I14" s="41" t="s">
-        <v>31</v>
+      <c r="I14" s="40" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1702,17 +1821,17 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I15" s="14"/>
     </row>
@@ -1721,7 +1840,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="33" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -1729,47 +1848,47 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="41" t="s">
-        <v>34</v>
+      <c r="I16" s="40" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="15.75">
-      <c r="A17" s="39">
+      <c r="A17" s="38">
         <v>16</v>
       </c>
-      <c r="B17" s="64" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="67" t="s">
+      <c r="B17" s="71" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="44" t="s">
         <v>18</v>
       </c>
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
       <c r="F17" s="17"/>
       <c r="G17" s="17"/>
-      <c r="H17" s="57" t="s">
-        <v>34</v>
-      </c>
-      <c r="I17" s="58"/>
+      <c r="H17" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="I17" s="62"/>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="9">
         <v>17</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
       <c r="E18" s="11"/>
       <c r="F18" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H18" s="25" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I18" s="29"/>
     </row>
@@ -1778,17 +1897,17 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H19" s="27" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I19" s="30"/>
     </row>
@@ -1797,22 +1916,22 @@
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H20" s="26"/>
       <c r="I20" s="30"/>
@@ -1822,17 +1941,17 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H21" s="27" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I21" s="30"/>
     </row>
@@ -1841,16 +1960,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H22" s="26"/>
       <c r="I22" s="30"/>
@@ -1860,17 +1979,17 @@
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="27" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I23" s="30"/>
     </row>
@@ -1879,21 +1998,21 @@
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="26" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I24" s="30"/>
     </row>
@@ -1902,19 +2021,19 @@
         <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="27" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I25" s="30"/>
     </row>
@@ -1923,19 +2042,19 @@
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
       <c r="H26" s="26" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I26" s="30"/>
     </row>
@@ -1944,17 +2063,17 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H27" s="27" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I27" s="30"/>
     </row>
@@ -1963,17 +2082,17 @@
         <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G28" s="3"/>
       <c r="H28" s="26" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I28" s="30"/>
     </row>
@@ -1981,11 +2100,11 @@
       <c r="A29" s="13">
         <v>28</v>
       </c>
-      <c r="B29" s="65" t="s">
-        <v>47</v>
-      </c>
-      <c r="C29" s="68" t="s">
-        <v>18</v>
+      <c r="B29" s="69" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" s="45" t="s">
+        <v>19</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
@@ -1998,11 +2117,11 @@
       <c r="A30" s="15">
         <v>29</v>
       </c>
-      <c r="B30" s="66" t="s">
-        <v>48</v>
-      </c>
-      <c r="C30" s="69" t="s">
-        <v>18</v>
+      <c r="B30" s="70" t="s">
+        <v>49</v>
+      </c>
+      <c r="C30" s="46" t="s">
+        <v>19</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
@@ -2015,11 +2134,11 @@
       <c r="A31" s="13">
         <v>30</v>
       </c>
-      <c r="B31" s="65" t="s">
-        <v>49</v>
-      </c>
-      <c r="C31" s="68" t="s">
-        <v>18</v>
+      <c r="B31" s="69" t="s">
+        <v>50</v>
+      </c>
+      <c r="C31" s="45" t="s">
+        <v>19</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
@@ -2033,17 +2152,17 @@
         <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
       <c r="H32" s="28" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I32" s="30"/>
     </row>
@@ -2052,17 +2171,17 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="27" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I33" s="30"/>
     </row>
@@ -2071,19 +2190,19 @@
         <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
       <c r="H34" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I34" s="30"/>
     </row>
@@ -2092,7 +2211,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -2100,7 +2219,7 @@
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I35" s="30"/>
     </row>
@@ -2109,15 +2228,15 @@
         <v>35</v>
       </c>
       <c r="B36" s="33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
-      <c r="H36" s="42" t="s">
-        <v>34</v>
+      <c r="H36" s="41" t="s">
+        <v>35</v>
       </c>
       <c r="I36" s="30"/>
     </row>
@@ -2126,15 +2245,15 @@
         <v>36</v>
       </c>
       <c r="B37" s="32" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C37" s="19"/>
       <c r="D37" s="19"/>
       <c r="E37" s="19"/>
       <c r="F37" s="19"/>
       <c r="G37" s="19"/>
-      <c r="H37" s="43" t="s">
-        <v>34</v>
+      <c r="H37" s="42" t="s">
+        <v>35</v>
       </c>
       <c r="I37" s="31"/>
     </row>
@@ -2143,18 +2262,18 @@
         <v>37</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D38" s="11"/>
       <c r="E38" s="11"/>
       <c r="F38" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G38" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H38" s="11"/>
       <c r="I38" s="29"/>
@@ -2164,19 +2283,19 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I39" s="30"/>
     </row>
@@ -2185,19 +2304,19 @@
         <v>39</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
       <c r="F40" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H40" s="34" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I40" s="30"/>
     </row>
@@ -2206,19 +2325,19 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I41" s="30"/>
     </row>
@@ -2227,22 +2346,22 @@
         <v>41</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H42" s="3"/>
       <c r="I42" s="30"/>
@@ -2252,25 +2371,25 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I43" s="30"/>
     </row>
@@ -2279,21 +2398,21 @@
         <v>43</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
       <c r="H44" s="34" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I44" s="30"/>
     </row>
@@ -2302,19 +2421,19 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
       <c r="H45" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I45" s="30"/>
     </row>
@@ -2323,16 +2442,16 @@
         <v>45</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
@@ -2343,14 +2462,14 @@
       <c r="A47" s="13">
         <v>46</v>
       </c>
-      <c r="B47" s="65" t="s">
-        <v>65</v>
-      </c>
-      <c r="C47" s="68" t="s">
-        <v>18</v>
+      <c r="B47" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="C47" s="45" t="s">
+        <v>19</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
@@ -2363,13 +2482,13 @@
         <v>47</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
       <c r="F48" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
@@ -2380,19 +2499,19 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
       <c r="H49" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I49" s="30"/>
     </row>
@@ -2401,17 +2520,17 @@
         <v>49</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
       <c r="E50" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
       <c r="H50" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I50" s="30"/>
     </row>
@@ -2420,15 +2539,15 @@
         <v>50</v>
       </c>
       <c r="B51" s="32" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C51" s="19"/>
       <c r="D51" s="19"/>
       <c r="E51" s="19"/>
       <c r="F51" s="19"/>
       <c r="G51" s="19"/>
-      <c r="H51" s="43" t="s">
-        <v>34</v>
+      <c r="H51" s="42" t="s">
+        <v>35</v>
       </c>
       <c r="I51" s="31"/>
     </row>
@@ -2438,16 +2557,16 @@
     <row r="53" spans="1:9" ht="56.1" customHeight="1" thickBot="1">
       <c r="A53" s="7"/>
       <c r="B53" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C53" s="21"/>
-      <c r="D53" s="52" t="s">
-        <v>71</v>
-      </c>
-      <c r="E53" s="53"/>
-      <c r="F53" s="53"/>
-      <c r="G53" s="53"/>
-      <c r="H53" s="54"/>
+      <c r="D53" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="E53" s="57"/>
+      <c r="F53" s="57"/>
+      <c r="G53" s="57"/>
+      <c r="H53" s="58"/>
     </row>
     <row r="54" spans="1:9" ht="12" customHeight="1" thickBot="1">
       <c r="D54" s="20"/>
@@ -2457,14 +2576,17 @@
       <c r="H54" s="20"/>
     </row>
     <row r="55" spans="1:9" ht="55.5" customHeight="1" thickBot="1">
-      <c r="C55" s="40"/>
-      <c r="D55" s="52" t="s">
-        <v>72</v>
-      </c>
-      <c r="E55" s="53"/>
-      <c r="F55" s="53"/>
-      <c r="G55" s="53"/>
-      <c r="H55" s="54"/>
+      <c r="B55" s="67" t="s">
+        <v>73</v>
+      </c>
+      <c r="C55" s="39"/>
+      <c r="D55" s="56" t="s">
+        <v>74</v>
+      </c>
+      <c r="E55" s="57"/>
+      <c r="F55" s="57"/>
+      <c r="G55" s="57"/>
+      <c r="H55" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -2485,7 +2607,7 @@
   <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
@@ -2499,27 +2621,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="26.1" customHeight="1">
-      <c r="A1" s="50" t="s">
-        <v>73</v>
-      </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="59" t="s">
-        <v>74</v>
-      </c>
-      <c r="D1" s="60"/>
-      <c r="E1" s="61"/>
+      <c r="A1" s="54" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="55"/>
+      <c r="C1" s="63" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" s="64"/>
+      <c r="E1" s="65"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="50"/>
-      <c r="B2" s="51"/>
+      <c r="A2" s="54"/>
+      <c r="B2" s="55"/>
       <c r="C2" s="8" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>13</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2527,16 +2649,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2544,16 +2666,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2561,16 +2683,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2578,12 +2700,12 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2591,14 +2713,14 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2606,14 +2728,14 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2621,12 +2743,12 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2634,11 +2756,11 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E10" s="2"/>
     </row>
@@ -2647,11 +2769,11 @@
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="23"/>
@@ -2661,10 +2783,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -2674,10 +2796,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
@@ -2687,10 +2809,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -2700,10 +2822,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
@@ -2713,16 +2835,16 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -2730,16 +2852,16 @@
         <v>15</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -2747,16 +2869,16 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -2794,21 +2916,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="26.1" customHeight="1">
-      <c r="A1" s="62" t="s">
-        <v>93</v>
-      </c>
-      <c r="B1" s="62"/>
+      <c r="A1" s="66" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" s="66"/>
     </row>
     <row r="2" spans="1:2" ht="15.95" customHeight="1">
-      <c r="A2" s="62"/>
-      <c r="B2" s="62"/>
+      <c r="A2" s="66"/>
+      <c r="B2" s="66"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="24">
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2816,7 +2938,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2824,7 +2946,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2832,7 +2954,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2840,7 +2962,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29" spans="1:1">

--- a/docs/Comp_Module_Map_2022_V5.xlsx
+++ b/docs/Comp_Module_Map_2022_V5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26522"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26605"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ssu-my.sharepoint.com/personal/martin_reid_solent_ac_uk/Documents/solent_store/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6061" documentId="8_{F910275D-011D-4B9B-94BD-9ED687CDE8E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A27A56CB-1947-489E-BB44-16C250A3A61D}"/>
+  <xr:revisionPtr revIDLastSave="6100" documentId="8_{F910275D-011D-4B9B-94BD-9ED687CDE8E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DF3A5C3C-5465-431E-91BB-2CC2DB091AAA}"/>
   <bookViews>
-    <workbookView xWindow="2835" yWindow="1605" windowWidth="22560" windowHeight="13920" firstSheet="5" activeTab="11" xr2:uid="{E69C05BD-5864-2041-BCC3-203BAAF63D0E}"/>
+    <workbookView xWindow="2835" yWindow="1605" windowWidth="22560" windowHeight="13920" firstSheet="8" activeTab="5" xr2:uid="{E69C05BD-5864-2041-BCC3-203BAAF63D0E}"/>
   </bookViews>
   <sheets>
     <sheet name="Foundation" sheetId="6" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1410" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1412" uniqueCount="535">
   <si>
     <t>Computing Foundation</t>
   </si>
@@ -822,6 +822,9 @@
     <t>COM709 Computer Fundamentals</t>
   </si>
   <si>
+    <t>Bode</t>
+  </si>
+  <si>
     <t>MSc Cyber</t>
   </si>
   <si>
@@ -861,6 +864,9 @@
     <t>MAA103 Research Methods</t>
   </si>
   <si>
+    <t>Bobe</t>
+  </si>
+  <si>
     <t>Tomasz</t>
   </si>
   <si>
@@ -915,6 +921,9 @@
     <t>COM728 - Programming for Problem Solving</t>
   </si>
   <si>
+    <t>DO NOT EDIT THIS SHEET</t>
+  </si>
+  <si>
     <t>Foundation</t>
   </si>
   <si>
@@ -966,9 +975,6 @@
     <t>Andy (AL)</t>
   </si>
   <si>
-    <t>Bode</t>
-  </si>
-  <si>
     <t>Femi</t>
   </si>
   <si>
@@ -991,6 +997,9 @@
   </si>
   <si>
     <t>Tomasz*</t>
+  </si>
+  <si>
+    <t>THIS SHEET UPDATES ITSELF BASED ON INPUT ON OTHER SHEETS</t>
   </si>
   <si>
     <t>Total Modules</t>
@@ -1997,9 +2006,6 @@
     <t>BSc Cyber</t>
   </si>
   <si>
-    <t>Bobe</t>
-  </si>
-  <si>
     <t>BSc Digital Design &amp; Web</t>
   </si>
   <si>
@@ -2022,7 +2028,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="\ 0;\-0;;@\,"/>
   </numFmts>
-  <fonts count="47">
+  <fonts count="48">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2345,6 +2351,14 @@
       <u/>
       <sz val="20"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -3939,7 +3953,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="978">
+  <cellXfs count="986">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5769,6 +5783,22 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="71" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6243,6 +6273,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="45" fillId="25" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="25" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="25" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="4" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="4" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -6264,34 +6309,27 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="25" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="25" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="25" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="4" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="4" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="32" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="32" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="32" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -6635,38 +6673,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="29.1" customHeight="1">
-      <c r="A1" s="803" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="804"/>
-      <c r="C1" s="811" t="s">
+      <c r="A1" s="809" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="810"/>
+      <c r="C1" s="817" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="813" t="s">
+      <c r="D1" s="819" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="815" t="s">
+      <c r="E1" s="821" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="817" t="s">
+      <c r="F1" s="823" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="807" t="s">
+      <c r="G1" s="813" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="809" t="s">
+      <c r="H1" s="815" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="29.1" customHeight="1">
-      <c r="A2" s="805"/>
-      <c r="B2" s="806"/>
-      <c r="C2" s="812"/>
-      <c r="D2" s="814"/>
-      <c r="E2" s="816"/>
-      <c r="F2" s="818"/>
-      <c r="G2" s="808"/>
-      <c r="H2" s="810"/>
+      <c r="A2" s="811"/>
+      <c r="B2" s="812"/>
+      <c r="C2" s="818"/>
+      <c r="D2" s="820"/>
+      <c r="E2" s="822"/>
+      <c r="F2" s="824"/>
+      <c r="G2" s="814"/>
+      <c r="H2" s="816"/>
     </row>
     <row r="3" spans="1:8" ht="16.5">
       <c r="A3" s="39">
@@ -6841,11 +6879,11 @@
   <sheetData>
     <row r="1" spans="1:16" ht="18.75">
       <c r="A1" s="126" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B1" s="150"/>
       <c r="C1" s="9" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D1" s="149"/>
       <c r="E1" s="149"/>
@@ -6853,27 +6891,27 @@
     </row>
     <row r="2" spans="1:16">
       <c r="B2" s="139" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="C2" s="151" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="926" t="s">
-        <v>316</v>
-      </c>
-      <c r="F2" s="927"/>
-      <c r="G2" s="928"/>
+      <c r="E2" s="932" t="s">
+        <v>319</v>
+      </c>
+      <c r="F2" s="933"/>
+      <c r="G2" s="934"/>
       <c r="I2" s="532" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="J2" s="44" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="K2" s="535" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="L2" s="530" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -6881,17 +6919,17 @@
         <v>1</v>
       </c>
       <c r="B3" s="254" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="C3" s="136" t="s">
-        <v>233</v>
-      </c>
-      <c r="E3" s="937">
+        <v>235</v>
+      </c>
+      <c r="E3" s="943">
         <f>SUM('Supervision Load'!B3)</f>
         <v>61</v>
       </c>
-      <c r="F3" s="938"/>
-      <c r="G3" s="939"/>
+      <c r="F3" s="944"/>
+      <c r="G3" s="945"/>
       <c r="H3">
         <v>1</v>
       </c>
@@ -6910,7 +6948,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -6918,14 +6956,14 @@
         <v>2</v>
       </c>
       <c r="B4" s="254" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="C4" s="136" t="s">
         <v>80</v>
       </c>
-      <c r="E4" s="937"/>
-      <c r="F4" s="938"/>
-      <c r="G4" s="939"/>
+      <c r="E4" s="943"/>
+      <c r="F4" s="944"/>
+      <c r="G4" s="945"/>
       <c r="H4">
         <v>2</v>
       </c>
@@ -6944,7 +6982,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -6952,14 +6990,14 @@
         <v>3</v>
       </c>
       <c r="B5" s="254" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="C5" s="136" t="s">
-        <v>213</v>
-      </c>
-      <c r="E5" s="940"/>
-      <c r="F5" s="941"/>
-      <c r="G5" s="942"/>
+        <v>215</v>
+      </c>
+      <c r="E5" s="946"/>
+      <c r="F5" s="947"/>
+      <c r="G5" s="948"/>
       <c r="H5">
         <v>3</v>
       </c>
@@ -6983,7 +7021,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="254" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="C6" s="136" t="s">
         <v>50</v>
@@ -6992,7 +7030,7 @@
         <v>4</v>
       </c>
       <c r="I6" s="534" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="J6" s="347">
         <v>4</v>
@@ -7005,19 +7043,19 @@
         <f>SUM(J6-K6)</f>
         <v>0</v>
       </c>
-      <c r="M6" s="943" t="s">
-        <v>343</v>
-      </c>
-      <c r="N6" s="944"/>
-      <c r="O6" s="944"/>
-      <c r="P6" s="944"/>
+      <c r="M6" s="949" t="s">
+        <v>346</v>
+      </c>
+      <c r="N6" s="950"/>
+      <c r="O6" s="950"/>
+      <c r="P6" s="950"/>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="12">
         <v>5</v>
       </c>
       <c r="B7" s="254" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="C7" s="253" t="s">
         <v>70</v>
@@ -7040,7 +7078,7 @@
         <v>0</v>
       </c>
       <c r="M7" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -7048,7 +7086,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="254" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="C8" s="136" t="s">
         <v>50</v>
@@ -7057,7 +7095,7 @@
         <v>6</v>
       </c>
       <c r="I8" s="534" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J8" s="347">
         <v>0</v>
@@ -7076,16 +7114,16 @@
         <v>7</v>
       </c>
       <c r="B9" s="254" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="C9" s="136" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="H9">
         <v>7</v>
       </c>
       <c r="I9" s="527" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="J9" s="544">
         <v>2</v>
@@ -7103,13 +7141,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="488" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="C10" s="547" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="D10" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="J10" s="525">
         <f>SUM(J3:J9)</f>
@@ -7129,10 +7167,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="254" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="C11" s="136" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -7140,10 +7178,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="254" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="C12" s="253" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="J12" s="5"/>
       <c r="K12" s="11"/>
@@ -7153,10 +7191,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="254" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="C13" s="136" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -7164,10 +7202,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="254" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="C14" s="136" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -7175,22 +7213,22 @@
         <v>13</v>
       </c>
       <c r="B15" s="254" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="C15" s="136" t="s">
         <v>80</v>
       </c>
       <c r="I15" s="538" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="J15" s="259" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="K15" s="540" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="L15" s="528" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -7198,7 +7236,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="254" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="C16" s="136" t="s">
         <v>50</v>
@@ -7207,7 +7245,7 @@
         <v>1</v>
       </c>
       <c r="I16" s="78" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="J16" s="354">
         <v>9</v>
@@ -7221,7 +7259,7 @@
         <v>0</v>
       </c>
       <c r="M16" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -7229,16 +7267,16 @@
         <v>15</v>
       </c>
       <c r="B17" s="254" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="C17" s="253" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="H17">
         <v>2</v>
       </c>
       <c r="I17" s="78" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="J17" s="354">
         <v>8</v>
@@ -7257,16 +7295,16 @@
         <v>16</v>
       </c>
       <c r="B18" s="254" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="C18" s="136" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="H18">
         <v>3</v>
       </c>
       <c r="I18" s="78" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="J18" s="354">
         <v>9</v>
@@ -7280,7 +7318,7 @@
         <v>0</v>
       </c>
       <c r="M18" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -7288,16 +7326,16 @@
         <v>17</v>
       </c>
       <c r="B19" s="254" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="C19" s="253" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="H19">
         <v>4</v>
       </c>
       <c r="I19" s="77" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="J19" s="362">
         <v>8</v>
@@ -7316,7 +7354,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="254" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="C20" s="136" t="s">
         <v>70</v>
@@ -7339,13 +7377,13 @@
         <v>19</v>
       </c>
       <c r="B21" s="798" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="C21" s="547" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="D21" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -7353,16 +7391,16 @@
         <v>20</v>
       </c>
       <c r="B22" s="254" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="C22" s="136" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="K22" s="335" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="L22" s="334" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -7370,10 +7408,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="254" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="C23" s="136" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="K23" s="310">
         <f>SUM(K10,K20)</f>
@@ -7389,7 +7427,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="254" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="C24" s="253" t="s">
         <v>50</v>
@@ -7400,7 +7438,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="254" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="C25" s="136" t="s">
         <v>80</v>
@@ -7411,10 +7449,10 @@
         <v>24</v>
       </c>
       <c r="B26" s="254" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="C26" s="253" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -7422,10 +7460,10 @@
         <v>25</v>
       </c>
       <c r="B27" s="254" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="C27" s="136" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -7433,10 +7471,10 @@
         <v>26</v>
       </c>
       <c r="B28" s="254" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="C28" s="136" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -7444,10 +7482,10 @@
         <v>27</v>
       </c>
       <c r="B29" s="254" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="C29" s="253" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -7455,7 +7493,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="254" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C30" s="136" t="s">
         <v>80</v>
@@ -7466,7 +7504,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="254" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="C31" s="253" t="s">
         <v>50</v>
@@ -7477,10 +7515,10 @@
         <v>30</v>
       </c>
       <c r="B32" s="138" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="C32" s="255" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -7488,7 +7526,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="138" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="C33" s="136" t="s">
         <v>81</v>
@@ -7499,10 +7537,10 @@
         <v>32</v>
       </c>
       <c r="B34" s="138" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="C34" s="136" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -7510,7 +7548,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="138" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="C35" s="136" t="s">
         <v>50</v>
@@ -7521,10 +7559,10 @@
         <v>34</v>
       </c>
       <c r="B36" s="138" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="C36" s="136" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -7532,7 +7570,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="138" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="C37" s="136" t="s">
         <v>80</v>
@@ -7543,7 +7581,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="138" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="C38" s="136" t="s">
         <v>81</v>
@@ -7554,10 +7592,10 @@
         <v>37</v>
       </c>
       <c r="B39" s="138" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="C39" s="136" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -7565,10 +7603,10 @@
         <v>38</v>
       </c>
       <c r="B40" s="138" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="C40" s="136" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -7576,10 +7614,10 @@
         <v>39</v>
       </c>
       <c r="B41" s="138" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="C41" s="136" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -7587,10 +7625,10 @@
         <v>40</v>
       </c>
       <c r="B42" s="138" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="C42" s="136" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -7598,10 +7636,10 @@
         <v>41</v>
       </c>
       <c r="B43" s="138" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -7609,10 +7647,10 @@
         <v>42</v>
       </c>
       <c r="B44" s="138" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -7620,10 +7658,10 @@
         <v>43</v>
       </c>
       <c r="B45" s="138" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -7631,7 +7669,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="138" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="C46" s="10" t="s">
         <v>50</v>
@@ -7642,10 +7680,10 @@
         <v>45</v>
       </c>
       <c r="B47" s="138" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -7653,10 +7691,10 @@
         <v>46</v>
       </c>
       <c r="B48" s="138" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -7664,7 +7702,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="138" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="C49" s="10" t="s">
         <v>80</v>
@@ -7675,7 +7713,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="138" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="C50" s="10" t="s">
         <v>50</v>
@@ -7686,10 +7724,10 @@
         <v>49</v>
       </c>
       <c r="B51" s="138" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -7697,10 +7735,10 @@
         <v>50</v>
       </c>
       <c r="B52" s="138" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -7708,10 +7746,10 @@
         <v>51</v>
       </c>
       <c r="B53" s="138" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -7719,10 +7757,10 @@
         <v>52</v>
       </c>
       <c r="B54" s="138" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -7730,10 +7768,10 @@
         <v>53</v>
       </c>
       <c r="B55" s="138" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -7741,10 +7779,10 @@
         <v>54</v>
       </c>
       <c r="B56" s="138" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -7752,10 +7790,10 @@
         <v>55</v>
       </c>
       <c r="B57" s="138" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -7763,10 +7801,10 @@
         <v>56</v>
       </c>
       <c r="B58" s="138" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -7774,10 +7812,10 @@
         <v>57</v>
       </c>
       <c r="B59" s="138" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -7785,10 +7823,10 @@
         <v>58</v>
       </c>
       <c r="B60" s="146" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="C60" s="216" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -7796,7 +7834,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="313" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="C61" s="313" t="s">
         <v>70</v>
@@ -7807,7 +7845,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="326" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="C62" s="326" t="s">
         <v>70</v>
@@ -7818,7 +7856,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="338" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="C63" s="145" t="s">
         <v>81</v>
@@ -7860,42 +7898,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A1" s="955" t="s">
-        <v>411</v>
-      </c>
-      <c r="B1" s="956"/>
-      <c r="C1" s="956"/>
-      <c r="D1" s="957"/>
+      <c r="A1" s="961" t="s">
+        <v>414</v>
+      </c>
+      <c r="B1" s="962"/>
+      <c r="C1" s="962"/>
+      <c r="D1" s="963"/>
       <c r="E1" s="148"/>
       <c r="F1" s="148"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" customHeight="1">
       <c r="A2" s="140"/>
       <c r="B2" s="168" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="C2" s="112" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="D2" s="143" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="953" t="s">
-        <v>413</v>
-      </c>
-      <c r="G2" s="954"/>
-      <c r="H2" s="911"/>
+      <c r="F2" s="959" t="s">
+        <v>416</v>
+      </c>
+      <c r="G2" s="960"/>
+      <c r="H2" s="917"/>
       <c r="J2" s="248" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="K2" s="25" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="L2" s="250" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="M2" s="251" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1">
@@ -7903,15 +7941,15 @@
         <v>1</v>
       </c>
       <c r="B3" s="254" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="144"/>
-      <c r="F3" s="945">
+      <c r="F3" s="951">
         <v>109</v>
       </c>
-      <c r="G3" s="946"/>
-      <c r="H3" s="947"/>
+      <c r="G3" s="952"/>
+      <c r="H3" s="953"/>
       <c r="I3">
         <v>1</v>
       </c>
@@ -7935,13 +7973,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="254" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="144"/>
-      <c r="F4" s="948"/>
-      <c r="G4" s="938"/>
-      <c r="H4" s="949"/>
+      <c r="F4" s="954"/>
+      <c r="G4" s="944"/>
+      <c r="H4" s="955"/>
       <c r="I4">
         <v>2</v>
       </c>
@@ -7965,13 +8003,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="254" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="144"/>
-      <c r="F5" s="950"/>
-      <c r="G5" s="951"/>
-      <c r="H5" s="952"/>
+      <c r="F5" s="956"/>
+      <c r="G5" s="957"/>
+      <c r="H5" s="958"/>
       <c r="I5">
         <v>3</v>
       </c>
@@ -7995,7 +8033,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="254" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="144"/>
@@ -8003,7 +8041,7 @@
         <v>4</v>
       </c>
       <c r="J6" s="75" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="K6" s="51"/>
       <c r="L6" s="239">
@@ -8020,7 +8058,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="254" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="144"/>
@@ -8028,7 +8066,7 @@
         <v>5</v>
       </c>
       <c r="J7" s="75" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="K7" s="51">
         <v>4</v>
@@ -8047,15 +8085,15 @@
         <v>6</v>
       </c>
       <c r="B8" s="254" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="144"/>
-      <c r="F8" s="958" t="s">
-        <v>420</v>
-      </c>
-      <c r="G8" s="959"/>
-      <c r="H8" s="960"/>
+      <c r="F8" s="964" t="s">
+        <v>423</v>
+      </c>
+      <c r="G8" s="965"/>
+      <c r="H8" s="966"/>
       <c r="I8">
         <v>6</v>
       </c>
@@ -8079,7 +8117,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="254" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="144"/>
@@ -8087,7 +8125,7 @@
         <v>7</v>
       </c>
       <c r="J9" s="75" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="K9" s="51">
         <v>10</v>
@@ -8106,7 +8144,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="254" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="144"/>
@@ -8114,7 +8152,7 @@
         <v>8</v>
       </c>
       <c r="J10" s="244" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="K10" s="328">
         <v>10</v>
@@ -8133,7 +8171,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="254" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="144"/>
@@ -8156,7 +8194,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="254" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="144"/>
@@ -8179,7 +8217,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="254" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="144"/>
@@ -8202,7 +8240,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="254" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="144"/>
@@ -8220,7 +8258,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="254" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="144"/>
@@ -8230,12 +8268,12 @@
         <v>14</v>
       </c>
       <c r="B16" s="254" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="144"/>
       <c r="J16" s="708" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="K16" s="709"/>
       <c r="L16" s="710"/>
@@ -8246,7 +8284,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="254" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="144"/>
@@ -8254,7 +8292,7 @@
         <v>1</v>
       </c>
       <c r="J17" s="712" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="K17" s="713">
         <v>10</v>
@@ -8273,7 +8311,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="254" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="144"/>
@@ -8281,7 +8319,7 @@
         <v>2</v>
       </c>
       <c r="J18" s="75" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="K18" s="64">
         <v>10</v>
@@ -8300,7 +8338,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="254" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="144"/>
@@ -8308,7 +8346,7 @@
         <v>3</v>
       </c>
       <c r="J19" s="75" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="K19" s="64">
         <v>10</v>
@@ -8327,7 +8365,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="254" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="C20" s="10"/>
       <c r="D20" s="144"/>
@@ -8350,7 +8388,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="254" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="C21" s="10"/>
       <c r="D21" s="144"/>
@@ -8373,7 +8411,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="254" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="C22" s="10"/>
       <c r="D22" s="144"/>
@@ -8396,7 +8434,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="254" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="C23" s="10"/>
       <c r="D23" s="144"/>
@@ -8419,7 +8457,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="254" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="C24" s="10"/>
       <c r="D24" s="144"/>
@@ -8442,7 +8480,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="254" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="C25" s="10"/>
       <c r="D25" s="144"/>
@@ -8465,7 +8503,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="254" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="C26" s="10"/>
       <c r="D26" s="144"/>
@@ -8483,12 +8521,12 @@
         <v>25</v>
       </c>
       <c r="B27" s="254" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="C27" s="10"/>
       <c r="D27" s="144"/>
       <c r="J27" s="341" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="K27" s="340">
         <f>SUM(K14+K26)</f>
@@ -8500,15 +8538,15 @@
         <v>26</v>
       </c>
       <c r="B28" s="254" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="C28" s="10"/>
       <c r="D28" s="144"/>
       <c r="L28" s="336" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="M28" s="337" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -8516,7 +8554,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="254" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="C29" s="10"/>
       <c r="D29" s="144"/>
@@ -8534,7 +8572,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="254" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="C30" s="10"/>
       <c r="D30" s="144"/>
@@ -8544,7 +8582,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="254" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="C31" s="10"/>
       <c r="D31" s="144"/>
@@ -8554,7 +8592,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="254" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="C32" s="10"/>
       <c r="D32" s="144"/>
@@ -8564,7 +8602,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="254" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="C33" s="10"/>
       <c r="D33" s="144"/>
@@ -8574,7 +8612,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="254" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C34" s="10"/>
       <c r="D34" s="144"/>
@@ -8584,7 +8622,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="254" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C35" s="10"/>
       <c r="D35" s="144"/>
@@ -8594,7 +8632,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="254" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="C36" s="10"/>
       <c r="D36" s="144"/>
@@ -8604,7 +8642,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="254" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="C37" s="10"/>
       <c r="D37" s="144"/>
@@ -8614,7 +8652,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="254" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="C38" s="10"/>
       <c r="D38" s="144"/>
@@ -8624,7 +8662,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="254" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="C39" s="10"/>
       <c r="D39" s="144"/>
@@ -8634,7 +8672,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="254" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="C40" s="10"/>
       <c r="D40" s="144"/>
@@ -8644,7 +8682,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="254" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="C41" s="10"/>
       <c r="D41" s="144"/>
@@ -8654,7 +8692,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="254" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="C42" s="10"/>
       <c r="D42" s="144"/>
@@ -8664,7 +8702,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="254" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="C43" s="10"/>
       <c r="D43" s="145"/>
@@ -8674,7 +8712,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="254" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="C44" s="10"/>
       <c r="D44" s="145"/>
@@ -8684,7 +8722,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="254" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="C45" s="10"/>
       <c r="D45" s="145"/>
@@ -8694,7 +8732,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="254" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="C46" s="10"/>
       <c r="D46" s="145"/>
@@ -8704,7 +8742,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="254" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="C47" s="10"/>
       <c r="D47" s="145"/>
@@ -8714,7 +8752,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="254" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="C48" s="10"/>
       <c r="D48" s="145"/>
@@ -8724,7 +8762,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="254" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="C49" s="10"/>
       <c r="D49" s="145"/>
@@ -8734,7 +8772,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="254" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="C50" s="10"/>
       <c r="D50" s="145"/>
@@ -8744,7 +8782,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="254" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="C51" s="10"/>
       <c r="D51" s="145"/>
@@ -8754,7 +8792,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="254" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="C52" s="10"/>
       <c r="D52" s="145"/>
@@ -8764,7 +8802,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="254" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="C53" s="10"/>
       <c r="D53" s="145"/>
@@ -8775,7 +8813,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="254" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C54" s="10"/>
       <c r="D54" s="145"/>
@@ -8785,7 +8823,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="254" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="C55" s="10"/>
       <c r="D55" s="145"/>
@@ -8795,7 +8833,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="254" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="C56" s="10"/>
       <c r="D56" s="145"/>
@@ -8805,7 +8843,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="254" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="C57" s="10"/>
       <c r="D57" s="145"/>
@@ -8815,7 +8853,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="254" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="C58" s="10"/>
       <c r="D58" s="145"/>
@@ -8825,7 +8863,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="358" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="C59" s="10"/>
       <c r="D59" s="147"/>
@@ -8835,7 +8873,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="254" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="C60" s="10"/>
       <c r="D60" s="145"/>
@@ -8845,7 +8883,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="254" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="C61" s="10"/>
       <c r="D61" s="145"/>
@@ -8855,7 +8893,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="254" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="C62" s="10"/>
       <c r="D62" s="145"/>
@@ -8865,7 +8903,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="254" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="C63" s="10"/>
       <c r="D63" s="145"/>
@@ -8875,7 +8913,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="254" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="C64" s="10"/>
       <c r="D64" s="145"/>
@@ -8885,7 +8923,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="254" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="C65" s="10"/>
       <c r="D65" s="145"/>
@@ -8895,7 +8933,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="254" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="C66" s="10"/>
       <c r="D66" s="145"/>
@@ -8905,7 +8943,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="254" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="C67" s="10"/>
       <c r="D67" s="145"/>
@@ -8915,7 +8953,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="254" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="C68" s="10"/>
       <c r="D68" s="145"/>
@@ -8925,7 +8963,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="254" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="C69" s="10"/>
       <c r="D69" s="145"/>
@@ -8935,7 +8973,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="254" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="C70" s="10"/>
       <c r="D70" s="145"/>
@@ -8945,7 +8983,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="254" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="C71" s="10"/>
       <c r="D71" s="145"/>
@@ -8955,7 +8993,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="254" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="C72" s="10"/>
       <c r="D72" s="145"/>
@@ -8965,7 +9003,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="254" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="C73" s="10"/>
       <c r="D73" s="145"/>
@@ -8975,7 +9013,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="254" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="C74" s="10"/>
       <c r="D74" s="145"/>
@@ -8985,7 +9023,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="254" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="C75" s="10"/>
       <c r="D75" s="145"/>
@@ -8995,7 +9033,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="254" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="C76" s="10"/>
       <c r="D76" s="145"/>
@@ -9005,7 +9043,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="254" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="C77" s="10"/>
       <c r="D77" s="145"/>
@@ -9015,7 +9053,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="254" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="C78" s="10"/>
       <c r="D78" s="145"/>
@@ -9025,7 +9063,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="254" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="C79" s="10"/>
       <c r="D79" s="145"/>
@@ -9035,7 +9073,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="254" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="C80" s="10"/>
       <c r="D80" s="145"/>
@@ -9045,7 +9083,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="254" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="C81" s="10"/>
       <c r="D81" s="145"/>
@@ -9055,7 +9093,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="254" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="C82" s="10"/>
       <c r="D82" s="145"/>
@@ -9065,7 +9103,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="254" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="C83" s="10"/>
       <c r="D83" s="145"/>
@@ -9075,7 +9113,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="254" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="C84" s="10"/>
       <c r="D84" s="145"/>
@@ -9085,7 +9123,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="254" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="C85" s="10"/>
       <c r="D85" s="145"/>
@@ -9095,7 +9133,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="254" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="C86" s="10"/>
       <c r="D86" s="145"/>
@@ -9105,7 +9143,7 @@
         <v>85</v>
       </c>
       <c r="B87" s="254" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="C87" s="10"/>
       <c r="D87" s="145"/>
@@ -9115,7 +9153,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="254" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="C88" s="10"/>
       <c r="D88" s="145"/>
@@ -9125,7 +9163,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="254" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="C89" s="10"/>
       <c r="D89" s="145"/>
@@ -9135,7 +9173,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="254" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="C90" s="10"/>
       <c r="D90" s="145"/>
@@ -9145,7 +9183,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="254" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="C91" s="10"/>
       <c r="D91" s="145"/>
@@ -9155,7 +9193,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="254" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="C92" s="10"/>
       <c r="D92" s="145"/>
@@ -9165,7 +9203,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="254" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="C93" s="10"/>
       <c r="D93" s="145"/>
@@ -9175,7 +9213,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="254" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="C94" s="10"/>
       <c r="D94" s="145"/>
@@ -9185,7 +9223,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="254" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="C95" s="10"/>
       <c r="D95" s="145"/>
@@ -9195,7 +9233,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="254" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="C96" s="10"/>
       <c r="D96" s="145"/>
@@ -9205,7 +9243,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="254" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="C97" s="10"/>
       <c r="D97" s="145"/>
@@ -9215,7 +9253,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="254" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="C98" s="10"/>
       <c r="D98" s="145"/>
@@ -9225,7 +9263,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="254" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="C99" s="10"/>
       <c r="D99" s="145"/>
@@ -9235,7 +9273,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="254" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="C100" s="10"/>
       <c r="D100" s="145"/>
@@ -9245,7 +9283,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="254" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="C101" s="10"/>
       <c r="D101" s="145"/>
@@ -9255,7 +9293,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="254" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="C102" s="10"/>
       <c r="D102" s="145"/>
@@ -9265,7 +9303,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="254" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="C103" s="10"/>
       <c r="D103" s="145"/>
@@ -9275,7 +9313,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="254" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="C104" s="10"/>
       <c r="D104" s="145"/>
@@ -9285,7 +9323,7 @@
         <v>103</v>
       </c>
       <c r="B105" s="254" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="C105" s="10"/>
       <c r="D105" s="145"/>
@@ -9295,7 +9333,7 @@
         <v>104</v>
       </c>
       <c r="B106" s="254" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="C106" s="10"/>
       <c r="D106" s="145"/>
@@ -9305,7 +9343,7 @@
         <v>105</v>
       </c>
       <c r="B107" s="254" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="C107" s="10"/>
       <c r="D107" s="145"/>
@@ -9315,7 +9353,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="254" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="C108" s="10"/>
       <c r="D108" s="145"/>
@@ -9325,7 +9363,7 @@
         <v>107</v>
       </c>
       <c r="B109" s="254" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="C109" s="10"/>
       <c r="D109" s="145"/>
@@ -9335,7 +9373,7 @@
         <v>108</v>
       </c>
       <c r="B110" s="254" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="C110" s="10"/>
       <c r="D110" s="145"/>
@@ -9345,7 +9383,7 @@
         <v>109</v>
       </c>
       <c r="B111" s="254" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="C111" s="10"/>
       <c r="D111" s="145"/>
@@ -9368,8 +9406,8 @@
   </sheetPr>
   <dimension ref="A1:O60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -9391,28 +9429,28 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="B1" s="296" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="C1" s="296" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="D1" s="352" t="s">
         <v>6</v>
       </c>
       <c r="K1" s="112" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="L1" s="559" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="M1" s="562" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="N1" s="560" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="O1" s="561" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -9430,7 +9468,7 @@
       <c r="G2" s="774">
         <v>11</v>
       </c>
-      <c r="H2" s="971">
+      <c r="H2" s="967">
         <f>SUM(G2:G6)</f>
         <v>59</v>
       </c>
@@ -9438,7 +9476,7 @@
         <v>1</v>
       </c>
       <c r="K2" s="17" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="L2" s="12"/>
       <c r="M2" s="12"/>
@@ -9461,17 +9499,17 @@
       <c r="C3" s="551"/>
       <c r="D3" s="70"/>
       <c r="F3" s="349" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="G3" s="775">
         <v>8</v>
       </c>
-      <c r="H3" s="972"/>
+      <c r="H3" s="968"/>
       <c r="J3" s="142">
         <v>2</v>
       </c>
       <c r="K3" s="17" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="L3" s="12"/>
       <c r="M3" s="12"/>
@@ -9494,17 +9532,17 @@
       <c r="C4" s="551"/>
       <c r="D4" s="70"/>
       <c r="F4" s="350" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="G4" s="776">
         <v>10</v>
       </c>
-      <c r="H4" s="972"/>
+      <c r="H4" s="968"/>
       <c r="J4" s="142">
         <v>3</v>
       </c>
       <c r="K4" s="17" t="s">
-        <v>527</v>
+        <v>198</v>
       </c>
       <c r="L4" s="12"/>
       <c r="M4" s="12"/>
@@ -9527,17 +9565,17 @@
       <c r="C5" s="551"/>
       <c r="D5" s="70"/>
       <c r="F5" s="349" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="G5" s="775">
         <v>5</v>
       </c>
-      <c r="H5" s="972"/>
+      <c r="H5" s="968"/>
       <c r="J5" s="142">
         <v>4</v>
       </c>
       <c r="K5" s="17" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="L5" s="12"/>
       <c r="M5" s="12"/>
@@ -9560,12 +9598,12 @@
       <c r="C6" s="551"/>
       <c r="D6" s="70"/>
       <c r="F6" s="351" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="G6" s="777">
         <v>25</v>
       </c>
-      <c r="H6" s="973"/>
+      <c r="H6" s="969"/>
       <c r="J6" s="142">
         <v>5</v>
       </c>
@@ -9618,7 +9656,6 @@
       </c>
       <c r="C8" s="551"/>
       <c r="D8" s="70"/>
-      <c r="F8" s="977"/>
       <c r="G8" s="5"/>
       <c r="J8" s="142">
         <v>7</v>
@@ -9647,13 +9684,13 @@
       <c r="C9" s="551"/>
       <c r="D9" s="70"/>
       <c r="F9" s="528" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="J9" s="142">
         <v>8</v>
       </c>
       <c r="K9" s="17" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="L9" s="12"/>
       <c r="M9" s="12"/>
@@ -9675,8 +9712,8 @@
       </c>
       <c r="C10" s="551"/>
       <c r="D10" s="70"/>
-      <c r="F10" s="974" t="s">
-        <v>531</v>
+      <c r="F10" s="806" t="s">
+        <v>533</v>
       </c>
       <c r="J10" s="142">
         <v>9</v>
@@ -9704,7 +9741,7 @@
       </c>
       <c r="C11" s="551"/>
       <c r="D11" s="70"/>
-      <c r="F11" s="975">
+      <c r="F11" s="970">
         <f>SUM(H2-N26)</f>
         <v>54</v>
       </c>
@@ -9712,7 +9749,7 @@
         <v>10</v>
       </c>
       <c r="K11" s="17" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="L11" s="12"/>
       <c r="M11" s="12"/>
@@ -9734,12 +9771,12 @@
       </c>
       <c r="C12" s="552"/>
       <c r="D12" s="236"/>
-      <c r="F12" s="976"/>
+      <c r="F12" s="971"/>
       <c r="J12" s="142">
         <v>11</v>
       </c>
       <c r="K12" s="17" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="L12" s="12"/>
       <c r="M12" s="12"/>
@@ -9757,7 +9794,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="218" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="C13" s="553"/>
       <c r="D13" s="219"/>
@@ -9765,7 +9802,7 @@
         <v>12</v>
       </c>
       <c r="K13" s="17" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="L13" s="12"/>
       <c r="M13" s="12"/>
@@ -9783,7 +9820,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="207" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="C14" s="554"/>
       <c r="D14" s="71"/>
@@ -9797,7 +9834,7 @@
         <v>5</v>
       </c>
       <c r="M14" s="12" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="N14" s="564">
         <f>COUNTIF(D2:D65, "Martin")</f>
@@ -9813,7 +9850,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="207" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="C15" s="554"/>
       <c r="D15" s="71"/>
@@ -9839,7 +9876,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="207" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="C16" s="554"/>
       <c r="D16" s="71"/>
@@ -9847,7 +9884,7 @@
         <v>15</v>
       </c>
       <c r="K16" s="17" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="L16" s="12"/>
       <c r="M16" s="12"/>
@@ -9865,7 +9902,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="207" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="C17" s="554"/>
       <c r="D17" s="71"/>
@@ -9873,7 +9910,7 @@
         <v>16</v>
       </c>
       <c r="K17" s="17" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="L17" s="12"/>
       <c r="M17" s="12"/>
@@ -9891,7 +9928,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="207" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="C18" s="554"/>
       <c r="D18" s="71"/>
@@ -9899,7 +9936,7 @@
         <v>17</v>
       </c>
       <c r="K18" s="17" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="L18" s="12"/>
       <c r="M18" s="12"/>
@@ -9917,7 +9954,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="207" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="C19" s="554"/>
       <c r="D19" s="71"/>
@@ -9943,7 +9980,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="220" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="C20" s="555"/>
       <c r="D20" s="133"/>
@@ -9969,7 +10006,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="237" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="C21" s="550"/>
       <c r="D21" s="231"/>
@@ -9993,7 +10030,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="224" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="C22" s="551"/>
       <c r="D22" s="70"/>
@@ -10017,7 +10054,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="224" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="C23" s="551"/>
       <c r="D23" s="70"/>
@@ -10041,7 +10078,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="224" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="C24" s="551"/>
       <c r="D24" s="70"/>
@@ -10065,7 +10102,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="224" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="C25" s="551"/>
       <c r="D25" s="70"/>
@@ -10075,11 +10112,11 @@
       <c r="K25" s="17"/>
       <c r="L25" s="18"/>
       <c r="M25" s="12"/>
-      <c r="N25" s="969">
+      <c r="N25" s="804">
         <f>COUNTIF(D2:D65, " ")</f>
         <v>0</v>
       </c>
-      <c r="O25" s="970">
+      <c r="O25" s="805">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -10089,7 +10126,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="224" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="C26" s="551"/>
       <c r="D26" s="70"/>
@@ -10097,7 +10134,7 @@
         <f>SUM(L2:L25)</f>
         <v>5</v>
       </c>
-      <c r="N26" s="968">
+      <c r="N26" s="803">
         <f>SUM(N2:N25)</f>
         <v>5</v>
       </c>
@@ -10111,7 +10148,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="224" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="C27" s="551"/>
       <c r="D27" s="70"/>
@@ -10121,7 +10158,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="224" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="C28" s="551"/>
       <c r="D28" s="70"/>
@@ -10131,7 +10168,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="224" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="C29" s="551"/>
       <c r="D29" s="70"/>
@@ -10141,7 +10178,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="226" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="C30" s="556"/>
       <c r="D30" s="74"/>
@@ -10151,7 +10188,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="221" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="C31" s="557"/>
       <c r="D31" s="174" t="s">
@@ -10163,7 +10200,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="207" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="C32" s="554"/>
       <c r="D32" s="232" t="s">
@@ -10175,7 +10212,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="207" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="C33" s="554"/>
       <c r="D33" s="232" t="s">
@@ -10187,7 +10224,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="207" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="C34" s="554"/>
       <c r="D34" s="232" t="s">
@@ -10199,7 +10236,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="220" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="C35" s="555"/>
       <c r="D35" s="233" t="s">
@@ -10211,7 +10248,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="228" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="C36" s="558"/>
       <c r="D36" s="231"/>
@@ -10221,7 +10258,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="227" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="C37" s="19"/>
       <c r="D37" s="70"/>
@@ -10231,7 +10268,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="227" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="C38" s="19"/>
       <c r="D38" s="70"/>
@@ -10241,7 +10278,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="227" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="C39" s="19"/>
       <c r="D39" s="70"/>
@@ -10251,7 +10288,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="227" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="C40" s="19"/>
       <c r="D40" s="70"/>
@@ -10261,7 +10298,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="227" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="C41" s="19"/>
       <c r="D41" s="70"/>
@@ -10271,7 +10308,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="227" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="C42" s="19"/>
       <c r="D42" s="70"/>
@@ -10281,7 +10318,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="227" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="C43" s="19"/>
       <c r="D43" s="70"/>
@@ -10291,7 +10328,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="227" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="C44" s="19"/>
       <c r="D44" s="70"/>
@@ -10301,7 +10338,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="227" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="C45" s="19"/>
       <c r="D45" s="70"/>
@@ -10311,7 +10348,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="227" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="C46" s="19"/>
       <c r="D46" s="70"/>
@@ -10321,7 +10358,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="227" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="C47" s="19"/>
       <c r="D47" s="70"/>
@@ -10331,7 +10368,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="227" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="C48" s="19"/>
       <c r="D48" s="70"/>
@@ -10341,7 +10378,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="227" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="C49" s="19"/>
       <c r="D49" s="70"/>
@@ -10351,7 +10388,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="227" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="C50" s="19"/>
       <c r="D50" s="70"/>
@@ -10361,7 +10398,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="227" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="C51" s="19"/>
       <c r="D51" s="70"/>
@@ -10371,7 +10408,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="227" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="C52" s="19"/>
       <c r="D52" s="70"/>
@@ -10381,7 +10418,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="227" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="C53" s="19"/>
       <c r="D53" s="70"/>
@@ -10391,7 +10428,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="227" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="C54" s="19"/>
       <c r="D54" s="70"/>
@@ -10401,7 +10438,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="227" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="C55" s="19"/>
       <c r="D55" s="70"/>
@@ -10411,7 +10448,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="227" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="C56" s="19"/>
       <c r="D56" s="70"/>
@@ -10421,7 +10458,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="227" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="C57" s="19"/>
       <c r="D57" s="70"/>
@@ -10431,7 +10468,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="227" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="C58" s="19"/>
       <c r="D58" s="70"/>
@@ -10441,7 +10478,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="227" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="C59" s="19"/>
       <c r="D59" s="70"/>
@@ -10451,7 +10488,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="167" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="C60" s="289"/>
       <c r="D60" s="74"/>
@@ -10490,42 +10527,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18.75">
-      <c r="A1" s="955" t="s">
-        <v>411</v>
-      </c>
-      <c r="B1" s="961"/>
-      <c r="C1" s="961"/>
-      <c r="D1" s="962"/>
+      <c r="A1" s="961" t="s">
+        <v>414</v>
+      </c>
+      <c r="B1" s="972"/>
+      <c r="C1" s="972"/>
+      <c r="D1" s="973"/>
       <c r="E1" s="149"/>
       <c r="F1" s="149"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" customHeight="1">
       <c r="A2" s="140"/>
       <c r="B2" s="112" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="C2" s="789" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="D2" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="965" t="s">
-        <v>532</v>
-      </c>
-      <c r="G2" s="966"/>
-      <c r="H2" s="967"/>
+      <c r="F2" s="976" t="s">
+        <v>534</v>
+      </c>
+      <c r="G2" s="977"/>
+      <c r="H2" s="978"/>
       <c r="J2" s="708" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="K2" s="709" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="L2" s="783" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="M2" s="784" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -10535,11 +10572,11 @@
       <c r="B3" s="790"/>
       <c r="C3" s="791"/>
       <c r="D3" s="360"/>
-      <c r="F3" s="963">
+      <c r="F3" s="974">
         <v>110</v>
       </c>
-      <c r="G3" s="946"/>
-      <c r="H3" s="964"/>
+      <c r="G3" s="952"/>
+      <c r="H3" s="975"/>
       <c r="I3">
         <v>1</v>
       </c>
@@ -10565,9 +10602,9 @@
       <c r="B4" s="254"/>
       <c r="C4" s="10"/>
       <c r="D4" s="144"/>
-      <c r="F4" s="940"/>
-      <c r="G4" s="941"/>
-      <c r="H4" s="942"/>
+      <c r="F4" s="946"/>
+      <c r="G4" s="947"/>
+      <c r="H4" s="948"/>
       <c r="I4">
         <v>2</v>
       </c>
@@ -10646,7 +10683,7 @@
         <v>5</v>
       </c>
       <c r="J7" s="75" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="K7" s="51">
         <v>4</v>
@@ -10696,7 +10733,7 @@
         <v>7</v>
       </c>
       <c r="J9" s="75" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="K9" s="51">
         <v>10</v>
@@ -10721,7 +10758,7 @@
         <v>8</v>
       </c>
       <c r="J10" s="244" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="K10" s="328">
         <v>10</v>
@@ -10831,7 +10868,7 @@
       <c r="C16" s="10"/>
       <c r="D16" s="144"/>
       <c r="J16" s="708" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="K16" s="709"/>
       <c r="L16" s="710"/>
@@ -10848,7 +10885,7 @@
         <v>1</v>
       </c>
       <c r="J17" s="712" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="K17" s="713">
         <v>10</v>
@@ -10873,7 +10910,7 @@
         <v>2</v>
       </c>
       <c r="J18" s="75" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="K18" s="64">
         <v>10</v>
@@ -10898,7 +10935,7 @@
         <v>3</v>
       </c>
       <c r="J19" s="75" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="K19" s="64">
         <v>10</v>
@@ -10923,7 +10960,7 @@
         <v>4</v>
       </c>
       <c r="J20" s="75" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="K20" s="64">
         <v>10</v>
@@ -11006,7 +11043,7 @@
       <c r="C25" s="10"/>
       <c r="D25" s="144"/>
       <c r="J25" s="341" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="K25" s="340">
         <f>SUM(K14+K24)</f>
@@ -11021,10 +11058,10 @@
       <c r="C26" s="10"/>
       <c r="D26" s="359"/>
       <c r="L26" s="336" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="M26" s="337" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -11740,7 +11777,7 @@
   </sheetPr>
   <dimension ref="A1:T59"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
+    <sheetView topLeftCell="A18" workbookViewId="0">
       <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
@@ -11761,61 +11798,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="26.1" customHeight="1">
-      <c r="A1" s="827" t="s">
+      <c r="A1" s="833" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="828"/>
-      <c r="C1" s="839" t="s">
+      <c r="B1" s="834"/>
+      <c r="C1" s="845" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="837" t="s">
+      <c r="D1" s="843" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="831" t="s">
+      <c r="E1" s="837" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="833" t="s">
+      <c r="F1" s="839" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="835" t="s">
+      <c r="G1" s="841" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="848" t="s">
+      <c r="H1" s="854" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="850" t="s">
+      <c r="I1" s="856" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="824" t="s">
+      <c r="J1" s="830" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="825"/>
-      <c r="L1" s="825"/>
-      <c r="M1" s="825"/>
-      <c r="N1" s="826"/>
-      <c r="O1" s="844" t="s">
+      <c r="K1" s="831"/>
+      <c r="L1" s="831"/>
+      <c r="M1" s="831"/>
+      <c r="N1" s="832"/>
+      <c r="O1" s="850" t="s">
         <v>24</v>
       </c>
-      <c r="P1" s="845"/>
-      <c r="Q1" s="821" t="s">
+      <c r="P1" s="851"/>
+      <c r="Q1" s="827" t="s">
         <v>25</v>
       </c>
-      <c r="R1" s="822"/>
-      <c r="S1" s="823"/>
-      <c r="T1" s="819" t="s">
+      <c r="R1" s="828"/>
+      <c r="S1" s="829"/>
+      <c r="T1" s="825" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="28.5" customHeight="1">
-      <c r="A2" s="829"/>
-      <c r="B2" s="830"/>
-      <c r="C2" s="840"/>
-      <c r="D2" s="838"/>
-      <c r="E2" s="832"/>
-      <c r="F2" s="834"/>
-      <c r="G2" s="836"/>
-      <c r="H2" s="849"/>
-      <c r="I2" s="851"/>
+      <c r="A2" s="835"/>
+      <c r="B2" s="836"/>
+      <c r="C2" s="846"/>
+      <c r="D2" s="844"/>
+      <c r="E2" s="838"/>
+      <c r="F2" s="840"/>
+      <c r="G2" s="842"/>
+      <c r="H2" s="855"/>
+      <c r="I2" s="857"/>
       <c r="J2" s="470" t="s">
         <v>27</v>
       </c>
@@ -11846,7 +11883,7 @@
       <c r="S2" s="565" t="s">
         <v>35</v>
       </c>
-      <c r="T2" s="820"/>
+      <c r="T2" s="826"/>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" s="676">
@@ -12387,10 +12424,10 @@
       <c r="L15" s="410"/>
       <c r="M15" s="410"/>
       <c r="N15" s="410"/>
-      <c r="O15" s="846" t="s">
+      <c r="O15" s="852" t="s">
         <v>38</v>
       </c>
-      <c r="P15" s="847"/>
+      <c r="P15" s="853"/>
       <c r="Q15" s="85"/>
       <c r="R15" s="619"/>
       <c r="S15" s="51" t="s">
@@ -13930,13 +13967,13 @@
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
       <c r="J55" s="3"/>
-      <c r="K55" s="841" t="s">
+      <c r="K55" s="847" t="s">
         <v>109</v>
       </c>
-      <c r="L55" s="842"/>
-      <c r="M55" s="842"/>
-      <c r="N55" s="842"/>
-      <c r="O55" s="843"/>
+      <c r="L55" s="848"/>
+      <c r="M55" s="848"/>
+      <c r="N55" s="848"/>
+      <c r="O55" s="849"/>
     </row>
     <row r="56" spans="1:20" ht="12" customHeight="1">
       <c r="A56" s="8"/>
@@ -13959,13 +13996,13 @@
       <c r="H57" s="16"/>
       <c r="I57" s="16"/>
       <c r="J57" s="7"/>
-      <c r="K57" s="841" t="s">
+      <c r="K57" s="847" t="s">
         <v>111</v>
       </c>
-      <c r="L57" s="842"/>
-      <c r="M57" s="842"/>
-      <c r="N57" s="842"/>
-      <c r="O57" s="843"/>
+      <c r="L57" s="848"/>
+      <c r="M57" s="848"/>
+      <c r="N57" s="848"/>
+      <c r="O57" s="849"/>
     </row>
     <row r="58" spans="1:20"/>
     <row r="59" spans="1:20" ht="15.75" customHeight="1">
@@ -14116,64 +14153,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" customHeight="1">
-      <c r="A1" s="858" t="s">
+      <c r="A1" s="864" t="s">
         <v>112</v>
       </c>
       <c r="B1" s="270"/>
-      <c r="C1" s="852" t="s">
+      <c r="C1" s="858" t="s">
         <v>113</v>
       </c>
-      <c r="D1" s="853"/>
-      <c r="E1" s="853"/>
-      <c r="F1" s="853"/>
-      <c r="G1" s="854"/>
+      <c r="D1" s="859"/>
+      <c r="E1" s="859"/>
+      <c r="F1" s="859"/>
+      <c r="G1" s="860"/>
       <c r="H1" s="270"/>
-      <c r="I1" s="858" t="s">
+      <c r="I1" s="864" t="s">
         <v>114</v>
       </c>
-      <c r="K1" s="852" t="s">
+      <c r="K1" s="858" t="s">
         <v>115</v>
       </c>
-      <c r="L1" s="853"/>
-      <c r="M1" s="853"/>
-      <c r="N1" s="853"/>
-      <c r="O1" s="853"/>
-      <c r="P1" s="853"/>
-      <c r="Q1" s="854"/>
-      <c r="S1" s="852" t="s">
+      <c r="L1" s="859"/>
+      <c r="M1" s="859"/>
+      <c r="N1" s="859"/>
+      <c r="O1" s="859"/>
+      <c r="P1" s="859"/>
+      <c r="Q1" s="860"/>
+      <c r="S1" s="858" t="s">
         <v>116</v>
       </c>
-      <c r="T1" s="853"/>
-      <c r="U1" s="853"/>
-      <c r="V1" s="853"/>
-      <c r="W1" s="853"/>
-      <c r="X1" s="853"/>
-      <c r="Y1" s="854"/>
+      <c r="T1" s="859"/>
+      <c r="U1" s="859"/>
+      <c r="V1" s="859"/>
+      <c r="W1" s="859"/>
+      <c r="X1" s="859"/>
+      <c r="Y1" s="860"/>
     </row>
     <row r="2" spans="1:25" ht="23.25">
-      <c r="A2" s="859"/>
+      <c r="A2" s="865"/>
       <c r="B2" s="270"/>
-      <c r="C2" s="855"/>
-      <c r="D2" s="856"/>
-      <c r="E2" s="856"/>
-      <c r="F2" s="856"/>
-      <c r="G2" s="857"/>
+      <c r="C2" s="861"/>
+      <c r="D2" s="862"/>
+      <c r="E2" s="862"/>
+      <c r="F2" s="862"/>
+      <c r="G2" s="863"/>
       <c r="H2" s="270"/>
-      <c r="I2" s="859"/>
-      <c r="K2" s="855"/>
-      <c r="L2" s="856"/>
-      <c r="M2" s="856"/>
-      <c r="N2" s="856"/>
-      <c r="O2" s="856"/>
-      <c r="P2" s="856"/>
-      <c r="Q2" s="857"/>
-      <c r="S2" s="855"/>
-      <c r="T2" s="856"/>
-      <c r="U2" s="856"/>
-      <c r="V2" s="856"/>
-      <c r="W2" s="856"/>
-      <c r="X2" s="856"/>
-      <c r="Y2" s="857"/>
+      <c r="I2" s="865"/>
+      <c r="K2" s="861"/>
+      <c r="L2" s="862"/>
+      <c r="M2" s="862"/>
+      <c r="N2" s="862"/>
+      <c r="O2" s="862"/>
+      <c r="P2" s="862"/>
+      <c r="Q2" s="863"/>
+      <c r="S2" s="861"/>
+      <c r="T2" s="862"/>
+      <c r="U2" s="862"/>
+      <c r="V2" s="862"/>
+      <c r="W2" s="862"/>
+      <c r="X2" s="862"/>
+      <c r="Y2" s="863"/>
     </row>
     <row r="3" spans="1:25" ht="41.25">
       <c r="A3" s="208" t="s">
@@ -15551,7 +15588,7 @@
   <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" customHeight="1"/>
@@ -15576,57 +15613,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="26.1" customHeight="1">
-      <c r="A1" s="860" t="s">
+      <c r="A1" s="866" t="s">
         <v>178</v>
       </c>
-      <c r="B1" s="860"/>
-      <c r="C1" s="861" t="s">
+      <c r="B1" s="866"/>
+      <c r="C1" s="867" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="863" t="s">
+      <c r="D1" s="869" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="835" t="s">
+      <c r="E1" s="841" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="865" t="s">
+      <c r="F1" s="871" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="871" t="s">
+      <c r="G1" s="877" t="s">
         <v>179</v>
       </c>
-      <c r="H1" s="867" t="s">
+      <c r="H1" s="873" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="867" t="s">
+      <c r="I1" s="873" t="s">
         <v>180</v>
       </c>
-      <c r="J1" s="867" t="s">
+      <c r="J1" s="873" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="869" t="s">
+      <c r="K1" s="875" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="37.5" customHeight="1">
-      <c r="A2" s="860"/>
-      <c r="B2" s="860"/>
-      <c r="C2" s="862"/>
-      <c r="D2" s="864"/>
-      <c r="E2" s="836"/>
-      <c r="F2" s="866"/>
-      <c r="G2" s="872"/>
-      <c r="H2" s="868"/>
-      <c r="I2" s="868"/>
-      <c r="J2" s="868"/>
-      <c r="K2" s="870"/>
-      <c r="M2" s="852" t="s">
+      <c r="A2" s="866"/>
+      <c r="B2" s="866"/>
+      <c r="C2" s="868"/>
+      <c r="D2" s="870"/>
+      <c r="E2" s="842"/>
+      <c r="F2" s="872"/>
+      <c r="G2" s="878"/>
+      <c r="H2" s="874"/>
+      <c r="I2" s="874"/>
+      <c r="J2" s="874"/>
+      <c r="K2" s="876"/>
+      <c r="M2" s="858" t="s">
         <v>181</v>
       </c>
-      <c r="N2" s="853"/>
-      <c r="O2" s="853"/>
-      <c r="P2" s="853"/>
-      <c r="Q2" s="854"/>
+      <c r="N2" s="859"/>
+      <c r="O2" s="859"/>
+      <c r="P2" s="859"/>
+      <c r="Q2" s="860"/>
     </row>
     <row r="3" spans="1:17" ht="15.75" customHeight="1">
       <c r="A3" s="6">
@@ -15656,11 +15693,11 @@
         <v>12</v>
       </c>
       <c r="K3" s="84"/>
-      <c r="M3" s="855"/>
-      <c r="N3" s="856"/>
-      <c r="O3" s="856"/>
-      <c r="P3" s="856"/>
-      <c r="Q3" s="857"/>
+      <c r="M3" s="861"/>
+      <c r="N3" s="862"/>
+      <c r="O3" s="862"/>
+      <c r="P3" s="862"/>
+      <c r="Q3" s="863"/>
     </row>
     <row r="4" spans="1:17" ht="15.75" customHeight="1">
       <c r="A4" s="4">
@@ -15686,20 +15723,20 @@
       <c r="I4" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="J4" s="486" t="s">
-        <v>17</v>
+      <c r="J4" s="980" t="s">
+        <v>184</v>
       </c>
       <c r="K4" s="85"/>
       <c r="M4" s="273" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N4" s="277"/>
       <c r="O4" s="275" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="P4" s="277"/>
       <c r="Q4" s="291" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -15707,7 +15744,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="796" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C5" s="88">
         <v>2</v>
@@ -15726,8 +15763,8 @@
       <c r="I5" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="J5" s="486" t="s">
-        <v>17</v>
+      <c r="J5" s="979" t="s">
+        <v>81</v>
       </c>
       <c r="K5" s="86"/>
       <c r="M5" s="298"/>
@@ -15741,7 +15778,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C6" s="90">
         <v>2</v>
@@ -15775,7 +15812,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C7" s="88">
         <v>2</v>
@@ -15791,7 +15828,7 @@
         <v>38</v>
       </c>
       <c r="J7" s="344" t="s">
-        <v>40</v>
+        <v>184</v>
       </c>
       <c r="K7" s="86"/>
       <c r="M7" s="696" t="s">
@@ -15811,7 +15848,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C8" s="90">
         <v>2</v>
@@ -15826,20 +15863,20 @@
       <c r="I8" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="J8" s="486" t="s">
-        <v>17</v>
+      <c r="J8" s="980" t="s">
+        <v>184</v>
       </c>
       <c r="K8" s="85"/>
       <c r="M8" s="696" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N8" s="279"/>
       <c r="O8" s="696" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="P8" s="279"/>
       <c r="Q8" s="696" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -15847,7 +15884,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="796" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C9" s="88">
         <v>2</v>
@@ -15860,20 +15897,20 @@
       <c r="I9" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="J9" s="486" t="s">
-        <v>17</v>
+      <c r="J9" s="980" t="s">
+        <v>81</v>
       </c>
       <c r="K9" s="86"/>
       <c r="M9" s="696" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="N9" s="279"/>
       <c r="O9" s="696" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="P9" s="279"/>
       <c r="Q9" s="696" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -15881,7 +15918,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="796" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C10" s="90">
         <v>2</v>
@@ -15899,15 +15936,15 @@
       </c>
       <c r="K10" s="85"/>
       <c r="M10" s="697" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="N10" s="279"/>
       <c r="O10" s="697" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P10" s="279"/>
       <c r="Q10" s="697" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -15915,7 +15952,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="796" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C11" s="88">
         <v>2</v>
@@ -15928,8 +15965,8 @@
         <v>38</v>
       </c>
       <c r="I11" s="35"/>
-      <c r="J11" s="581" t="s">
-        <v>17</v>
+      <c r="J11" s="981" t="s">
+        <v>198</v>
       </c>
       <c r="K11" s="86"/>
       <c r="M11" s="155"/>
@@ -15943,7 +15980,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C12" s="90">
         <v>2</v>
@@ -15979,7 +16016,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C13" s="88">
         <v>2</v>
@@ -15995,7 +16032,7 @@
       <c r="H13" s="35"/>
       <c r="I13" s="35"/>
       <c r="J13" s="344" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="K13" s="86"/>
       <c r="M13" s="698" t="s">
@@ -16015,7 +16052,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C14" s="90">
         <v>2</v>
@@ -16035,15 +16072,15 @@
       </c>
       <c r="K14" s="85"/>
       <c r="M14" s="698" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N14" s="279"/>
       <c r="O14" s="698" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="P14" s="279"/>
       <c r="Q14" s="698" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -16051,7 +16088,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C15" s="88">
         <v>2</v>
@@ -16071,15 +16108,15 @@
       </c>
       <c r="K15" s="86"/>
       <c r="M15" s="698" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="N15" s="279"/>
       <c r="O15" s="698" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="P15" s="279"/>
       <c r="Q15" s="698" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -16087,7 +16124,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="796" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C16" s="90">
         <v>2</v>
@@ -16111,15 +16148,15 @@
       </c>
       <c r="K16" s="85"/>
       <c r="M16" s="700" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="N16" s="279"/>
       <c r="O16" s="700" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="P16" s="279"/>
       <c r="Q16" s="700" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -16127,7 +16164,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="796" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C17" s="88">
         <v>2</v>
@@ -16184,15 +16221,15 @@
     </row>
     <row r="19" spans="1:17">
       <c r="M19" s="699" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="N19" s="263"/>
       <c r="O19" s="699" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="P19" s="263"/>
       <c r="Q19" s="699" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="15.75" customHeight="1">
@@ -16303,7 +16340,7 @@
   <dimension ref="A1:I51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" customHeight="1"/>
@@ -16320,50 +16357,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="26.1" customHeight="1">
-      <c r="A1" s="803" t="s">
-        <v>203</v>
-      </c>
-      <c r="B1" s="804"/>
-      <c r="C1" s="879" t="s">
-        <v>204</v>
-      </c>
-      <c r="D1" s="877" t="s">
+      <c r="A1" s="809" t="s">
+        <v>205</v>
+      </c>
+      <c r="B1" s="810"/>
+      <c r="C1" s="885" t="s">
+        <v>206</v>
+      </c>
+      <c r="D1" s="883" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="863" t="s">
+      <c r="E1" s="869" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="815" t="s">
+      <c r="F1" s="821" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="871" t="s">
+      <c r="G1" s="877" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="873" t="s">
+      <c r="H1" s="879" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="874"/>
+      <c r="I1" s="880"/>
     </row>
     <row r="2" spans="1:9" ht="30" customHeight="1">
-      <c r="A2" s="805"/>
-      <c r="B2" s="806"/>
-      <c r="C2" s="880"/>
-      <c r="D2" s="878"/>
-      <c r="E2" s="864"/>
-      <c r="F2" s="816"/>
-      <c r="G2" s="872"/>
-      <c r="H2" s="875"/>
-      <c r="I2" s="876"/>
+      <c r="A2" s="811"/>
+      <c r="B2" s="812"/>
+      <c r="C2" s="886"/>
+      <c r="D2" s="884"/>
+      <c r="E2" s="870"/>
+      <c r="F2" s="822"/>
+      <c r="G2" s="878"/>
+      <c r="H2" s="881"/>
+      <c r="I2" s="882"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="39">
         <v>1</v>
       </c>
       <c r="B3" s="706" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C3" s="63" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D3" s="256"/>
       <c r="E3" s="67"/>
@@ -16372,7 +16409,7 @@
         <v>17</v>
       </c>
       <c r="H3" s="19" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="I3" s="70"/>
     </row>
@@ -16381,10 +16418,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="583" t="s">
+        <v>210</v>
+      </c>
+      <c r="C4" s="64" t="s">
         <v>208</v>
-      </c>
-      <c r="C4" s="64" t="s">
-        <v>206</v>
       </c>
       <c r="D4" s="257"/>
       <c r="E4" s="66"/>
@@ -16396,7 +16433,7 @@
         <v>80</v>
       </c>
       <c r="I4" s="71" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -16404,10 +16441,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="706" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C5" s="63" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D5" s="256"/>
       <c r="E5" s="67"/>
@@ -16423,10 +16460,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="583" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C6" s="64" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D6" s="257"/>
       <c r="E6" s="66"/>
@@ -16438,7 +16475,7 @@
         <v>70</v>
       </c>
       <c r="I6" s="71" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -16446,10 +16483,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="701" t="s">
+        <v>216</v>
+      </c>
+      <c r="C7" s="290" t="s">
         <v>214</v>
-      </c>
-      <c r="C7" s="290" t="s">
-        <v>212</v>
       </c>
       <c r="D7" s="258"/>
       <c r="E7" s="73"/>
@@ -16504,14 +16541,14 @@
   </sheetPr>
   <dimension ref="A1:AC61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="5.25" customWidth="1"/>
-    <col min="2" max="2" width="11.375" customWidth="1"/>
+    <col min="1" max="1" width="4.125" customWidth="1"/>
+    <col min="2" max="2" width="15.125" customWidth="1"/>
     <col min="3" max="3" width="6.625" customWidth="1"/>
     <col min="4" max="4" width="7.875" customWidth="1"/>
     <col min="5" max="5" width="6.75" customWidth="1"/>
@@ -16535,95 +16572,99 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
-      <c r="C1" s="892" t="s">
-        <v>215</v>
-      </c>
-      <c r="D1" s="893"/>
-      <c r="E1" s="884" t="s">
+      <c r="A1" s="982" t="s">
+        <v>217</v>
+      </c>
+      <c r="B1" s="983"/>
+      <c r="C1" s="898" t="s">
+        <v>218</v>
+      </c>
+      <c r="D1" s="899"/>
+      <c r="E1" s="890" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="885"/>
-      <c r="G1" s="894" t="s">
+      <c r="F1" s="891"/>
+      <c r="G1" s="900" t="s">
         <v>178</v>
       </c>
-      <c r="H1" s="895"/>
-      <c r="I1" s="896" t="s">
-        <v>216</v>
-      </c>
-      <c r="J1" s="897"/>
-      <c r="K1" s="898" t="s">
-        <v>217</v>
-      </c>
-      <c r="L1" s="899"/>
-      <c r="M1" s="889"/>
-      <c r="N1" s="886" t="s">
-        <v>218</v>
-      </c>
-      <c r="O1" s="887"/>
-      <c r="P1" s="887"/>
-      <c r="Q1" s="887"/>
-      <c r="R1" s="887"/>
-      <c r="S1" s="887"/>
-      <c r="T1" s="887"/>
-      <c r="U1" s="888"/>
-    </row>
-    <row r="2" spans="1:21">
-      <c r="A2" s="12"/>
-      <c r="B2" s="17"/>
+      <c r="H1" s="901"/>
+      <c r="I1" s="902" t="s">
+        <v>219</v>
+      </c>
+      <c r="J1" s="903"/>
+      <c r="K1" s="904" t="s">
+        <v>220</v>
+      </c>
+      <c r="L1" s="905"/>
+      <c r="M1" s="895"/>
+      <c r="N1" s="892" t="s">
+        <v>221</v>
+      </c>
+      <c r="O1" s="893"/>
+      <c r="P1" s="893"/>
+      <c r="Q1" s="893"/>
+      <c r="R1" s="893"/>
+      <c r="S1" s="893"/>
+      <c r="T1" s="893"/>
+      <c r="U1" s="894"/>
+    </row>
+    <row r="2" spans="1:21" ht="20.25" customHeight="1">
+      <c r="A2" s="984"/>
+      <c r="B2" s="985"/>
       <c r="C2" s="26" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="D2" s="495" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="E2" s="655" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="F2" s="656" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="G2" s="499" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="H2" s="506" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="I2" s="500" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="J2" s="27" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="K2" s="771" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="L2" s="772" t="s">
-        <v>220</v>
-      </c>
-      <c r="M2" s="890"/>
+        <v>223</v>
+      </c>
+      <c r="M2" s="896"/>
       <c r="N2" s="259" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="O2" s="259" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="P2" s="259" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q2" s="259" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="R2" s="259" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="S2" s="259" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="T2" s="259" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="U2" s="44" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -16631,7 +16672,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="576" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C3" s="28">
         <f>COUNTIF(Foundation!G3:G8, "Ajab")</f>
@@ -16667,13 +16708,13 @@
         <f>SUM(D3+F3+H3+J3)</f>
         <v>0</v>
       </c>
-      <c r="M3" s="890"/>
+      <c r="M3" s="896"/>
       <c r="N3" s="512"/>
       <c r="O3" s="512"/>
       <c r="P3" s="512"/>
       <c r="Q3" s="512"/>
       <c r="R3" s="521" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="S3" s="521"/>
       <c r="T3" s="521"/>
@@ -16686,7 +16727,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="797" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="C4" s="30">
         <f>COUNTIF(Foundation!G3:G8, "Andy")</f>
@@ -16722,7 +16763,7 @@
         <f t="shared" ref="L4:L18" si="0">SUM(D4+F4+H4+J4)</f>
         <v>0</v>
       </c>
-      <c r="M4" s="890"/>
+      <c r="M4" s="896"/>
       <c r="N4" s="513"/>
       <c r="O4" s="513"/>
       <c r="P4" s="513"/>
@@ -16773,7 +16814,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M5" s="890"/>
+      <c r="M5" s="896"/>
       <c r="N5" s="514"/>
       <c r="O5" s="514"/>
       <c r="P5" s="514"/>
@@ -16790,7 +16831,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>232</v>
+        <v>184</v>
       </c>
       <c r="C6" s="30"/>
       <c r="D6" s="497"/>
@@ -16804,7 +16845,7 @@
       </c>
       <c r="G6" s="319">
         <f>COUNTIF('PG Delivery &amp; Map (15 Credits)'!J4:J19, "Bode")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H6" s="508">
         <f>COUNTIF('PG Delivery &amp; Map (15 Credits)'!K2:K18, "Bode")</f>
@@ -16820,13 +16861,13 @@
       </c>
       <c r="K6" s="42">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L6" s="81">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M6" s="890"/>
+      <c r="M6" s="896"/>
       <c r="N6" s="514"/>
       <c r="O6" s="514"/>
       <c r="P6" s="514"/>
@@ -16877,7 +16918,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M7" s="890"/>
+      <c r="M7" s="896"/>
       <c r="N7" s="513"/>
       <c r="O7" s="513"/>
       <c r="P7" s="513"/>
@@ -16930,7 +16971,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="M8" s="890"/>
+      <c r="M8" s="896"/>
       <c r="N8" s="514"/>
       <c r="O8" s="514">
         <v>1</v>
@@ -16947,7 +16988,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="797" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C9" s="30">
         <f>COUNTIF(Foundation!G3:G8, " ")</f>
@@ -16983,7 +17024,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M9" s="890"/>
+      <c r="M9" s="896"/>
       <c r="N9" s="513"/>
       <c r="O9" s="513"/>
       <c r="P9" s="513"/>
@@ -17034,7 +17075,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="M10" s="890"/>
+      <c r="M10" s="896"/>
       <c r="N10" s="514"/>
       <c r="O10" s="514"/>
       <c r="P10" s="514"/>
@@ -17087,7 +17128,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="M11" s="890"/>
+      <c r="M11" s="896"/>
       <c r="N11" s="513"/>
       <c r="O11" s="513"/>
       <c r="P11" s="513"/>
@@ -17104,7 +17145,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="797" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C12" s="30">
         <f>COUNTIF(Foundation!G3:G8, "Joe")</f>
@@ -17140,7 +17181,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M12" s="890"/>
+      <c r="M12" s="896"/>
       <c r="N12" s="514"/>
       <c r="O12" s="514"/>
       <c r="P12" s="514"/>
@@ -17191,7 +17232,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M13" s="890"/>
+      <c r="M13" s="896"/>
       <c r="N13" s="513">
         <v>1</v>
       </c>
@@ -17208,7 +17249,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C14" s="30">
         <f>COUNTIF(Foundation!G3:G8, "Kenton")</f>
@@ -17244,7 +17285,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M14" s="890"/>
+      <c r="M14" s="896"/>
       <c r="N14" s="514"/>
       <c r="O14" s="514"/>
       <c r="P14" s="514"/>
@@ -17261,7 +17302,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="204" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C15" s="30"/>
       <c r="D15" s="497"/>
@@ -17294,7 +17335,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="M15" s="890"/>
+      <c r="M15" s="896"/>
       <c r="N15" s="514"/>
       <c r="O15" s="514"/>
       <c r="P15" s="514"/>
@@ -17311,7 +17352,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="206" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C16" s="30">
         <f>COUNTIF(Foundation!G3:G8, "Louise")</f>
@@ -17350,7 +17391,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M16" s="890"/>
+      <c r="M16" s="896"/>
       <c r="N16" s="515"/>
       <c r="O16" s="515"/>
       <c r="P16" s="515"/>
@@ -17405,7 +17446,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M17" s="890"/>
+      <c r="M17" s="896"/>
       <c r="N17" s="516"/>
       <c r="O17" s="516">
         <v>1</v>
@@ -17422,7 +17463,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C18" s="725"/>
       <c r="D18" s="726"/>
@@ -17443,7 +17484,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M18" s="890"/>
+      <c r="M18" s="896"/>
       <c r="N18" s="78"/>
       <c r="O18" s="78"/>
       <c r="P18" s="78"/>
@@ -17458,7 +17499,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="491" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C19" s="28">
         <f>COUNTIF(Foundation!G3:G8, "Mike")</f>
@@ -17494,7 +17535,7 @@
         <f>SUM(D19+F19+H19+J19)</f>
         <v>3</v>
       </c>
-      <c r="M19" s="890"/>
+      <c r="M19" s="896"/>
       <c r="N19" s="512"/>
       <c r="O19" s="512"/>
       <c r="P19" s="512"/>
@@ -17547,7 +17588,7 @@
         <f>SUM(D20+F20+H20+J20)</f>
         <v>1</v>
       </c>
-      <c r="M20" s="890"/>
+      <c r="M20" s="896"/>
       <c r="N20" s="513"/>
       <c r="O20" s="513"/>
       <c r="P20" s="513">
@@ -17600,7 +17641,7 @@
         <f>SUM(D21+F21+H21+J21)</f>
         <v>0</v>
       </c>
-      <c r="M21" s="890"/>
+      <c r="M21" s="896"/>
       <c r="N21" s="514"/>
       <c r="O21" s="514"/>
       <c r="P21" s="514">
@@ -17617,7 +17658,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C22" s="33">
         <f>COUNTIF(Foundation!G3:G8, "Pengfei")</f>
@@ -17634,12 +17675,12 @@
       </c>
       <c r="G22" s="652">
         <f>COUNTIF('PG Delivery &amp; Map (15 Credits)'!J3:J18, "Pengfei")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H22" s="508"/>
       <c r="I22" s="502">
         <f>COUNTIF('PG Delivery &amp; Map (15 Credits)'!J3:J18, "Warren")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" s="31">
         <f>COUNTIF('PG MAIDS'!H3:H7, "Pengfei")+COUNTIF('PG MAIDS'!I3:I7, "Pengfei")</f>
@@ -17647,13 +17688,13 @@
       </c>
       <c r="K22" s="42">
         <f>SUM(C22+E22+G22+I22)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L22" s="81">
         <f>SUM(D22+F22+H22+J22)</f>
         <v>3</v>
       </c>
-      <c r="M22" s="890"/>
+      <c r="M22" s="896"/>
       <c r="N22" s="513"/>
       <c r="O22" s="513"/>
       <c r="P22" s="513"/>
@@ -17706,7 +17747,7 @@
         <f>SUM(D23+F23+H23+J23)</f>
         <v>1</v>
       </c>
-      <c r="M23" s="890"/>
+      <c r="M23" s="896"/>
       <c r="N23" s="514">
         <v>1</v>
       </c>
@@ -17725,7 +17766,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="576" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C24" s="33">
         <f>COUNTIF(Foundation!G3:G8, "Tomasz")</f>
@@ -17761,7 +17802,7 @@
         <f>SUM(D24+F24+H24+J24)</f>
         <v>0</v>
       </c>
-      <c r="M24" s="890"/>
+      <c r="M24" s="896"/>
       <c r="N24" s="517"/>
       <c r="O24" s="517"/>
       <c r="P24" s="517"/>
@@ -17797,7 +17838,7 @@
       </c>
       <c r="G25" s="654">
         <f>COUNTIF('PG Delivery &amp; Map (15 Credits)'!J3:J18, "Warren")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" s="509"/>
       <c r="I25" s="504">
@@ -17810,13 +17851,13 @@
       </c>
       <c r="K25" s="317">
         <f>SUM(C25+E25+G25+I25)</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L25" s="318">
         <f>SUM(D25+F25+H25+J25)</f>
         <v>0</v>
       </c>
-      <c r="M25" s="890"/>
+      <c r="M25" s="896"/>
       <c r="N25" s="514"/>
       <c r="O25" s="514"/>
       <c r="P25" s="514"/>
@@ -17850,7 +17891,7 @@
       </c>
       <c r="G26" s="737">
         <f>COUNTIF('PG Delivery &amp; Map (15 Credits)'!J3:J18, "VACANT")</f>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H26" s="738"/>
       <c r="I26" s="723">
@@ -17863,13 +17904,13 @@
       </c>
       <c r="K26" s="317">
         <f>SUM(C26+E26+G26+I26)</f>
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="L26" s="318">
         <f>SUM(D26+F26+H26+J26)</f>
         <v>0</v>
       </c>
-      <c r="M26" s="890"/>
+      <c r="M26" s="896"/>
       <c r="N26" s="78"/>
       <c r="O26" s="78"/>
       <c r="P26" s="78"/>
@@ -17918,7 +17959,7 @@
         <f>SUM(D27+F27+H27+J27)</f>
         <v>0</v>
       </c>
-      <c r="M27" s="890"/>
+      <c r="M27" s="896"/>
       <c r="N27" s="518"/>
       <c r="O27" s="518"/>
       <c r="P27" s="518"/>
@@ -17929,18 +17970,18 @@
       <c r="U27" s="325"/>
     </row>
     <row r="28" spans="1:21">
-      <c r="A28" s="882"/>
-      <c r="B28" s="882"/>
-      <c r="C28" s="882"/>
-      <c r="D28" s="882"/>
-      <c r="E28" s="882"/>
-      <c r="F28" s="882"/>
-      <c r="G28" s="882"/>
-      <c r="H28" s="882"/>
-      <c r="I28" s="882"/>
-      <c r="J28" s="882"/>
-      <c r="K28" s="882"/>
-      <c r="L28" s="882"/>
+      <c r="A28" s="888"/>
+      <c r="B28" s="888"/>
+      <c r="C28" s="888"/>
+      <c r="D28" s="888"/>
+      <c r="E28" s="888"/>
+      <c r="F28" s="888"/>
+      <c r="G28" s="888"/>
+      <c r="H28" s="888"/>
+      <c r="I28" s="888"/>
+      <c r="J28" s="888"/>
+      <c r="K28" s="888"/>
+      <c r="L28" s="888"/>
       <c r="N28" s="519">
         <f>SUM(N3:N27)</f>
         <v>2</v>
@@ -17975,50 +18016,52 @@
       </c>
     </row>
     <row r="29" spans="1:21">
-      <c r="A29" s="882"/>
-      <c r="B29" s="882"/>
-      <c r="C29" s="882"/>
-      <c r="D29" s="882"/>
-      <c r="E29" s="882"/>
-      <c r="F29" s="882"/>
-      <c r="G29" s="891"/>
-      <c r="H29" s="900" t="s">
-        <v>241</v>
-      </c>
-      <c r="I29" s="901"/>
-      <c r="J29" s="902"/>
+      <c r="A29" s="906" t="s">
+        <v>243</v>
+      </c>
+      <c r="B29" s="907"/>
+      <c r="C29" s="907"/>
+      <c r="D29" s="907"/>
+      <c r="E29" s="907"/>
+      <c r="F29" s="907"/>
+      <c r="G29" s="908"/>
+      <c r="H29" s="907" t="s">
+        <v>244</v>
+      </c>
+      <c r="I29" s="907"/>
+      <c r="J29" s="908"/>
       <c r="K29" s="703">
         <f>SUM(K3:K28)</f>
-        <v>77</v>
-      </c>
-      <c r="N29" s="881"/>
-      <c r="O29" s="881"/>
-      <c r="P29" s="881"/>
-      <c r="Q29" s="881"/>
-      <c r="R29" s="881"/>
-      <c r="S29" s="881"/>
-      <c r="T29" s="881"/>
-      <c r="U29" s="881"/>
+        <v>75</v>
+      </c>
+      <c r="N29" s="887"/>
+      <c r="O29" s="887"/>
+      <c r="P29" s="887"/>
+      <c r="Q29" s="887"/>
+      <c r="R29" s="887"/>
+      <c r="S29" s="887"/>
+      <c r="T29" s="887"/>
+      <c r="U29" s="887"/>
     </row>
     <row r="30" spans="1:21">
-      <c r="A30" s="882"/>
-      <c r="B30" s="882"/>
-      <c r="C30" s="882"/>
-      <c r="D30" s="882"/>
-      <c r="E30" s="882"/>
-      <c r="F30" s="882"/>
-      <c r="G30" s="882"/>
-      <c r="H30" s="882"/>
-      <c r="I30" s="882"/>
-      <c r="J30" s="882"/>
-      <c r="K30" s="882"/>
-      <c r="L30" s="882"/>
-      <c r="M30" s="882"/>
-      <c r="N30" s="882"/>
-      <c r="O30" s="882"/>
-      <c r="P30" s="891"/>
+      <c r="A30" s="888"/>
+      <c r="B30" s="888"/>
+      <c r="C30" s="888"/>
+      <c r="D30" s="888"/>
+      <c r="E30" s="888"/>
+      <c r="F30" s="888"/>
+      <c r="G30" s="888"/>
+      <c r="H30" s="888"/>
+      <c r="I30" s="888"/>
+      <c r="J30" s="888"/>
+      <c r="K30" s="888"/>
+      <c r="L30" s="888"/>
+      <c r="M30" s="888"/>
+      <c r="N30" s="888"/>
+      <c r="O30" s="888"/>
+      <c r="P30" s="897"/>
       <c r="Q30" s="765" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="R30" s="766"/>
       <c r="S30" s="766"/>
@@ -18032,23 +18075,23 @@
       <c r="H31" s="24"/>
       <c r="K31" s="802">
         <f>SUM(K25+K21+K17+K14+K13)</f>
-        <v>36</v>
-      </c>
-      <c r="N31" s="882"/>
-      <c r="O31" s="882"/>
-      <c r="P31" s="882"/>
-      <c r="Q31" s="882"/>
-      <c r="R31" s="882"/>
-      <c r="S31" s="882"/>
-      <c r="T31" s="882"/>
-      <c r="U31" s="882"/>
+        <v>35</v>
+      </c>
+      <c r="N31" s="888"/>
+      <c r="O31" s="888"/>
+      <c r="P31" s="888"/>
+      <c r="Q31" s="888"/>
+      <c r="R31" s="888"/>
+      <c r="S31" s="888"/>
+      <c r="T31" s="888"/>
+      <c r="U31" s="888"/>
     </row>
     <row r="32" spans="1:21">
       <c r="B32" s="702" t="s">
         <v>18</v>
       </c>
       <c r="Q32" s="765" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="R32" s="766"/>
       <c r="S32" s="766"/>
@@ -18059,25 +18102,25 @@
       </c>
     </row>
     <row r="34" spans="20:29">
-      <c r="T34" s="882"/>
-      <c r="U34" s="882"/>
-      <c r="V34" s="882"/>
-      <c r="W34" s="882"/>
-      <c r="X34" s="882"/>
-      <c r="Y34" s="882"/>
-      <c r="Z34" s="882"/>
-      <c r="AA34" s="882"/>
-      <c r="AB34" s="882"/>
-      <c r="AC34" s="882"/>
+      <c r="T34" s="888"/>
+      <c r="U34" s="888"/>
+      <c r="V34" s="888"/>
+      <c r="W34" s="888"/>
+      <c r="X34" s="888"/>
+      <c r="Y34" s="888"/>
+      <c r="Z34" s="888"/>
+      <c r="AA34" s="888"/>
+      <c r="AB34" s="888"/>
+      <c r="AC34" s="888"/>
     </row>
     <row r="36" spans="20:29">
-      <c r="U36" s="883"/>
-      <c r="V36" s="882"/>
-      <c r="W36" s="882"/>
-      <c r="X36" s="882"/>
-      <c r="Y36" s="882"/>
-      <c r="Z36" s="882"/>
-      <c r="AA36" s="882"/>
+      <c r="U36" s="889"/>
+      <c r="V36" s="888"/>
+      <c r="W36" s="888"/>
+      <c r="X36" s="888"/>
+      <c r="Y36" s="888"/>
+      <c r="Z36" s="888"/>
+      <c r="AA36" s="888"/>
     </row>
     <row r="61" spans="4:4">
       <c r="D61">
@@ -18089,7 +18132,8 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:B25">
     <sortCondition ref="B3:B25"/>
   </sortState>
-  <mergeCells count="15">
+  <mergeCells count="16">
+    <mergeCell ref="A1:B2"/>
     <mergeCell ref="N29:U29"/>
     <mergeCell ref="N31:U31"/>
     <mergeCell ref="T34:AC34"/>
@@ -18168,42 +18212,42 @@
     <row r="1" spans="1:13">
       <c r="A1" s="296"/>
       <c r="B1" s="751" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C1" s="259" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="D1" s="751" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="E1" s="259" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="F1" s="259" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="G1" s="355" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="I1" s="721" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="J1" s="721" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="K1" s="721" t="s">
+        <v>255</v>
+      </c>
+      <c r="L1" s="721" t="s">
+        <v>256</v>
+      </c>
+      <c r="M1" s="355" t="s">
         <v>252</v>
-      </c>
-      <c r="L1" s="721" t="s">
-        <v>253</v>
-      </c>
-      <c r="M1" s="355" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="343" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="B2" s="752">
         <f>COUNTIF('COM726 - May 23'!C3:C63, "Andy")</f>
@@ -18240,7 +18284,7 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="168" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="B3" s="753">
         <v>0</v>
@@ -18275,7 +18319,7 @@
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="175" t="s">
-        <v>232</v>
+        <v>184</v>
       </c>
       <c r="B4" s="754">
         <f>COUNTIF('COM726 - May 23'!C3:C63, "Bobe")</f>
@@ -18312,7 +18356,7 @@
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="168" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="B5" s="753">
         <f>COUNTIF('COM726 - May 23'!C3:C63, "Anthony")</f>
@@ -18423,7 +18467,7 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="168" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="B8" s="753">
         <f>COUNTIF('COM726 - May 23'!C3:C63, "Femi")</f>
@@ -18460,7 +18504,7 @@
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="168" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="B9" s="753">
         <f>COUNTIF('COM726 - May 23'!C3:C63, "Hamid")</f>
@@ -18534,7 +18578,7 @@
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="168" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B11" s="753">
         <f>COUNTIF('COM726 - May 23'!C3:C63, "Joe")</f>
@@ -18608,7 +18652,7 @@
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="168" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B13" s="756">
         <f>COUNTIF('COM726 - May 23'!C3:C63, "Kashif")</f>
@@ -18645,7 +18689,7 @@
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="168" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B14" s="753">
         <f>COUNTIF('COM726 - May 23'!C3:C63, "Kenton")</f>
@@ -18682,7 +18726,7 @@
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="152" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B15" s="753">
         <f>COUNTIF('COM726 - May 23'!C4:C64, "Marc")</f>
@@ -18756,7 +18800,7 @@
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="168" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="B17" s="753">
         <f>COUNTIF('COM726 - May 23'!C3:C63, "Muntasir")</f>
@@ -18830,7 +18874,7 @@
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="168" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="B19" s="753">
         <f>COUNTIF('COM726 - May 23'!C3:C63, "Neville")</f>
@@ -18867,7 +18911,7 @@
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="168" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B20" s="753">
         <f>COUNTIF('COM726 - May 23'!C3:C63, "Pengfei")</f>
@@ -18904,7 +18948,7 @@
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="168" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="B21" s="753">
         <f>COUNTIF('COM726 - May 23'!C3:C63, "Peyman")</f>
@@ -18941,7 +18985,7 @@
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="152" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="B22" s="752">
         <v>0</v>
@@ -19110,10 +19154,10 @@
     </row>
     <row r="27" spans="1:13">
       <c r="B27" s="172" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="C27" s="259" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="D27" s="296"/>
       <c r="E27" s="352"/>
@@ -19409,64 +19453,64 @@
   <sheetData>
     <row r="1" spans="1:16" ht="18" customHeight="1"/>
     <row r="2" spans="1:16" ht="21.75" customHeight="1">
-      <c r="A2" s="918" t="s">
-        <v>264</v>
-      </c>
-      <c r="B2" s="919"/>
-      <c r="D2" s="918" t="s">
-        <v>265</v>
-      </c>
-      <c r="E2" s="919"/>
-      <c r="G2" s="915" t="s">
-        <v>266</v>
-      </c>
-      <c r="H2" s="911" t="s">
+      <c r="A2" s="924" t="s">
         <v>267</v>
       </c>
-      <c r="I2" s="913" t="s">
+      <c r="B2" s="925"/>
+      <c r="D2" s="924" t="s">
         <v>268</v>
       </c>
+      <c r="E2" s="925"/>
+      <c r="G2" s="921" t="s">
+        <v>269</v>
+      </c>
+      <c r="H2" s="917" t="s">
+        <v>270</v>
+      </c>
+      <c r="I2" s="919" t="s">
+        <v>271</v>
+      </c>
       <c r="J2" s="105"/>
-      <c r="K2" s="903" t="s">
-        <v>269</v>
-      </c>
-      <c r="L2" s="904"/>
-      <c r="M2" s="819"/>
+      <c r="K2" s="909" t="s">
+        <v>272</v>
+      </c>
+      <c r="L2" s="910"/>
+      <c r="M2" s="825"/>
     </row>
     <row r="3" spans="1:16" ht="15.75" customHeight="1">
       <c r="A3" s="75" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="B3" s="76">
         <v>61</v>
       </c>
       <c r="D3" s="75" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="E3" s="71">
         <v>46</v>
       </c>
-      <c r="G3" s="916"/>
-      <c r="H3" s="912"/>
-      <c r="I3" s="914"/>
+      <c r="G3" s="922"/>
+      <c r="H3" s="918"/>
+      <c r="I3" s="920"/>
       <c r="J3" s="105"/>
-      <c r="K3" s="905"/>
-      <c r="L3" s="906"/>
-      <c r="M3" s="907"/>
-      <c r="N3" s="917"/>
-      <c r="O3" s="917"/>
-      <c r="P3" s="917"/>
+      <c r="K3" s="911"/>
+      <c r="L3" s="912"/>
+      <c r="M3" s="913"/>
+      <c r="N3" s="923"/>
+      <c r="O3" s="923"/>
+      <c r="P3" s="923"/>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="77" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="B4" s="50">
         <f>SUM(B3*6)</f>
         <v>366</v>
       </c>
       <c r="D4" s="79" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="E4" s="52">
         <f>SUM(E3*6)</f>
@@ -19485,79 +19529,79 @@
         <v>2.9722222222222223</v>
       </c>
       <c r="J4" s="1"/>
-      <c r="K4" s="905"/>
-      <c r="L4" s="906"/>
-      <c r="M4" s="907"/>
-      <c r="N4" s="917"/>
-      <c r="O4" s="917"/>
-      <c r="P4" s="917"/>
+      <c r="K4" s="911"/>
+      <c r="L4" s="912"/>
+      <c r="M4" s="913"/>
+      <c r="N4" s="923"/>
+      <c r="O4" s="923"/>
+      <c r="P4" s="923"/>
     </row>
     <row r="5" spans="1:16">
-      <c r="K5" s="905"/>
-      <c r="L5" s="906"/>
-      <c r="M5" s="907"/>
-      <c r="N5" s="917"/>
-      <c r="O5" s="917"/>
-      <c r="P5" s="917"/>
+      <c r="K5" s="911"/>
+      <c r="L5" s="912"/>
+      <c r="M5" s="913"/>
+      <c r="N5" s="923"/>
+      <c r="O5" s="923"/>
+      <c r="P5" s="923"/>
     </row>
     <row r="6" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A6" s="918" t="s">
-        <v>272</v>
-      </c>
-      <c r="B6" s="920"/>
-      <c r="D6" s="918" t="s">
-        <v>273</v>
-      </c>
-      <c r="E6" s="920"/>
-      <c r="G6" s="915" t="s">
-        <v>266</v>
-      </c>
-      <c r="H6" s="911" t="s">
-        <v>267</v>
-      </c>
-      <c r="I6" s="913" t="s">
-        <v>274</v>
+      <c r="A6" s="924" t="s">
+        <v>275</v>
+      </c>
+      <c r="B6" s="926"/>
+      <c r="D6" s="924" t="s">
+        <v>276</v>
+      </c>
+      <c r="E6" s="926"/>
+      <c r="G6" s="921" t="s">
+        <v>269</v>
+      </c>
+      <c r="H6" s="917" t="s">
+        <v>270</v>
+      </c>
+      <c r="I6" s="919" t="s">
+        <v>277</v>
       </c>
       <c r="J6" s="105"/>
-      <c r="K6" s="905"/>
-      <c r="L6" s="906"/>
-      <c r="M6" s="907"/>
-      <c r="N6" s="917"/>
-      <c r="O6" s="917"/>
-      <c r="P6" s="917"/>
+      <c r="K6" s="911"/>
+      <c r="L6" s="912"/>
+      <c r="M6" s="913"/>
+      <c r="N6" s="923"/>
+      <c r="O6" s="923"/>
+      <c r="P6" s="923"/>
     </row>
     <row r="7" spans="1:16" ht="15.75" customHeight="1">
       <c r="A7" s="75" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="B7" s="76">
         <v>110</v>
       </c>
       <c r="D7" s="75" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="E7" s="71"/>
-      <c r="G7" s="916"/>
-      <c r="H7" s="912"/>
-      <c r="I7" s="914"/>
+      <c r="G7" s="922"/>
+      <c r="H7" s="918"/>
+      <c r="I7" s="920"/>
       <c r="J7" s="105"/>
-      <c r="K7" s="905"/>
-      <c r="L7" s="906"/>
-      <c r="M7" s="907"/>
-      <c r="N7" s="917"/>
-      <c r="O7" s="917"/>
-      <c r="P7" s="917"/>
+      <c r="K7" s="911"/>
+      <c r="L7" s="912"/>
+      <c r="M7" s="913"/>
+      <c r="N7" s="923"/>
+      <c r="O7" s="923"/>
+      <c r="P7" s="923"/>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="77" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="B8" s="50">
         <f>SUM(B7*6)</f>
         <v>660</v>
       </c>
       <c r="D8" s="79" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="E8" s="52">
         <f>SUM(E7*6)</f>
@@ -19576,39 +19620,39 @@
         <v>3.0555555555555554</v>
       </c>
       <c r="J8" s="1"/>
-      <c r="K8" s="908"/>
-      <c r="L8" s="909"/>
-      <c r="M8" s="910"/>
-      <c r="N8" s="917"/>
-      <c r="O8" s="917"/>
-      <c r="P8" s="917"/>
+      <c r="K8" s="914"/>
+      <c r="L8" s="915"/>
+      <c r="M8" s="916"/>
+      <c r="N8" s="923"/>
+      <c r="O8" s="923"/>
+      <c r="P8" s="923"/>
     </row>
     <row r="9" spans="1:16">
-      <c r="N9" s="917"/>
-      <c r="O9" s="917"/>
-      <c r="P9" s="917"/>
+      <c r="N9" s="923"/>
+      <c r="O9" s="923"/>
+      <c r="P9" s="923"/>
     </row>
     <row r="10" spans="1:16">
-      <c r="A10" s="923" t="s">
-        <v>275</v>
-      </c>
-      <c r="B10" s="920"/>
-      <c r="D10" s="923"/>
-      <c r="E10" s="920"/>
-      <c r="G10" s="915" t="s">
-        <v>266</v>
-      </c>
-      <c r="H10" s="911" t="s">
-        <v>267</v>
-      </c>
-      <c r="I10" s="913" t="s">
-        <v>274</v>
+      <c r="A10" s="929" t="s">
+        <v>278</v>
+      </c>
+      <c r="B10" s="926"/>
+      <c r="D10" s="929"/>
+      <c r="E10" s="926"/>
+      <c r="G10" s="921" t="s">
+        <v>269</v>
+      </c>
+      <c r="H10" s="917" t="s">
+        <v>270</v>
+      </c>
+      <c r="I10" s="919" t="s">
+        <v>277</v>
       </c>
       <c r="J10" s="105"/>
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="75" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="B11" s="76">
         <f>SUM('COM616 - Oct 2023'!H2)</f>
@@ -19616,14 +19660,14 @@
       </c>
       <c r="D11" s="75"/>
       <c r="E11" s="76"/>
-      <c r="G11" s="916"/>
-      <c r="H11" s="912"/>
-      <c r="I11" s="914"/>
+      <c r="G11" s="922"/>
+      <c r="H11" s="918"/>
+      <c r="I11" s="920"/>
       <c r="J11" s="105"/>
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="77" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="B12" s="50">
         <f>SUM(B11*6)</f>
@@ -19646,40 +19690,40 @@
       <c r="J12" s="106"/>
     </row>
     <row r="14" spans="1:16">
-      <c r="A14" s="921" t="s">
-        <v>276</v>
-      </c>
-      <c r="B14" s="922"/>
-      <c r="D14" s="918"/>
-      <c r="E14" s="920"/>
-      <c r="G14" s="915" t="s">
-        <v>266</v>
-      </c>
-      <c r="H14" s="911" t="s">
-        <v>267</v>
-      </c>
-      <c r="I14" s="913" t="s">
-        <v>268</v>
+      <c r="A14" s="927" t="s">
+        <v>279</v>
+      </c>
+      <c r="B14" s="928"/>
+      <c r="D14" s="924"/>
+      <c r="E14" s="926"/>
+      <c r="G14" s="921" t="s">
+        <v>269</v>
+      </c>
+      <c r="H14" s="917" t="s">
+        <v>270</v>
+      </c>
+      <c r="I14" s="919" t="s">
+        <v>271</v>
       </c>
       <c r="J14" s="105"/>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="78" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="B15" s="71">
         <v>0</v>
       </c>
       <c r="D15" s="75"/>
       <c r="E15" s="71"/>
-      <c r="G15" s="916"/>
-      <c r="H15" s="912"/>
-      <c r="I15" s="914"/>
+      <c r="G15" s="922"/>
+      <c r="H15" s="918"/>
+      <c r="I15" s="920"/>
       <c r="J15" s="105"/>
     </row>
     <row r="16" spans="1:16">
       <c r="A16" s="77" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="B16" s="50">
         <f>SUM(B15*6)</f>
@@ -19735,8 +19779,8 @@
   </sheetPr>
   <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="L34" sqref="L34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -19756,45 +19800,45 @@
   <sheetData>
     <row r="1" spans="1:11" ht="18.75">
       <c r="A1" s="120" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B1" s="121"/>
       <c r="C1" s="489" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E1" s="126" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="F1" s="127"/>
       <c r="G1" s="135" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="I1" s="120" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="J1" s="121"/>
       <c r="K1" s="489" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="22"/>
       <c r="B2" s="112" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="C2" s="122" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="22"/>
       <c r="F2" s="112" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="G2" s="122" t="s">
         <v>6</v>
       </c>
       <c r="I2" s="22"/>
       <c r="J2" s="112" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="K2" s="122" t="s">
         <v>6</v>
@@ -19805,7 +19849,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="115" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="C3" s="123" t="s">
         <v>75</v>
@@ -19815,19 +19859,19 @@
         <v>1</v>
       </c>
       <c r="F3" s="117" t="s">
-        <v>282</v>
-      </c>
-      <c r="G3" s="129" t="s">
+        <v>285</v>
+      </c>
+      <c r="G3" s="807" t="s">
         <v>55</v>
       </c>
       <c r="I3" s="134">
         <v>1</v>
       </c>
       <c r="J3" s="113" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="K3" s="71" t="s">
-        <v>232</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -19835,7 +19879,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="118" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="C4" s="123" t="s">
         <v>75</v>
@@ -19845,7 +19889,7 @@
         <v>2</v>
       </c>
       <c r="F4" s="117" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="G4" s="129" t="s">
         <v>81</v>
@@ -19854,10 +19898,10 @@
         <v>2</v>
       </c>
       <c r="J4" s="113" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="K4" s="71" t="s">
-        <v>232</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -19865,7 +19909,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="118" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C5" s="123" t="s">
         <v>75</v>
@@ -19875,19 +19919,19 @@
         <v>3</v>
       </c>
       <c r="F5" s="117" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="G5" s="129" t="s">
-        <v>232</v>
+        <v>184</v>
       </c>
       <c r="I5" s="134">
         <v>3</v>
       </c>
       <c r="J5" s="113" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="K5" s="71" t="s">
-        <v>232</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -19895,7 +19939,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="118" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="C6" s="123" t="s">
         <v>75</v>
@@ -19905,19 +19949,19 @@
         <v>4</v>
       </c>
       <c r="F6" s="117" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="G6" s="71" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="I6" s="134">
         <v>4</v>
       </c>
       <c r="J6" s="113" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="K6" s="71" t="s">
-        <v>232</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -19925,7 +19969,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="118" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="C7" s="123" t="s">
         <v>75</v>
@@ -19935,7 +19979,7 @@
         <v>5</v>
       </c>
       <c r="F7" s="117" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="G7" s="129" t="s">
         <v>81</v>
@@ -19944,10 +19988,10 @@
         <v>5</v>
       </c>
       <c r="J7" s="113" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="K7" s="71" t="s">
-        <v>232</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -19955,7 +19999,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="118" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="C8" s="123" t="s">
         <v>75</v>
@@ -19965,7 +20009,7 @@
         <v>6</v>
       </c>
       <c r="F8" s="117" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="G8" s="129" t="s">
         <v>81</v>
@@ -19974,10 +20018,10 @@
         <v>6</v>
       </c>
       <c r="J8" s="113" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="K8" s="71" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -19985,7 +20029,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="118" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C9" s="123" t="s">
         <v>75</v>
@@ -19995,19 +20039,19 @@
         <v>7</v>
       </c>
       <c r="F9" s="117" t="s">
-        <v>300</v>
-      </c>
-      <c r="G9" s="129" t="s">
+        <v>303</v>
+      </c>
+      <c r="G9" s="807" t="s">
         <v>55</v>
       </c>
       <c r="I9" s="134">
         <v>7</v>
       </c>
       <c r="J9" s="113" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="K9" s="71" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="24">
@@ -20015,7 +20059,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="118" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="C10" s="123" t="s">
         <v>75</v>
@@ -20025,16 +20069,16 @@
         <v>8</v>
       </c>
       <c r="F10" s="117" t="s">
-        <v>303</v>
-      </c>
-      <c r="G10" s="129" t="s">
+        <v>306</v>
+      </c>
+      <c r="G10" s="807" t="s">
         <v>55</v>
       </c>
       <c r="I10" s="134">
         <v>8</v>
       </c>
       <c r="J10" s="113" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="K10" s="71" t="s">
         <v>12</v>
@@ -20045,7 +20089,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="118" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="C11" s="123" t="s">
         <v>75</v>
@@ -20055,7 +20099,7 @@
         <v>9</v>
       </c>
       <c r="F11" s="117" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G11" s="129" t="s">
         <v>81</v>
@@ -20064,7 +20108,7 @@
         <v>9</v>
       </c>
       <c r="J11" s="113" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="K11" s="71" t="s">
         <v>12</v>
@@ -20075,7 +20119,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="124" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="C12" s="125" t="s">
         <v>75</v>
@@ -20085,19 +20129,19 @@
         <v>10</v>
       </c>
       <c r="F12" s="117" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="G12" s="71" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="I12" s="134">
         <v>10</v>
       </c>
       <c r="J12" s="113" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="K12" s="71" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -20105,9 +20149,9 @@
         <v>11</v>
       </c>
       <c r="B13" s="295" t="s">
-        <v>311</v>
-      </c>
-      <c r="C13" s="133" t="s">
+        <v>314</v>
+      </c>
+      <c r="C13" s="808" t="s">
         <v>55</v>
       </c>
       <c r="D13" s="116"/>
@@ -20115,19 +20159,19 @@
         <v>11</v>
       </c>
       <c r="F13" s="119" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="G13" s="71" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="I13" s="134">
         <v>11</v>
       </c>
       <c r="J13" s="114" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="K13" s="71" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -20139,33 +20183,33 @@
         <v>12</v>
       </c>
       <c r="F14" s="117" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="G14" s="129" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="I14" s="134">
         <v>12</v>
       </c>
       <c r="J14" s="113" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="K14" s="71" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="926" t="s">
-        <v>316</v>
-      </c>
-      <c r="B15" s="927"/>
-      <c r="C15" s="928"/>
+      <c r="A15" s="932" t="s">
+        <v>319</v>
+      </c>
+      <c r="B15" s="933"/>
+      <c r="C15" s="934"/>
       <c r="D15" s="116"/>
       <c r="E15" s="128">
         <v>13</v>
       </c>
       <c r="F15" s="117" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="G15" s="129" t="s">
         <v>81</v>
@@ -20174,25 +20218,25 @@
         <v>13</v>
       </c>
       <c r="J15" s="113" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="K15" s="71" t="s">
-        <v>232</v>
+        <v>184</v>
       </c>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="929">
+      <c r="A16" s="935">
         <f>SUM('Supervision Load'!E3)</f>
         <v>46</v>
       </c>
-      <c r="B16" s="930"/>
-      <c r="C16" s="931"/>
+      <c r="B16" s="936"/>
+      <c r="C16" s="937"/>
       <c r="D16" s="116"/>
       <c r="E16" s="128">
         <v>14</v>
       </c>
       <c r="F16" s="117" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="G16" s="129" t="s">
         <v>81</v>
@@ -20201,22 +20245,22 @@
         <v>14</v>
       </c>
       <c r="J16" s="113" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="K16" s="71" t="s">
-        <v>232</v>
+        <v>184</v>
       </c>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="929"/>
-      <c r="B17" s="930"/>
-      <c r="C17" s="931"/>
+      <c r="A17" s="935"/>
+      <c r="B17" s="936"/>
+      <c r="C17" s="937"/>
       <c r="D17" s="116"/>
       <c r="E17" s="128">
         <v>15</v>
       </c>
       <c r="F17" s="117" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="G17" s="129" t="s">
         <v>81</v>
@@ -20225,22 +20269,22 @@
         <v>15</v>
       </c>
       <c r="J17" s="113" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="K17" s="71" t="s">
-        <v>232</v>
+        <v>184</v>
       </c>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="932"/>
-      <c r="B18" s="933"/>
-      <c r="C18" s="934"/>
+      <c r="A18" s="938"/>
+      <c r="B18" s="939"/>
+      <c r="C18" s="940"/>
       <c r="D18" s="116"/>
       <c r="E18" s="130">
         <v>16</v>
       </c>
       <c r="F18" s="131" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="G18" s="132" t="s">
         <v>81</v>
@@ -20249,10 +20293,10 @@
         <v>16</v>
       </c>
       <c r="J18" s="113" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="K18" s="71" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -20260,7 +20304,7 @@
         <v>17</v>
       </c>
       <c r="J19" s="113" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="K19" s="71" t="s">
         <v>12</v>
@@ -20272,10 +20316,10 @@
         <v>18</v>
       </c>
       <c r="J20" s="113" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="K20" s="71" t="s">
-        <v>232</v>
+        <v>184</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -20283,7 +20327,7 @@
         <v>19</v>
       </c>
       <c r="J21" s="113" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="K21" s="71" t="s">
         <v>12</v>
@@ -20297,20 +20341,20 @@
     <row r="24" spans="1:11">
       <c r="E24" s="10"/>
       <c r="F24" s="112" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="H24" s="112" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="I24" s="112"/>
       <c r="J24" s="240" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="K24" s="242" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -20318,15 +20362,15 @@
         <v>1</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="G25" s="12">
         <v>10</v>
       </c>
-      <c r="H25" s="935" t="s">
-        <v>333</v>
-      </c>
-      <c r="I25" s="936"/>
+      <c r="H25" s="941" t="s">
+        <v>336</v>
+      </c>
+      <c r="I25" s="942"/>
       <c r="J25" s="240">
         <f>COUNTIF(G3:G18:K3:K21, "Marc")</f>
         <v>10</v>
@@ -20341,15 +20385,15 @@
         <v>2</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="G26" s="12">
         <v>0</v>
       </c>
-      <c r="H26" s="924" t="s">
-        <v>334</v>
-      </c>
-      <c r="I26" s="924"/>
+      <c r="H26" s="930" t="s">
+        <v>337</v>
+      </c>
+      <c r="I26" s="930"/>
       <c r="J26" s="241">
         <f>COUNTIF(G3:G18:K3:K21, "Andy")</f>
         <v>0</v>
@@ -20364,15 +20408,15 @@
         <v>3</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>232</v>
+        <v>184</v>
       </c>
       <c r="G27" s="12">
         <v>10</v>
       </c>
-      <c r="H27" s="924" t="s">
-        <v>334</v>
-      </c>
-      <c r="I27" s="924"/>
+      <c r="H27" s="930" t="s">
+        <v>337</v>
+      </c>
+      <c r="I27" s="930"/>
       <c r="J27" s="548">
         <f>COUNTIF(G3:G18:K3:K21, "Bode")</f>
         <v>10</v>
@@ -20392,10 +20436,10 @@
       <c r="G28" s="12">
         <v>4</v>
       </c>
-      <c r="H28" s="924" t="s">
-        <v>334</v>
-      </c>
-      <c r="I28" s="924"/>
+      <c r="H28" s="930" t="s">
+        <v>337</v>
+      </c>
+      <c r="I28" s="930"/>
       <c r="J28" s="241">
         <f>COUNTIF(G3:G18:K3:K21, "Kalin")</f>
         <v>4</v>
@@ -20415,10 +20459,10 @@
       <c r="G29" s="12">
         <v>10</v>
       </c>
-      <c r="H29" s="924" t="s">
-        <v>334</v>
-      </c>
-      <c r="I29" s="924"/>
+      <c r="H29" s="930" t="s">
+        <v>337</v>
+      </c>
+      <c r="I29" s="930"/>
       <c r="J29" s="241">
         <f>COUNTIF(G3:G18:K3:K21:C3:C12, "Anthony")</f>
         <v>10</v>
@@ -20438,10 +20482,10 @@
       <c r="G30" s="12">
         <v>4</v>
       </c>
-      <c r="H30" s="924" t="s">
-        <v>334</v>
-      </c>
-      <c r="I30" s="924"/>
+      <c r="H30" s="930" t="s">
+        <v>337</v>
+      </c>
+      <c r="I30" s="930"/>
       <c r="J30" s="241">
         <f>COUNTIF(G3:G18:C3:K13, "Nick")</f>
         <v>4</v>
@@ -20461,10 +20505,10 @@
       <c r="G31" s="12">
         <v>8</v>
       </c>
-      <c r="H31" s="924" t="s">
-        <v>334</v>
-      </c>
-      <c r="I31" s="924"/>
+      <c r="H31" s="930" t="s">
+        <v>337</v>
+      </c>
+      <c r="I31" s="930"/>
       <c r="J31" s="241">
         <f>COUNTIF(G4:G19:K4:K22, "Pengfei")</f>
         <v>8</v>
@@ -20478,8 +20522,8 @@
       <c r="E32" s="238"/>
       <c r="F32" s="238"/>
       <c r="G32" s="238"/>
-      <c r="H32" s="925"/>
-      <c r="I32" s="925"/>
+      <c r="H32" s="931"/>
+      <c r="I32" s="931"/>
     </row>
     <row r="34" spans="7:12">
       <c r="G34" s="549">

--- a/docs/Comp_Module_Map_2022_V5.xlsx
+++ b/docs/Comp_Module_Map_2022_V5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ssu-my.sharepoint.com/personal/martin_reid_solent_ac_uk/Documents/solent_store/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7160" documentId="8_{F910275D-011D-4B9B-94BD-9ED687CDE8E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{94FD978A-9EB8-4801-88D4-2E11BECA6AB1}"/>
+  <xr:revisionPtr revIDLastSave="7161" documentId="8_{F910275D-011D-4B9B-94BD-9ED687CDE8E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AF850259-CA6B-4F07-88AA-66E27F61AD70}"/>
   <bookViews>
-    <workbookView xWindow="2835" yWindow="1605" windowWidth="22560" windowHeight="13920" firstSheet="2" activeTab="2" xr2:uid="{E69C05BD-5864-2041-BCC3-203BAAF63D0E}"/>
+    <workbookView xWindow="2835" yWindow="1605" windowWidth="22560" windowHeight="13920" firstSheet="2" activeTab="11" xr2:uid="{E69C05BD-5864-2041-BCC3-203BAAF63D0E}"/>
   </bookViews>
   <sheets>
     <sheet name="Foundation" sheetId="6" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1652" uniqueCount="600">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1651" uniqueCount="599">
   <si>
     <t>Computing Foundation</t>
   </si>
@@ -1978,9 +1978,6 @@
   </si>
   <si>
     <t>Idris Ganiyu</t>
-  </si>
-  <si>
-    <t>craig</t>
   </si>
   <si>
     <t>Iman Askari</t>
@@ -6328,6 +6325,63 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="107" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="105" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="108" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -6370,62 +6424,38 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="107" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="105" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="108" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="49" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -6463,39 +6493,6 @@
     <xf numFmtId="0" fontId="33" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -6562,6 +6559,39 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="45" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6598,101 +6628,68 @@
     <xf numFmtId="0" fontId="1" fillId="12" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -8542,8 +8539,8 @@
   </sheetPr>
   <dimension ref="A1:M111"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8585,7 +8582,7 @@
         <v>478</v>
       </c>
       <c r="G2" s="1058"/>
-      <c r="H2" s="1007"/>
+      <c r="H2" s="1011"/>
       <c r="J2" s="237" t="s">
         <v>400</v>
       </c>
@@ -8752,11 +8749,11 @@
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="134"/>
-      <c r="F8" s="998" t="s">
+      <c r="F8" s="986" t="s">
         <v>485</v>
       </c>
       <c r="G8" s="1062"/>
-      <c r="H8" s="999"/>
+      <c r="H8" s="987"/>
       <c r="I8">
         <v>6</v>
       </c>
@@ -9298,16 +9295,14 @@
         <v>514</v>
       </c>
       <c r="C36" s="10"/>
-      <c r="D36" s="134" t="s">
-        <v>515</v>
-      </c>
+      <c r="D36" s="134"/>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="131">
         <v>35</v>
       </c>
       <c r="B37" s="243" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C37" s="10"/>
       <c r="D37" s="134"/>
@@ -9317,7 +9312,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="243" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C38" s="10"/>
       <c r="D38" s="134"/>
@@ -9327,7 +9322,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="243" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C39" s="10"/>
       <c r="D39" s="134"/>
@@ -9337,7 +9332,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="243" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C40" s="10"/>
       <c r="D40" s="134"/>
@@ -9347,7 +9342,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="243" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C41" s="10"/>
       <c r="D41" s="134"/>
@@ -9357,7 +9352,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="243" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C42" s="10"/>
       <c r="D42" s="134"/>
@@ -9367,7 +9362,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="243" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C43" s="10"/>
       <c r="D43" s="135"/>
@@ -9377,7 +9372,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="243" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C44" s="10"/>
       <c r="D44" s="135"/>
@@ -9387,7 +9382,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="243" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C45" s="10"/>
       <c r="D45" s="135"/>
@@ -9397,7 +9392,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="243" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C46" s="10"/>
       <c r="D46" s="135"/>
@@ -9407,7 +9402,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="243" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C47" s="10"/>
       <c r="D47" s="135"/>
@@ -9417,7 +9412,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="243" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C48" s="10"/>
       <c r="D48" s="135"/>
@@ -9427,7 +9422,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="243" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C49" s="10"/>
       <c r="D49" s="135"/>
@@ -9437,7 +9432,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="243" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C50" s="10"/>
       <c r="D50" s="135"/>
@@ -9447,7 +9442,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="243" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C51" s="10"/>
       <c r="D51" s="135"/>
@@ -9457,7 +9452,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="243" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C52" s="10"/>
       <c r="D52" s="135"/>
@@ -9467,7 +9462,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="243" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C53" s="10"/>
       <c r="D53" s="135"/>
@@ -9478,7 +9473,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="243" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C54" s="10"/>
       <c r="D54" s="135"/>
@@ -9488,7 +9483,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="243" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C55" s="10"/>
       <c r="D55" s="135"/>
@@ -9498,7 +9493,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="243" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C56" s="10"/>
       <c r="D56" s="135"/>
@@ -9508,7 +9503,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="243" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C57" s="10"/>
       <c r="D57" s="135"/>
@@ -9518,7 +9513,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="243" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C58" s="10"/>
       <c r="D58" s="135"/>
@@ -9528,7 +9523,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="343" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C59" s="10"/>
       <c r="D59" s="137"/>
@@ -9538,7 +9533,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="243" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C60" s="10"/>
       <c r="D60" s="135"/>
@@ -9548,7 +9543,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="243" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C61" s="10"/>
       <c r="D61" s="135"/>
@@ -9558,7 +9553,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="243" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C62" s="10"/>
       <c r="D62" s="135"/>
@@ -9568,7 +9563,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="243" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C63" s="10"/>
       <c r="D63" s="135"/>
@@ -9578,7 +9573,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="243" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C64" s="10"/>
       <c r="D64" s="135"/>
@@ -9588,7 +9583,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="243" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C65" s="10"/>
       <c r="D65" s="135"/>
@@ -9598,7 +9593,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="243" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C66" s="10"/>
       <c r="D66" s="135"/>
@@ -9608,7 +9603,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="243" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C67" s="10"/>
       <c r="D67" s="135"/>
@@ -9618,7 +9613,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="243" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C68" s="10"/>
       <c r="D68" s="135"/>
@@ -9628,7 +9623,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="243" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C69" s="10"/>
       <c r="D69" s="135"/>
@@ -9638,7 +9633,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="243" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C70" s="10"/>
       <c r="D70" s="135"/>
@@ -9648,7 +9643,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="243" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C71" s="10"/>
       <c r="D71" s="135"/>
@@ -9658,7 +9653,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="243" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C72" s="10"/>
       <c r="D72" s="135"/>
@@ -9668,7 +9663,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="243" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C73" s="10"/>
       <c r="D73" s="135"/>
@@ -9678,7 +9673,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="243" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C74" s="10"/>
       <c r="D74" s="135"/>
@@ -9688,7 +9683,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="243" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C75" s="10"/>
       <c r="D75" s="135"/>
@@ -9698,7 +9693,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="243" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C76" s="10"/>
       <c r="D76" s="135"/>
@@ -9708,7 +9703,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="243" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C77" s="10"/>
       <c r="D77" s="135"/>
@@ -9718,7 +9713,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="243" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C78" s="10"/>
       <c r="D78" s="135"/>
@@ -9728,7 +9723,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="243" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C79" s="10"/>
       <c r="D79" s="135"/>
@@ -9738,7 +9733,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="243" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C80" s="10"/>
       <c r="D80" s="135"/>
@@ -9748,7 +9743,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="243" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C81" s="10"/>
       <c r="D81" s="135"/>
@@ -9758,7 +9753,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="243" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C82" s="10"/>
       <c r="D82" s="135"/>
@@ -9768,7 +9763,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="243" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C83" s="10"/>
       <c r="D83" s="135"/>
@@ -9778,7 +9773,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="243" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C84" s="10"/>
       <c r="D84" s="135"/>
@@ -9788,7 +9783,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="243" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C85" s="10"/>
       <c r="D85" s="135"/>
@@ -9798,7 +9793,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="243" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C86" s="10"/>
       <c r="D86" s="135"/>
@@ -9808,7 +9803,7 @@
         <v>85</v>
       </c>
       <c r="B87" s="243" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C87" s="10"/>
       <c r="D87" s="135"/>
@@ -9818,7 +9813,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="243" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C88" s="10"/>
       <c r="D88" s="135"/>
@@ -9828,7 +9823,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="243" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C89" s="10"/>
       <c r="D89" s="135"/>
@@ -9838,7 +9833,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="243" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C90" s="10"/>
       <c r="D90" s="135"/>
@@ -9848,7 +9843,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="243" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C91" s="10"/>
       <c r="D91" s="135"/>
@@ -9858,7 +9853,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="243" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C92" s="10"/>
       <c r="D92" s="135"/>
@@ -9868,7 +9863,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="243" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C93" s="10"/>
       <c r="D93" s="135"/>
@@ -9878,7 +9873,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="243" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C94" s="10"/>
       <c r="D94" s="135"/>
@@ -9888,7 +9883,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="243" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C95" s="10"/>
       <c r="D95" s="135"/>
@@ -9898,7 +9893,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="243" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C96" s="10"/>
       <c r="D96" s="135"/>
@@ -9908,7 +9903,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="243" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C97" s="10"/>
       <c r="D97" s="135"/>
@@ -9918,7 +9913,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="243" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C98" s="10"/>
       <c r="D98" s="135"/>
@@ -9928,7 +9923,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="243" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C99" s="10"/>
       <c r="D99" s="135"/>
@@ -9938,7 +9933,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="243" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C100" s="10"/>
       <c r="D100" s="135"/>
@@ -9948,7 +9943,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="243" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C101" s="10"/>
       <c r="D101" s="135"/>
@@ -9958,7 +9953,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="243" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C102" s="10"/>
       <c r="D102" s="135"/>
@@ -9968,7 +9963,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="243" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C103" s="10"/>
       <c r="D103" s="135"/>
@@ -9978,7 +9973,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="243" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C104" s="10"/>
       <c r="D104" s="135"/>
@@ -9988,7 +9983,7 @@
         <v>103</v>
       </c>
       <c r="B105" s="243" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C105" s="10"/>
       <c r="D105" s="135"/>
@@ -9998,7 +9993,7 @@
         <v>104</v>
       </c>
       <c r="B106" s="243" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C106" s="10"/>
       <c r="D106" s="135"/>
@@ -10008,7 +10003,7 @@
         <v>105</v>
       </c>
       <c r="B107" s="243" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C107" s="10"/>
       <c r="D107" s="135"/>
@@ -10018,7 +10013,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="243" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C108" s="10"/>
       <c r="D108" s="135"/>
@@ -10028,7 +10023,7 @@
         <v>107</v>
       </c>
       <c r="B109" s="243" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C109" s="10"/>
       <c r="D109" s="135"/>
@@ -10038,7 +10033,7 @@
         <v>108</v>
       </c>
       <c r="B110" s="243" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C110" s="10"/>
       <c r="D110" s="135"/>
@@ -10048,7 +10043,7 @@
         <v>109</v>
       </c>
       <c r="B111" s="243" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C111" s="10"/>
       <c r="D111" s="135"/>
@@ -10164,7 +10159,7 @@
       <c r="C3" s="519"/>
       <c r="D3" s="66"/>
       <c r="F3" s="334" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="G3" s="675">
         <v>8</v>
@@ -10197,7 +10192,7 @@
       <c r="C4" s="519"/>
       <c r="D4" s="66"/>
       <c r="F4" s="335" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G4" s="676">
         <v>10</v>
@@ -10230,7 +10225,7 @@
       <c r="C5" s="519"/>
       <c r="D5" s="66"/>
       <c r="F5" s="334" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="G5" s="675">
         <v>5</v>
@@ -10263,7 +10258,7 @@
       <c r="C6" s="519"/>
       <c r="D6" s="66"/>
       <c r="F6" s="336" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="G6" s="677">
         <v>25</v>
@@ -10349,7 +10344,7 @@
       <c r="C9" s="519"/>
       <c r="D9" s="66"/>
       <c r="F9" s="496" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="J9" s="132">
         <v>8</v>
@@ -10378,7 +10373,7 @@
       <c r="C10" s="519"/>
       <c r="D10" s="66"/>
       <c r="F10" s="705" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="J10" s="132">
         <v>9</v>
@@ -10463,7 +10458,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="207" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C13" s="521"/>
       <c r="D13" s="208"/>
@@ -10489,7 +10484,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="196" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C14" s="522"/>
       <c r="D14" s="67"/>
@@ -10515,7 +10510,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="196" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C15" s="522"/>
       <c r="D15" s="67"/>
@@ -10541,7 +10536,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="196" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C16" s="522"/>
       <c r="D16" s="67"/>
@@ -10567,7 +10562,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="196" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C17" s="522"/>
       <c r="D17" s="67"/>
@@ -10593,7 +10588,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="196" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C18" s="522"/>
       <c r="D18" s="67"/>
@@ -10619,7 +10614,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="196" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C19" s="522"/>
       <c r="D19" s="67"/>
@@ -10645,7 +10640,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="209" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C20" s="523"/>
       <c r="D20" s="123"/>
@@ -10673,7 +10668,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="226" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C21" s="518"/>
       <c r="D21" s="220"/>
@@ -10697,7 +10692,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="213" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C22" s="519"/>
       <c r="D22" s="66"/>
@@ -10721,7 +10716,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="213" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C23" s="519"/>
       <c r="D23" s="66"/>
@@ -10745,7 +10740,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="213" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C24" s="519"/>
       <c r="D24" s="66"/>
@@ -10768,7 +10763,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="213" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C25" s="519"/>
       <c r="D25" s="66"/>
@@ -10779,7 +10774,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="213" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C26" s="519"/>
       <c r="D26" s="66"/>
@@ -10789,7 +10784,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="213" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C27" s="519"/>
       <c r="D27" s="66"/>
@@ -10799,7 +10794,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="213" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C28" s="519"/>
       <c r="D28" s="66"/>
@@ -10809,7 +10804,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="213" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C29" s="519"/>
       <c r="D29" s="66"/>
@@ -10819,7 +10814,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="215" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C30" s="524"/>
       <c r="D30" s="70"/>
@@ -10829,7 +10824,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="210" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C31" s="525"/>
       <c r="D31" s="164" t="s">
@@ -10841,7 +10836,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="196" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C32" s="522"/>
       <c r="D32" s="221" t="s">
@@ -10853,7 +10848,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="196" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C33" s="522"/>
       <c r="D33" s="221" t="s">
@@ -10865,7 +10860,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="196" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C34" s="522"/>
       <c r="D34" s="221" t="s">
@@ -10877,7 +10872,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="209" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C35" s="523"/>
       <c r="D35" s="222" t="s">
@@ -10889,7 +10884,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="217" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C36" s="526"/>
       <c r="D36" s="220"/>
@@ -10899,7 +10894,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="216" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C37" s="19"/>
       <c r="D37" s="66"/>
@@ -10909,7 +10904,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="216" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C38" s="19"/>
       <c r="D38" s="66"/>
@@ -10919,7 +10914,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="216" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C39" s="19"/>
       <c r="D39" s="66"/>
@@ -10929,7 +10924,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="216" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C40" s="19"/>
       <c r="D40" s="66"/>
@@ -10939,7 +10934,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="216" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C41" s="19"/>
       <c r="D41" s="66"/>
@@ -10949,7 +10944,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="216" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C42" s="19"/>
       <c r="D42" s="66"/>
@@ -10959,7 +10954,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="216" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C43" s="19"/>
       <c r="D43" s="66"/>
@@ -10969,7 +10964,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="216" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C44" s="19"/>
       <c r="D44" s="66"/>
@@ -10979,7 +10974,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="216" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C45" s="19"/>
       <c r="D45" s="66"/>
@@ -10989,7 +10984,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="216" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C46" s="19"/>
       <c r="D46" s="66"/>
@@ -10999,7 +10994,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="216" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C47" s="19"/>
       <c r="D47" s="66"/>
@@ -11009,7 +11004,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="216" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C48" s="19"/>
       <c r="D48" s="66"/>
@@ -11019,7 +11014,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="216" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C49" s="19"/>
       <c r="D49" s="66"/>
@@ -11029,7 +11024,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="216" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C50" s="19"/>
       <c r="D50" s="66"/>
@@ -11039,7 +11034,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="216" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C51" s="19"/>
       <c r="D51" s="66"/>
@@ -11049,7 +11044,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="216" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C52" s="19"/>
       <c r="D52" s="66"/>
@@ -11059,7 +11054,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="216" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C53" s="19"/>
       <c r="D53" s="66"/>
@@ -11069,7 +11064,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="216" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C54" s="19"/>
       <c r="D54" s="66"/>
@@ -11079,7 +11074,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="216" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C55" s="19"/>
       <c r="D55" s="66"/>
@@ -11089,7 +11084,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="216" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C56" s="19"/>
       <c r="D56" s="66"/>
@@ -11099,7 +11094,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="216" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C57" s="19"/>
       <c r="D57" s="66"/>
@@ -11109,7 +11104,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="216" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C58" s="19"/>
       <c r="D58" s="66"/>
@@ -11119,7 +11114,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="216" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C59" s="19"/>
       <c r="D59" s="66"/>
@@ -11129,7 +11124,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="157" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C60" s="278"/>
       <c r="D60" s="70"/>
@@ -11189,7 +11184,7 @@
         <v>6</v>
       </c>
       <c r="F2" s="1072" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="G2" s="1073"/>
       <c r="H2" s="1074"/>
@@ -11374,7 +11369,7 @@
         <v>7</v>
       </c>
       <c r="J9" s="71" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="K9" s="47">
         <v>10</v>
@@ -11399,7 +11394,7 @@
         <v>8</v>
       </c>
       <c r="J10" s="233" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="K10" s="314">
         <v>10</v>
@@ -12442,69 +12437,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="26.1" customHeight="1">
-      <c r="A1" s="924" t="s">
+      <c r="A1" s="910" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="925"/>
+      <c r="B1" s="911"/>
       <c r="C1" s="891" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="933" t="s">
+      <c r="D1" s="919" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="933" t="s">
+      <c r="E1" s="919" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="928" t="s">
+      <c r="F1" s="914" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="929" t="s">
+      <c r="G1" s="915" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="931" t="s">
+      <c r="H1" s="917" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="910" t="s">
+      <c r="I1" s="929" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="914" t="s">
+      <c r="J1" s="933" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="912" t="s">
+      <c r="K1" s="931" t="s">
         <v>23</v>
       </c>
-      <c r="L1" s="921" t="s">
+      <c r="L1" s="907" t="s">
         <v>24</v>
       </c>
-      <c r="M1" s="922"/>
-      <c r="N1" s="922"/>
-      <c r="O1" s="922"/>
-      <c r="P1" s="923"/>
-      <c r="Q1" s="906" t="s">
+      <c r="M1" s="908"/>
+      <c r="N1" s="908"/>
+      <c r="O1" s="908"/>
+      <c r="P1" s="909"/>
+      <c r="Q1" s="925" t="s">
         <v>25</v>
       </c>
-      <c r="R1" s="907"/>
-      <c r="S1" s="918" t="s">
+      <c r="R1" s="926"/>
+      <c r="S1" s="904" t="s">
         <v>26</v>
       </c>
-      <c r="T1" s="919"/>
-      <c r="U1" s="920"/>
-      <c r="V1" s="916" t="s">
+      <c r="T1" s="905"/>
+      <c r="U1" s="906"/>
+      <c r="V1" s="902" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="42.75" customHeight="1">
-      <c r="A2" s="926"/>
-      <c r="B2" s="927"/>
+      <c r="A2" s="912"/>
+      <c r="B2" s="913"/>
       <c r="C2" s="891"/>
-      <c r="D2" s="934"/>
-      <c r="E2" s="934"/>
-      <c r="F2" s="928"/>
-      <c r="G2" s="930"/>
-      <c r="H2" s="932"/>
-      <c r="I2" s="911"/>
-      <c r="J2" s="915"/>
-      <c r="K2" s="913"/>
+      <c r="D2" s="920"/>
+      <c r="E2" s="920"/>
+      <c r="F2" s="914"/>
+      <c r="G2" s="916"/>
+      <c r="H2" s="918"/>
+      <c r="I2" s="930"/>
+      <c r="J2" s="934"/>
+      <c r="K2" s="932"/>
       <c r="L2" s="442" t="s">
         <v>28</v>
       </c>
@@ -12535,7 +12530,7 @@
       <c r="U2" s="533" t="s">
         <v>36</v>
       </c>
-      <c r="V2" s="917"/>
+      <c r="V2" s="903"/>
     </row>
     <row r="3" spans="1:22">
       <c r="A3" s="614">
@@ -13140,10 +13135,10 @@
       <c r="N15" s="384"/>
       <c r="O15" s="384"/>
       <c r="P15" s="384"/>
-      <c r="Q15" s="908" t="s">
+      <c r="Q15" s="927" t="s">
         <v>38</v>
       </c>
-      <c r="R15" s="909"/>
+      <c r="R15" s="928"/>
       <c r="S15" s="79"/>
       <c r="T15" s="569"/>
       <c r="U15" s="47" t="s">
@@ -14848,13 +14843,13 @@
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
       <c r="L55" s="3"/>
-      <c r="M55" s="903" t="s">
+      <c r="M55" s="922" t="s">
         <v>121</v>
       </c>
-      <c r="N55" s="904"/>
-      <c r="O55" s="904"/>
-      <c r="P55" s="904"/>
-      <c r="Q55" s="905"/>
+      <c r="N55" s="923"/>
+      <c r="O55" s="923"/>
+      <c r="P55" s="923"/>
+      <c r="Q55" s="924"/>
     </row>
     <row r="56" spans="1:22" ht="12" customHeight="1">
       <c r="A56" s="8"/>
@@ -14879,23 +14874,23 @@
       <c r="J57" s="16"/>
       <c r="K57" s="16"/>
       <c r="L57" s="7"/>
-      <c r="M57" s="903" t="s">
+      <c r="M57" s="922" t="s">
         <v>123</v>
       </c>
-      <c r="N57" s="904"/>
-      <c r="O57" s="904"/>
-      <c r="P57" s="904"/>
-      <c r="Q57" s="905"/>
+      <c r="N57" s="923"/>
+      <c r="O57" s="923"/>
+      <c r="P57" s="923"/>
+      <c r="Q57" s="924"/>
     </row>
     <row r="58" spans="1:22">
-      <c r="C58" s="902" t="s">
+      <c r="C58" s="921" t="s">
         <v>124</v>
       </c>
-      <c r="D58" s="902"/>
-      <c r="E58" s="902"/>
-      <c r="F58" s="902"/>
-      <c r="G58" s="902"/>
-      <c r="H58" s="902"/>
+      <c r="D58" s="921"/>
+      <c r="E58" s="921"/>
+      <c r="F58" s="921"/>
+      <c r="G58" s="921"/>
+      <c r="H58" s="921"/>
     </row>
     <row r="59" spans="1:22" ht="15.75" customHeight="1">
       <c r="B59" s="623" t="s">
@@ -14977,6 +14972,14 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="C58:H58"/>
+    <mergeCell ref="M55:Q55"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="M57:Q57"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="J1:J2"/>
     <mergeCell ref="V1:V2"/>
     <mergeCell ref="S1:U1"/>
     <mergeCell ref="L1:P1"/>
@@ -14987,14 +14990,6 @@
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
-    <mergeCell ref="C58:H58"/>
-    <mergeCell ref="M55:Q55"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="M57:Q57"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="J1:J2"/>
   </mergeCells>
   <conditionalFormatting sqref="I3">
     <cfRule type="colorScale" priority="2">
@@ -15086,7 +15081,7 @@
   </sheetPr>
   <dimension ref="A1:AH46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
@@ -15129,83 +15124,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="23.25" customHeight="1">
-      <c r="A1" s="950" t="s">
+      <c r="A1" s="935" t="s">
         <v>142</v>
       </c>
       <c r="B1" s="259"/>
-      <c r="C1" s="952" t="s">
+      <c r="C1" s="937" t="s">
         <v>143</v>
       </c>
-      <c r="D1" s="953"/>
-      <c r="E1" s="953"/>
-      <c r="F1" s="953"/>
-      <c r="G1" s="954"/>
+      <c r="D1" s="938"/>
+      <c r="E1" s="938"/>
+      <c r="F1" s="938"/>
+      <c r="G1" s="939"/>
       <c r="H1" s="259"/>
-      <c r="I1" s="950" t="s">
+      <c r="I1" s="935" t="s">
         <v>144</v>
       </c>
-      <c r="K1" s="952" t="s">
+      <c r="K1" s="937" t="s">
         <v>145</v>
       </c>
-      <c r="L1" s="953"/>
-      <c r="M1" s="953"/>
-      <c r="N1" s="953"/>
-      <c r="O1" s="953"/>
-      <c r="P1" s="953"/>
-      <c r="Q1" s="954"/>
-      <c r="S1" s="952" t="s">
+      <c r="L1" s="938"/>
+      <c r="M1" s="938"/>
+      <c r="N1" s="938"/>
+      <c r="O1" s="938"/>
+      <c r="P1" s="938"/>
+      <c r="Q1" s="939"/>
+      <c r="S1" s="937" t="s">
         <v>146</v>
       </c>
-      <c r="T1" s="953"/>
-      <c r="U1" s="953"/>
-      <c r="V1" s="953"/>
-      <c r="W1" s="953"/>
-      <c r="X1" s="953"/>
-      <c r="Y1" s="954"/>
-      <c r="AA1" s="939"/>
-      <c r="AB1" s="940"/>
-      <c r="AC1" s="937" t="s">
+      <c r="T1" s="938"/>
+      <c r="U1" s="938"/>
+      <c r="V1" s="938"/>
+      <c r="W1" s="938"/>
+      <c r="X1" s="938"/>
+      <c r="Y1" s="939"/>
+      <c r="AA1" s="950"/>
+      <c r="AB1" s="951"/>
+      <c r="AC1" s="948" t="s">
         <v>147</v>
       </c>
       <c r="AD1" s="824"/>
-      <c r="AE1" s="935" t="s">
+      <c r="AE1" s="946" t="s">
         <v>148</v>
       </c>
-      <c r="AF1" s="943"/>
-      <c r="AG1" s="944"/>
+      <c r="AF1" s="954"/>
+      <c r="AG1" s="955"/>
       <c r="AH1" s="135"/>
     </row>
     <row r="2" spans="1:34" ht="23.25">
-      <c r="A2" s="951"/>
+      <c r="A2" s="936"/>
       <c r="B2" s="259"/>
-      <c r="C2" s="955"/>
-      <c r="D2" s="956"/>
-      <c r="E2" s="956"/>
-      <c r="F2" s="956"/>
-      <c r="G2" s="957"/>
+      <c r="C2" s="940"/>
+      <c r="D2" s="941"/>
+      <c r="E2" s="941"/>
+      <c r="F2" s="941"/>
+      <c r="G2" s="942"/>
       <c r="H2" s="259"/>
-      <c r="I2" s="951"/>
-      <c r="K2" s="955"/>
-      <c r="L2" s="956"/>
-      <c r="M2" s="956"/>
-      <c r="N2" s="956"/>
-      <c r="O2" s="956"/>
-      <c r="P2" s="956"/>
-      <c r="Q2" s="957"/>
-      <c r="S2" s="955"/>
-      <c r="T2" s="956"/>
-      <c r="U2" s="956"/>
-      <c r="V2" s="956"/>
-      <c r="W2" s="956"/>
-      <c r="X2" s="956"/>
-      <c r="Y2" s="957"/>
-      <c r="AA2" s="941"/>
-      <c r="AB2" s="942"/>
-      <c r="AC2" s="938"/>
+      <c r="I2" s="936"/>
+      <c r="K2" s="940"/>
+      <c r="L2" s="941"/>
+      <c r="M2" s="941"/>
+      <c r="N2" s="941"/>
+      <c r="O2" s="941"/>
+      <c r="P2" s="941"/>
+      <c r="Q2" s="942"/>
+      <c r="S2" s="940"/>
+      <c r="T2" s="941"/>
+      <c r="U2" s="941"/>
+      <c r="V2" s="941"/>
+      <c r="W2" s="941"/>
+      <c r="X2" s="941"/>
+      <c r="Y2" s="942"/>
+      <c r="AA2" s="952"/>
+      <c r="AB2" s="953"/>
+      <c r="AC2" s="949"/>
       <c r="AD2" s="825"/>
-      <c r="AE2" s="936"/>
-      <c r="AF2" s="945"/>
-      <c r="AG2" s="946"/>
+      <c r="AE2" s="947"/>
+      <c r="AF2" s="956"/>
+      <c r="AG2" s="957"/>
       <c r="AH2" s="135"/>
     </row>
     <row r="3" spans="1:34" ht="41.25">
@@ -17115,29 +17110,35 @@
       </c>
     </row>
     <row r="46" spans="11:33" ht="15" customHeight="1">
-      <c r="S46" s="947" t="s">
+      <c r="S46" s="943" t="s">
         <v>221</v>
       </c>
-      <c r="T46" s="948"/>
-      <c r="U46" s="949"/>
-      <c r="W46" s="947" t="s">
+      <c r="T46" s="944"/>
+      <c r="U46" s="945"/>
+      <c r="W46" s="943" t="s">
         <v>222</v>
       </c>
-      <c r="X46" s="948"/>
-      <c r="Y46" s="949"/>
-      <c r="AA46" s="947" t="s">
+      <c r="X46" s="944"/>
+      <c r="Y46" s="945"/>
+      <c r="AA46" s="943" t="s">
         <v>221</v>
       </c>
-      <c r="AB46" s="948"/>
-      <c r="AC46" s="949"/>
-      <c r="AE46" s="947" t="s">
+      <c r="AB46" s="944"/>
+      <c r="AC46" s="945"/>
+      <c r="AE46" s="943" t="s">
         <v>222</v>
       </c>
-      <c r="AF46" s="948"/>
-      <c r="AG46" s="949"/>
+      <c r="AF46" s="944"/>
+      <c r="AG46" s="945"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="AE1:AE2"/>
+    <mergeCell ref="AC1:AC2"/>
+    <mergeCell ref="AA1:AB2"/>
+    <mergeCell ref="AF1:AG2"/>
+    <mergeCell ref="AA46:AC46"/>
+    <mergeCell ref="AE46:AG46"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="C1:G2"/>
     <mergeCell ref="W46:Y46"/>
@@ -17145,12 +17146,6 @@
     <mergeCell ref="K1:Q2"/>
     <mergeCell ref="S1:Y2"/>
     <mergeCell ref="I1:I2"/>
-    <mergeCell ref="AE1:AE2"/>
-    <mergeCell ref="AC1:AC2"/>
-    <mergeCell ref="AA1:AB2"/>
-    <mergeCell ref="AF1:AG2"/>
-    <mergeCell ref="AA46:AC46"/>
-    <mergeCell ref="AE46:AG46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -17432,13 +17427,13 @@
       <c r="I2" s="975"/>
       <c r="J2" s="975"/>
       <c r="K2" s="977"/>
-      <c r="M2" s="952" t="s">
+      <c r="M2" s="937" t="s">
         <v>240</v>
       </c>
-      <c r="N2" s="953"/>
-      <c r="O2" s="953"/>
-      <c r="P2" s="953"/>
-      <c r="Q2" s="954"/>
+      <c r="N2" s="938"/>
+      <c r="O2" s="938"/>
+      <c r="P2" s="938"/>
+      <c r="Q2" s="939"/>
     </row>
     <row r="3" spans="1:17" ht="15.75" customHeight="1">
       <c r="A3" s="6">
@@ -17468,11 +17463,11 @@
         <v>12</v>
       </c>
       <c r="K3" s="78"/>
-      <c r="M3" s="955"/>
-      <c r="N3" s="956"/>
-      <c r="O3" s="956"/>
-      <c r="P3" s="956"/>
-      <c r="Q3" s="957"/>
+      <c r="M3" s="940"/>
+      <c r="N3" s="941"/>
+      <c r="O3" s="941"/>
+      <c r="P3" s="941"/>
+      <c r="Q3" s="942"/>
     </row>
     <row r="4" spans="1:17" ht="15.75" customHeight="1">
       <c r="A4" s="4">
@@ -18164,54 +18159,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A1" s="980" t="s">
+      <c r="A1" s="991" t="s">
         <v>263</v>
       </c>
-      <c r="B1" s="981"/>
-      <c r="C1" s="986" t="s">
+      <c r="B1" s="992"/>
+      <c r="C1" s="997" t="s">
         <v>130</v>
       </c>
-      <c r="D1" s="987"/>
-      <c r="E1" s="984" t="s">
+      <c r="D1" s="998"/>
+      <c r="E1" s="995" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="985"/>
-      <c r="G1" s="988" t="s">
+      <c r="F1" s="996"/>
+      <c r="G1" s="999" t="s">
         <v>237</v>
       </c>
-      <c r="H1" s="989"/>
-      <c r="I1" s="990" t="s">
+      <c r="H1" s="1000"/>
+      <c r="I1" s="1001" t="s">
         <v>138</v>
       </c>
-      <c r="J1" s="991"/>
-      <c r="K1" s="1000" t="s">
+      <c r="J1" s="1002"/>
+      <c r="K1" s="988" t="s">
         <v>264</v>
       </c>
-      <c r="L1" s="1001"/>
+      <c r="L1" s="989"/>
       <c r="M1" s="767"/>
-      <c r="N1" s="998" t="s">
+      <c r="N1" s="986" t="s">
         <v>265</v>
       </c>
-      <c r="O1" s="999"/>
+      <c r="O1" s="987"/>
       <c r="P1" s="710"/>
-      <c r="Q1" s="917" t="s">
+      <c r="Q1" s="903" t="s">
         <v>266</v>
       </c>
       <c r="R1" s="734"/>
-      <c r="S1" s="995" t="s">
+      <c r="S1" s="983" t="s">
         <v>267</v>
       </c>
-      <c r="T1" s="996"/>
-      <c r="U1" s="996"/>
-      <c r="V1" s="996"/>
-      <c r="W1" s="996"/>
-      <c r="X1" s="996"/>
-      <c r="Y1" s="996"/>
-      <c r="Z1" s="997"/>
+      <c r="T1" s="984"/>
+      <c r="U1" s="984"/>
+      <c r="V1" s="984"/>
+      <c r="W1" s="984"/>
+      <c r="X1" s="984"/>
+      <c r="Y1" s="984"/>
+      <c r="Z1" s="985"/>
     </row>
     <row r="2" spans="1:26" ht="20.25" customHeight="1">
-      <c r="A2" s="982"/>
-      <c r="B2" s="983"/>
+      <c r="A2" s="993"/>
+      <c r="B2" s="994"/>
       <c r="C2" s="26" t="s">
         <v>268</v>
       </c>
@@ -18250,7 +18245,7 @@
         <v>271</v>
       </c>
       <c r="P2" s="1"/>
-      <c r="Q2" s="1002"/>
+      <c r="Q2" s="990"/>
       <c r="R2" s="734"/>
       <c r="S2" s="248" t="s">
         <v>272</v>
@@ -19772,7 +19767,7 @@
       <c r="P26" s="713"/>
       <c r="Q26" s="714">
         <f>SUM('Super Staff Cover'!H25)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R26" s="734"/>
       <c r="S26" s="482"/>
@@ -20064,12 +20059,12 @@
       <c r="S32" s="11"/>
       <c r="T32" s="11"/>
       <c r="U32" s="727"/>
-      <c r="V32" s="992" t="s">
+      <c r="V32" s="980" t="s">
         <v>295</v>
       </c>
-      <c r="W32" s="993"/>
-      <c r="X32" s="993"/>
-      <c r="Y32" s="994"/>
+      <c r="W32" s="981"/>
+      <c r="X32" s="981"/>
+      <c r="Y32" s="982"/>
       <c r="Z32" s="517">
         <f>SUM(S30:Z30)</f>
         <v>26</v>
@@ -20094,12 +20089,12 @@
       <c r="B34" s="623" t="s">
         <v>18</v>
       </c>
-      <c r="V34" s="992" t="s">
+      <c r="V34" s="980" t="s">
         <v>296</v>
       </c>
-      <c r="W34" s="993"/>
-      <c r="X34" s="993"/>
-      <c r="Y34" s="994"/>
+      <c r="W34" s="981"/>
+      <c r="X34" s="981"/>
+      <c r="Y34" s="982"/>
       <c r="Z34" s="326">
         <f>SUM(Z32-Z30)</f>
         <v>23</v>
@@ -20137,17 +20132,17 @@
     <sortCondition ref="B3:B26"/>
   </sortState>
   <mergeCells count="11">
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
     <mergeCell ref="V32:Y32"/>
     <mergeCell ref="V34:Y34"/>
     <mergeCell ref="S1:Z1"/>
     <mergeCell ref="N1:O1"/>
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
   </mergeCells>
   <conditionalFormatting sqref="K3:K29">
     <cfRule type="colorScale" priority="26">
@@ -21153,7 +21148,7 @@
       </c>
       <c r="E25" s="669">
         <f>COUNTIF('COM726 - Sept 23'!D4:D113, "Craig")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25" s="663">
         <f>COUNTIF('COM616 - Oct 2023'!D4:D101, "Craig")</f>
@@ -21165,7 +21160,7 @@
       </c>
       <c r="H25" s="539">
         <f>SUM(B25:F25)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" s="79"/>
       <c r="K25" s="21"/>
@@ -21286,7 +21281,7 @@
       </c>
       <c r="E31" s="670">
         <f>SUM(E2:E25)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F31" s="533">
         <f>SUM(F2:F25)</f>
@@ -21298,7 +21293,7 @@
       </c>
       <c r="H31" s="808">
         <f>SUM(H2:H25)</f>
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J31" s="840">
         <f>SUM(J2:J25)</f>
@@ -21615,29 +21610,29 @@
   <sheetData>
     <row r="1" spans="1:16" ht="18" customHeight="1"/>
     <row r="2" spans="1:16" ht="21.75" customHeight="1">
-      <c r="A2" s="1012" t="s">
+      <c r="A2" s="1018" t="s">
         <v>316</v>
       </c>
-      <c r="B2" s="1013"/>
-      <c r="D2" s="1012" t="s">
+      <c r="B2" s="1019"/>
+      <c r="D2" s="1018" t="s">
         <v>317</v>
       </c>
-      <c r="E2" s="1013"/>
-      <c r="G2" s="1005" t="s">
+      <c r="E2" s="1019"/>
+      <c r="G2" s="1015" t="s">
         <v>318</v>
       </c>
-      <c r="H2" s="1007" t="s">
+      <c r="H2" s="1011" t="s">
         <v>319</v>
       </c>
-      <c r="I2" s="1009" t="s">
+      <c r="I2" s="1013" t="s">
         <v>320</v>
       </c>
       <c r="J2" s="95"/>
-      <c r="K2" s="1016" t="s">
+      <c r="K2" s="1003" t="s">
         <v>321</v>
       </c>
-      <c r="L2" s="1017"/>
-      <c r="M2" s="916"/>
+      <c r="L2" s="1004"/>
+      <c r="M2" s="902"/>
     </row>
     <row r="3" spans="1:16" ht="15.75" customHeight="1">
       <c r="A3" s="71" t="s">
@@ -21652,16 +21647,16 @@
       <c r="E3" s="67">
         <v>46</v>
       </c>
-      <c r="G3" s="1006"/>
-      <c r="H3" s="1008"/>
-      <c r="I3" s="1010"/>
+      <c r="G3" s="1016"/>
+      <c r="H3" s="1012"/>
+      <c r="I3" s="1014"/>
       <c r="J3" s="95"/>
-      <c r="K3" s="1018"/>
-      <c r="L3" s="1019"/>
-      <c r="M3" s="1020"/>
-      <c r="N3" s="1011"/>
-      <c r="O3" s="1011"/>
-      <c r="P3" s="1011"/>
+      <c r="K3" s="1005"/>
+      <c r="L3" s="1006"/>
+      <c r="M3" s="1007"/>
+      <c r="N3" s="1017"/>
+      <c r="O3" s="1017"/>
+      <c r="P3" s="1017"/>
     </row>
     <row r="4" spans="1:16" ht="15">
       <c r="A4" s="73" t="s">
@@ -21691,42 +21686,42 @@
         <v>2.9722222222222223</v>
       </c>
       <c r="J4" s="1"/>
-      <c r="K4" s="1018"/>
-      <c r="L4" s="1019"/>
-      <c r="M4" s="1020"/>
-      <c r="N4" s="1011"/>
-      <c r="O4" s="1011"/>
-      <c r="P4" s="1011"/>
+      <c r="K4" s="1005"/>
+      <c r="L4" s="1006"/>
+      <c r="M4" s="1007"/>
+      <c r="N4" s="1017"/>
+      <c r="O4" s="1017"/>
+      <c r="P4" s="1017"/>
     </row>
     <row r="5" spans="1:16">
-      <c r="K5" s="1018"/>
-      <c r="L5" s="1019"/>
-      <c r="M5" s="1020"/>
-      <c r="N5" s="1011"/>
-      <c r="O5" s="1011"/>
-      <c r="P5" s="1011"/>
+      <c r="K5" s="1005"/>
+      <c r="L5" s="1006"/>
+      <c r="M5" s="1007"/>
+      <c r="N5" s="1017"/>
+      <c r="O5" s="1017"/>
+      <c r="P5" s="1017"/>
     </row>
     <row r="6" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A6" s="1003" t="s">
+      <c r="A6" s="1023" t="s">
         <v>324</v>
       </c>
-      <c r="B6" s="1004"/>
-      <c r="G6" s="1005" t="s">
+      <c r="B6" s="1020"/>
+      <c r="G6" s="1015" t="s">
         <v>318</v>
       </c>
-      <c r="H6" s="1007" t="s">
+      <c r="H6" s="1011" t="s">
         <v>319</v>
       </c>
-      <c r="I6" s="1009" t="s">
+      <c r="I6" s="1013" t="s">
         <v>320</v>
       </c>
       <c r="J6" s="95"/>
-      <c r="K6" s="1018"/>
-      <c r="L6" s="1019"/>
-      <c r="M6" s="1020"/>
-      <c r="N6" s="1011"/>
-      <c r="O6" s="1011"/>
-      <c r="P6" s="1011"/>
+      <c r="K6" s="1005"/>
+      <c r="L6" s="1006"/>
+      <c r="M6" s="1007"/>
+      <c r="N6" s="1017"/>
+      <c r="O6" s="1017"/>
+      <c r="P6" s="1017"/>
     </row>
     <row r="7" spans="1:16" ht="15.75" customHeight="1">
       <c r="A7" s="71" t="s">
@@ -21735,16 +21730,16 @@
       <c r="B7" s="72">
         <v>6</v>
       </c>
-      <c r="G7" s="1006"/>
-      <c r="H7" s="1008"/>
-      <c r="I7" s="1010"/>
+      <c r="G7" s="1016"/>
+      <c r="H7" s="1012"/>
+      <c r="I7" s="1014"/>
       <c r="J7" s="95"/>
-      <c r="K7" s="1018"/>
-      <c r="L7" s="1019"/>
-      <c r="M7" s="1020"/>
-      <c r="N7" s="1011"/>
-      <c r="O7" s="1011"/>
-      <c r="P7" s="1011"/>
+      <c r="K7" s="1005"/>
+      <c r="L7" s="1006"/>
+      <c r="M7" s="1007"/>
+      <c r="N7" s="1017"/>
+      <c r="O7" s="1017"/>
+      <c r="P7" s="1017"/>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="73" t="s">
@@ -21767,34 +21762,34 @@
         <v>0.16666666666666666</v>
       </c>
       <c r="J8" s="1"/>
-      <c r="K8" s="1021"/>
-      <c r="L8" s="1022"/>
-      <c r="M8" s="1023"/>
-      <c r="N8" s="1011"/>
-      <c r="O8" s="1011"/>
-      <c r="P8" s="1011"/>
+      <c r="K8" s="1008"/>
+      <c r="L8" s="1009"/>
+      <c r="M8" s="1010"/>
+      <c r="N8" s="1017"/>
+      <c r="O8" s="1017"/>
+      <c r="P8" s="1017"/>
     </row>
     <row r="9" spans="1:16">
-      <c r="N9" s="1011"/>
-      <c r="O9" s="1011"/>
-      <c r="P9" s="1011"/>
+      <c r="N9" s="1017"/>
+      <c r="O9" s="1017"/>
+      <c r="P9" s="1017"/>
     </row>
     <row r="10" spans="1:16">
-      <c r="A10" s="1012" t="s">
+      <c r="A10" s="1018" t="s">
         <v>325</v>
       </c>
-      <c r="B10" s="1004"/>
-      <c r="D10" s="1012" t="s">
+      <c r="B10" s="1020"/>
+      <c r="D10" s="1018" t="s">
         <v>326</v>
       </c>
-      <c r="E10" s="1004"/>
-      <c r="G10" s="1005" t="s">
+      <c r="E10" s="1020"/>
+      <c r="G10" s="1015" t="s">
         <v>318</v>
       </c>
-      <c r="H10" s="1007" t="s">
+      <c r="H10" s="1011" t="s">
         <v>319</v>
       </c>
-      <c r="I10" s="1009" t="s">
+      <c r="I10" s="1013" t="s">
         <v>327</v>
       </c>
       <c r="J10" s="95"/>
@@ -21810,9 +21805,9 @@
         <v>322</v>
       </c>
       <c r="E11" s="67"/>
-      <c r="G11" s="1006"/>
-      <c r="H11" s="1008"/>
-      <c r="I11" s="1010"/>
+      <c r="G11" s="1016"/>
+      <c r="H11" s="1012"/>
+      <c r="I11" s="1014"/>
       <c r="J11" s="95"/>
     </row>
     <row r="12" spans="1:16">
@@ -21845,19 +21840,19 @@
       <c r="J12" s="96"/>
     </row>
     <row r="14" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A14" s="1003" t="s">
+      <c r="A14" s="1023" t="s">
         <v>328</v>
       </c>
-      <c r="B14" s="1004"/>
-      <c r="D14" s="1003"/>
-      <c r="E14" s="1004"/>
-      <c r="G14" s="1005" t="s">
+      <c r="B14" s="1020"/>
+      <c r="D14" s="1023"/>
+      <c r="E14" s="1020"/>
+      <c r="G14" s="1015" t="s">
         <v>318</v>
       </c>
-      <c r="H14" s="1007" t="s">
+      <c r="H14" s="1011" t="s">
         <v>319</v>
       </c>
-      <c r="I14" s="1009" t="s">
+      <c r="I14" s="1013" t="s">
         <v>327</v>
       </c>
     </row>
@@ -21871,9 +21866,9 @@
       </c>
       <c r="D15" s="71"/>
       <c r="E15" s="72"/>
-      <c r="G15" s="1006"/>
-      <c r="H15" s="1008"/>
-      <c r="I15" s="1010"/>
+      <c r="G15" s="1016"/>
+      <c r="H15" s="1012"/>
+      <c r="I15" s="1014"/>
     </row>
     <row r="16" spans="1:16" ht="15" customHeight="1">
       <c r="A16" s="73" t="s">
@@ -21899,19 +21894,19 @@
       </c>
     </row>
     <row r="18" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A18" s="1014" t="s">
+      <c r="A18" s="1021" t="s">
         <v>329</v>
       </c>
-      <c r="B18" s="1015"/>
-      <c r="D18" s="1012"/>
-      <c r="E18" s="1004"/>
-      <c r="G18" s="1005" t="s">
+      <c r="B18" s="1022"/>
+      <c r="D18" s="1018"/>
+      <c r="E18" s="1020"/>
+      <c r="G18" s="1015" t="s">
         <v>318</v>
       </c>
-      <c r="H18" s="1007" t="s">
+      <c r="H18" s="1011" t="s">
         <v>319</v>
       </c>
-      <c r="I18" s="1009" t="s">
+      <c r="I18" s="1013" t="s">
         <v>320</v>
       </c>
     </row>
@@ -21924,9 +21919,9 @@
       </c>
       <c r="D19" s="71"/>
       <c r="E19" s="67"/>
-      <c r="G19" s="1006"/>
-      <c r="H19" s="1008"/>
-      <c r="I19" s="1010"/>
+      <c r="G19" s="1016"/>
+      <c r="H19" s="1012"/>
+      <c r="I19" s="1014"/>
     </row>
     <row r="20" spans="1:9" ht="15.75" customHeight="1">
       <c r="A20" s="73" t="s">
@@ -21949,17 +21944,17 @@
       </c>
     </row>
     <row r="22" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A22" s="1003" t="s">
+      <c r="A22" s="1023" t="s">
         <v>330</v>
       </c>
-      <c r="B22" s="1004"/>
-      <c r="G22" s="1005" t="s">
+      <c r="B22" s="1020"/>
+      <c r="G22" s="1015" t="s">
         <v>318</v>
       </c>
-      <c r="H22" s="1007" t="s">
+      <c r="H22" s="1011" t="s">
         <v>319</v>
       </c>
-      <c r="I22" s="1009" t="s">
+      <c r="I22" s="1013" t="s">
         <v>320</v>
       </c>
     </row>
@@ -21968,9 +21963,9 @@
         <v>322</v>
       </c>
       <c r="B23" s="72"/>
-      <c r="G23" s="1006"/>
-      <c r="H23" s="1008"/>
-      <c r="I23" s="1010"/>
+      <c r="G23" s="1016"/>
+      <c r="H23" s="1012"/>
+      <c r="I23" s="1014"/>
     </row>
     <row r="24" spans="1:9" ht="15.75" customHeight="1">
       <c r="A24" s="73" t="s">
@@ -21992,12 +21987,14 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="K2:M8"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="I22:I23"/>
     <mergeCell ref="N3:P9"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="A10:B10"/>
@@ -22014,14 +22011,12 @@
     <mergeCell ref="G18:G19"/>
     <mergeCell ref="H18:H19"/>
     <mergeCell ref="I18:I19"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="K2:M8"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/Comp_Module_Map_2022_V5.xlsx
+++ b/docs/Comp_Module_Map_2022_V5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ssu-my.sharepoint.com/personal/martin_reid_solent_ac_uk/Documents/solent_store/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7161" documentId="8_{F910275D-011D-4B9B-94BD-9ED687CDE8E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AF850259-CA6B-4F07-88AA-66E27F61AD70}"/>
+  <xr:revisionPtr revIDLastSave="7162" documentId="8_{F910275D-011D-4B9B-94BD-9ED687CDE8E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6B532292-33EC-4161-9C20-B19B5C9892D8}"/>
   <bookViews>
-    <workbookView xWindow="2835" yWindow="1605" windowWidth="22560" windowHeight="13920" firstSheet="2" activeTab="11" xr2:uid="{E69C05BD-5864-2041-BCC3-203BAAF63D0E}"/>
+    <workbookView xWindow="2835" yWindow="1605" windowWidth="22560" windowHeight="13920" firstSheet="2" activeTab="5" xr2:uid="{E69C05BD-5864-2041-BCC3-203BAAF63D0E}"/>
   </bookViews>
   <sheets>
     <sheet name="Foundation" sheetId="6" r:id="rId1"/>
@@ -8539,7 +8539,7 @@
   </sheetPr>
   <dimension ref="A1:M111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
@@ -18122,8 +18122,8 @@
   </sheetPr>
   <dimension ref="A1:AH63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q28" sqref="Q28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" customHeight="1"/>
@@ -19884,9 +19884,9 @@
       </c>
       <c r="O28" s="760"/>
       <c r="P28" s="713"/>
-      <c r="Q28" s="714" t="e">
-        <f ca="1">SUM('Super Staff Cover'!H?)</f>
-        <v>#NAME?</v>
+      <c r="Q28" s="714">
+        <f>SUM('Super Staff Cover'!H25)</f>
+        <v>0</v>
       </c>
       <c r="R28" s="734"/>
       <c r="S28" s="74"/>
@@ -20183,7 +20183,7 @@
   <dimension ref="A1:N35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" customHeight="1"/>

--- a/docs/Comp_Module_Map_2022_V5.xlsx
+++ b/docs/Comp_Module_Map_2022_V5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ssu-my.sharepoint.com/personal/martin_reid_solent_ac_uk/Documents/solent_store/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7730" documentId="8_{F910275D-011D-4B9B-94BD-9ED687CDE8E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6B3B8283-BC42-42B1-8CC8-FDB01D016F42}"/>
+  <xr:revisionPtr revIDLastSave="7734" documentId="8_{F910275D-011D-4B9B-94BD-9ED687CDE8E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2E607919-D907-404E-AB4A-8D97C63A3B7F}"/>
   <bookViews>
-    <workbookView xWindow="2835" yWindow="1605" windowWidth="22560" windowHeight="13920" firstSheet="13" activeTab="11" xr2:uid="{E69C05BD-5864-2041-BCC3-203BAAF63D0E}"/>
+    <workbookView xWindow="2835" yWindow="1605" windowWidth="22560" windowHeight="13920" firstSheet="11" activeTab="13" xr2:uid="{E69C05BD-5864-2041-BCC3-203BAAF63D0E}"/>
   </bookViews>
   <sheets>
     <sheet name="Foundation" sheetId="6" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2158" uniqueCount="724">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2158" uniqueCount="725">
   <si>
     <t>Computing Foundation</t>
   </si>
@@ -1872,7 +1872,7 @@
     <t>Abigail Nyatwa</t>
   </si>
   <si>
-    <t>MAIDS COURSES COM726</t>
+    <t>MAIDS COURSES COM726 - Jan Starters</t>
   </si>
   <si>
     <t>S. No.</t>
@@ -1884,7 +1884,7 @@
     <t>Course</t>
   </si>
   <si>
-    <t>Sep 2023 to Jan 2024</t>
+    <t>Sept 2023 to Jan 2024</t>
   </si>
   <si>
     <t>To Allocate</t>
@@ -2602,6 +2602,9 @@
   </si>
   <si>
     <t>Oct 2023 - May 2024</t>
+  </si>
+  <si>
+    <t>MAIDS COURSES COM726 - Sept Starters</t>
   </si>
   <si>
     <t>May 2024 to Sept 2024</t>
@@ -6652,6 +6655,9 @@
     <xf numFmtId="0" fontId="51" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6700,6 +6706,63 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="107" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="105" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="108" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -6742,62 +6805,38 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="107" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="105" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="108" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="49" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -6835,39 +6874,6 @@
     <xf numFmtId="0" fontId="33" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6934,6 +6940,39 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="45" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6964,102 +7003,69 @@
     <xf numFmtId="0" fontId="1" fillId="12" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7175,9 +7181,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="4" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -7525,38 +7528,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="29.1" customHeight="1">
-      <c r="A1" s="870" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="871"/>
-      <c r="C1" s="878" t="s">
+      <c r="A1" s="871" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="872"/>
+      <c r="C1" s="879" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="880" t="s">
+      <c r="D1" s="881" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="882" t="s">
+      <c r="E1" s="883" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="884" t="s">
+      <c r="F1" s="885" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="874" t="s">
+      <c r="G1" s="875" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="876" t="s">
+      <c r="H1" s="877" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="29.1" customHeight="1">
-      <c r="A2" s="872"/>
-      <c r="B2" s="873"/>
-      <c r="C2" s="879"/>
-      <c r="D2" s="881"/>
-      <c r="E2" s="883"/>
-      <c r="F2" s="885"/>
-      <c r="G2" s="875"/>
-      <c r="H2" s="877"/>
+      <c r="A2" s="873"/>
+      <c r="B2" s="874"/>
+      <c r="C2" s="880"/>
+      <c r="D2" s="882"/>
+      <c r="E2" s="884"/>
+      <c r="F2" s="886"/>
+      <c r="G2" s="876"/>
+      <c r="H2" s="878"/>
     </row>
     <row r="3" spans="1:8" ht="15">
       <c r="A3" s="36">
@@ -7729,14 +7732,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18.75">
-      <c r="A1" s="1025" t="s">
+      <c r="A1" s="1026" t="s">
         <v>392</v>
       </c>
-      <c r="B1" s="1026"/>
-      <c r="C1" s="1027" t="s">
+      <c r="B1" s="1027"/>
+      <c r="C1" s="1028" t="s">
         <v>393</v>
       </c>
-      <c r="D1" s="1028"/>
+      <c r="D1" s="1029"/>
       <c r="E1" s="131"/>
       <c r="F1" s="131"/>
       <c r="G1" s="131"/>
@@ -7749,11 +7752,11 @@
         <v>6</v>
       </c>
       <c r="D2" s="9"/>
-      <c r="F2" s="1008" t="s">
+      <c r="F2" s="1009" t="s">
         <v>373</v>
       </c>
-      <c r="G2" s="1009"/>
-      <c r="H2" s="1010"/>
+      <c r="G2" s="1010"/>
+      <c r="H2" s="1011"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="18">
@@ -7766,12 +7769,12 @@
         <v>8</v>
       </c>
       <c r="D3" s="10"/>
-      <c r="F3" s="1019">
+      <c r="F3" s="1020">
         <f>SUM('Supervision Load'!B7)</f>
         <v>6</v>
       </c>
-      <c r="G3" s="1020"/>
-      <c r="H3" s="1021"/>
+      <c r="G3" s="1021"/>
+      <c r="H3" s="1022"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="123">
@@ -7784,9 +7787,9 @@
         <v>8</v>
       </c>
       <c r="D4" s="10"/>
-      <c r="F4" s="1019"/>
-      <c r="G4" s="1020"/>
-      <c r="H4" s="1021"/>
+      <c r="F4" s="1020"/>
+      <c r="G4" s="1021"/>
+      <c r="H4" s="1022"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="12">
@@ -7799,9 +7802,9 @@
         <v>52</v>
       </c>
       <c r="D5" s="123"/>
-      <c r="F5" s="1022"/>
-      <c r="G5" s="1023"/>
-      <c r="H5" s="1024"/>
+      <c r="F5" s="1023"/>
+      <c r="G5" s="1024"/>
+      <c r="H5" s="1025"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="123">
@@ -7857,7 +7860,7 @@
   </sheetPr>
   <dimension ref="A1:P63"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
@@ -7892,11 +7895,11 @@
       <c r="C2" s="133" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="1008" t="s">
+      <c r="E2" s="1009" t="s">
         <v>373</v>
       </c>
-      <c r="F2" s="1009"/>
-      <c r="G2" s="1010"/>
+      <c r="F2" s="1010"/>
+      <c r="G2" s="1011"/>
       <c r="I2" s="456" t="s">
         <v>403</v>
       </c>
@@ -7920,12 +7923,12 @@
       <c r="C3" s="122" t="s">
         <v>405</v>
       </c>
-      <c r="E3" s="1019">
+      <c r="E3" s="1020">
         <f>SUM('Supervision Load'!B3)</f>
         <v>61</v>
       </c>
-      <c r="F3" s="1020"/>
-      <c r="G3" s="1021"/>
+      <c r="F3" s="1021"/>
+      <c r="G3" s="1022"/>
       <c r="H3">
         <v>1</v>
       </c>
@@ -7957,9 +7960,9 @@
       <c r="C4" s="122" t="s">
         <v>88</v>
       </c>
-      <c r="E4" s="1019"/>
-      <c r="F4" s="1020"/>
-      <c r="G4" s="1021"/>
+      <c r="E4" s="1020"/>
+      <c r="F4" s="1021"/>
+      <c r="G4" s="1022"/>
       <c r="H4">
         <v>2</v>
       </c>
@@ -7991,9 +7994,9 @@
       <c r="C5" s="122" t="s">
         <v>248</v>
       </c>
-      <c r="E5" s="1022"/>
-      <c r="F5" s="1023"/>
-      <c r="G5" s="1024"/>
+      <c r="E5" s="1023"/>
+      <c r="F5" s="1024"/>
+      <c r="G5" s="1025"/>
       <c r="H5">
         <v>3</v>
       </c>
@@ -8039,12 +8042,12 @@
         <f>SUM(J6-K6)</f>
         <v>0</v>
       </c>
-      <c r="M6" s="1029" t="s">
+      <c r="M6" s="1030" t="s">
         <v>411</v>
       </c>
-      <c r="N6" s="1030"/>
-      <c r="O6" s="1030"/>
-      <c r="P6" s="1030"/>
+      <c r="N6" s="1031"/>
+      <c r="O6" s="1031"/>
+      <c r="P6" s="1031"/>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="12">
@@ -8875,8 +8878,8 @@
   </sheetPr>
   <dimension ref="A1:N115"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" customHeight="1"/>
@@ -8893,18 +8896,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18.75">
-      <c r="A1" s="1031" t="s">
+      <c r="A1" s="1032" t="s">
         <v>479</v>
       </c>
-      <c r="B1" s="1032"/>
-      <c r="C1" s="1032"/>
-      <c r="D1" s="1032"/>
-      <c r="E1" s="1033"/>
+      <c r="B1" s="1033"/>
+      <c r="C1" s="1033"/>
+      <c r="D1" s="1033"/>
+      <c r="E1" s="1034"/>
       <c r="F1" s="131"/>
       <c r="G1" s="131"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A2" s="1045" t="s">
+      <c r="A2" s="870" t="s">
         <v>480</v>
       </c>
       <c r="B2" s="98" t="s">
@@ -8919,11 +8922,11 @@
       <c r="E2" s="98" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="1037" t="s">
+      <c r="G2" s="1038" t="s">
         <v>483</v>
       </c>
-      <c r="H2" s="1038"/>
-      <c r="I2" s="1039"/>
+      <c r="H2" s="1039"/>
+      <c r="I2" s="1040"/>
       <c r="K2" s="836" t="s">
         <v>403</v>
       </c>
@@ -8953,11 +8956,11 @@
       <c r="E3" s="833" t="s">
         <v>487</v>
       </c>
-      <c r="G3" s="1034">
+      <c r="G3" s="1035">
         <v>109</v>
       </c>
-      <c r="H3" s="1035"/>
-      <c r="I3" s="1036"/>
+      <c r="H3" s="1036"/>
+      <c r="I3" s="1037"/>
       <c r="J3">
         <v>1</v>
       </c>
@@ -8992,9 +8995,9 @@
       <c r="E4" s="833" t="s">
         <v>487</v>
       </c>
-      <c r="G4" s="1022"/>
-      <c r="H4" s="1023"/>
-      <c r="I4" s="1024"/>
+      <c r="G4" s="1023"/>
+      <c r="H4" s="1024"/>
+      <c r="I4" s="1025"/>
       <c r="J4">
         <v>2</v>
       </c>
@@ -11269,7 +11272,7 @@
       <c r="G2" s="606">
         <v>11</v>
       </c>
-      <c r="H2" s="1040">
+      <c r="H2" s="1041">
         <f>SUM(G2:G6)</f>
         <v>59</v>
       </c>
@@ -11305,7 +11308,7 @@
       <c r="G3" s="607">
         <v>8</v>
       </c>
-      <c r="H3" s="1041"/>
+      <c r="H3" s="1042"/>
       <c r="J3" s="128">
         <v>2</v>
       </c>
@@ -11338,7 +11341,7 @@
       <c r="G4" s="608">
         <v>10</v>
       </c>
-      <c r="H4" s="1041"/>
+      <c r="H4" s="1042"/>
       <c r="J4" s="128">
         <v>3</v>
       </c>
@@ -11371,7 +11374,7 @@
       <c r="G5" s="607">
         <v>5</v>
       </c>
-      <c r="H5" s="1041"/>
+      <c r="H5" s="1042"/>
       <c r="J5" s="128">
         <v>4</v>
       </c>
@@ -11404,7 +11407,7 @@
       <c r="G6" s="609">
         <v>25</v>
       </c>
-      <c r="H6" s="1042"/>
+      <c r="H6" s="1043"/>
       <c r="J6" s="128">
         <v>5</v>
       </c>
@@ -11542,7 +11545,7 @@
       </c>
       <c r="C11" s="475"/>
       <c r="D11" s="62"/>
-      <c r="F11" s="1043">
+      <c r="F11" s="1044">
         <f>SUM(H2-N24)</f>
         <v>54</v>
       </c>
@@ -11572,7 +11575,7 @@
       </c>
       <c r="C12" s="476"/>
       <c r="D12" s="215"/>
-      <c r="F12" s="1044"/>
+      <c r="F12" s="1045"/>
       <c r="J12" s="128">
         <v>11</v>
       </c>
@@ -12288,8 +12291,8 @@
   </sheetPr>
   <dimension ref="A1:N162"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E116" sqref="E116:E162"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" customHeight="1"/>
@@ -12306,13 +12309,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18.75">
-      <c r="A1" s="1031" t="s">
-        <v>479</v>
-      </c>
-      <c r="B1" s="1032"/>
-      <c r="C1" s="1032"/>
-      <c r="D1" s="1032"/>
-      <c r="E1" s="1033"/>
+      <c r="A1" s="1032" t="s">
+        <v>723</v>
+      </c>
+      <c r="B1" s="1033"/>
+      <c r="C1" s="1033"/>
+      <c r="D1" s="1033"/>
+      <c r="E1" s="1034"/>
       <c r="F1" s="131"/>
       <c r="G1" s="131"/>
     </row>
@@ -12330,11 +12333,11 @@
       <c r="E2" s="98" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="1037" t="s">
-        <v>723</v>
-      </c>
-      <c r="H2" s="1038"/>
-      <c r="I2" s="1039"/>
+      <c r="G2" s="1038" t="s">
+        <v>724</v>
+      </c>
+      <c r="H2" s="1039"/>
+      <c r="I2" s="1040"/>
       <c r="K2" s="836" t="s">
         <v>403</v>
       </c>
@@ -12358,9 +12361,9 @@
         <v>137</v>
       </c>
       <c r="E3" s="833"/>
-      <c r="G3" s="1034"/>
-      <c r="H3" s="1035"/>
-      <c r="I3" s="1036"/>
+      <c r="G3" s="1035"/>
+      <c r="H3" s="1036"/>
+      <c r="I3" s="1037"/>
       <c r="J3">
         <v>1</v>
       </c>
@@ -12387,9 +12390,9 @@
         <v>137</v>
       </c>
       <c r="E4" s="833"/>
-      <c r="G4" s="1022"/>
-      <c r="H4" s="1023"/>
-      <c r="I4" s="1024"/>
+      <c r="G4" s="1023"/>
+      <c r="H4" s="1024"/>
+      <c r="I4" s="1025"/>
       <c r="J4">
         <v>2</v>
       </c>
@@ -14509,69 +14512,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="26.1" customHeight="1">
-      <c r="A1" s="908" t="s">
+      <c r="A1" s="895" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="909"/>
-      <c r="C1" s="875" t="s">
+      <c r="B1" s="896"/>
+      <c r="C1" s="876" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="917" t="s">
+      <c r="D1" s="904" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="917" t="s">
+      <c r="E1" s="904" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="912" t="s">
+      <c r="F1" s="899" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="913" t="s">
+      <c r="G1" s="900" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="915" t="s">
+      <c r="H1" s="902" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="894" t="s">
+      <c r="I1" s="914" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="898" t="s">
+      <c r="J1" s="918" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="896" t="s">
+      <c r="K1" s="916" t="s">
         <v>23</v>
       </c>
-      <c r="L1" s="905" t="s">
+      <c r="L1" s="892" t="s">
         <v>24</v>
       </c>
-      <c r="M1" s="906"/>
-      <c r="N1" s="906"/>
-      <c r="O1" s="906"/>
-      <c r="P1" s="907"/>
-      <c r="Q1" s="890" t="s">
+      <c r="M1" s="893"/>
+      <c r="N1" s="893"/>
+      <c r="O1" s="893"/>
+      <c r="P1" s="894"/>
+      <c r="Q1" s="910" t="s">
         <v>25</v>
       </c>
-      <c r="R1" s="891"/>
-      <c r="S1" s="902" t="s">
+      <c r="R1" s="911"/>
+      <c r="S1" s="889" t="s">
         <v>26</v>
       </c>
-      <c r="T1" s="903"/>
-      <c r="U1" s="904"/>
-      <c r="V1" s="900" t="s">
+      <c r="T1" s="890"/>
+      <c r="U1" s="891"/>
+      <c r="V1" s="887" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="42.75" customHeight="1">
-      <c r="A2" s="910"/>
-      <c r="B2" s="911"/>
-      <c r="C2" s="875"/>
-      <c r="D2" s="918"/>
-      <c r="E2" s="918"/>
-      <c r="F2" s="912"/>
-      <c r="G2" s="914"/>
-      <c r="H2" s="916"/>
-      <c r="I2" s="895"/>
-      <c r="J2" s="899"/>
-      <c r="K2" s="897"/>
+      <c r="A2" s="897"/>
+      <c r="B2" s="898"/>
+      <c r="C2" s="876"/>
+      <c r="D2" s="905"/>
+      <c r="E2" s="905"/>
+      <c r="F2" s="899"/>
+      <c r="G2" s="901"/>
+      <c r="H2" s="903"/>
+      <c r="I2" s="915"/>
+      <c r="J2" s="919"/>
+      <c r="K2" s="917"/>
       <c r="L2" s="398" t="s">
         <v>28</v>
       </c>
@@ -14602,7 +14605,7 @@
       <c r="U2" s="489" t="s">
         <v>36</v>
       </c>
-      <c r="V2" s="901"/>
+      <c r="V2" s="888"/>
     </row>
     <row r="3" spans="1:22">
       <c r="A3" s="564">
@@ -15207,10 +15210,10 @@
       <c r="N15" s="352"/>
       <c r="O15" s="352"/>
       <c r="P15" s="352"/>
-      <c r="Q15" s="892" t="s">
+      <c r="Q15" s="912" t="s">
         <v>38</v>
       </c>
-      <c r="R15" s="893"/>
+      <c r="R15" s="913"/>
       <c r="S15" s="75"/>
       <c r="T15" s="525"/>
       <c r="U15" s="45" t="s">
@@ -16911,13 +16914,13 @@
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
       <c r="L55" s="3"/>
-      <c r="M55" s="887" t="s">
+      <c r="M55" s="907" t="s">
         <v>120</v>
       </c>
-      <c r="N55" s="888"/>
-      <c r="O55" s="888"/>
-      <c r="P55" s="888"/>
-      <c r="Q55" s="889"/>
+      <c r="N55" s="908"/>
+      <c r="O55" s="908"/>
+      <c r="P55" s="908"/>
+      <c r="Q55" s="909"/>
     </row>
     <row r="56" spans="1:22" ht="12" customHeight="1">
       <c r="A56" s="8"/>
@@ -16942,23 +16945,23 @@
       <c r="J57" s="16"/>
       <c r="K57" s="16"/>
       <c r="L57" s="7"/>
-      <c r="M57" s="887" t="s">
+      <c r="M57" s="907" t="s">
         <v>122</v>
       </c>
-      <c r="N57" s="888"/>
-      <c r="O57" s="888"/>
-      <c r="P57" s="888"/>
-      <c r="Q57" s="889"/>
+      <c r="N57" s="908"/>
+      <c r="O57" s="908"/>
+      <c r="P57" s="908"/>
+      <c r="Q57" s="909"/>
     </row>
     <row r="58" spans="1:22">
-      <c r="C58" s="886" t="s">
+      <c r="C58" s="906" t="s">
         <v>123</v>
       </c>
-      <c r="D58" s="886"/>
-      <c r="E58" s="886"/>
-      <c r="F58" s="886"/>
-      <c r="G58" s="886"/>
-      <c r="H58" s="886"/>
+      <c r="D58" s="906"/>
+      <c r="E58" s="906"/>
+      <c r="F58" s="906"/>
+      <c r="G58" s="906"/>
+      <c r="H58" s="906"/>
     </row>
     <row r="59" spans="1:22" ht="15.75" customHeight="1">
       <c r="B59" s="573" t="s">
@@ -17127,6 +17130,14 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="C58:H58"/>
+    <mergeCell ref="M55:Q55"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="M57:Q57"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="J1:J2"/>
     <mergeCell ref="V1:V2"/>
     <mergeCell ref="S1:U1"/>
     <mergeCell ref="L1:P1"/>
@@ -17137,14 +17148,6 @@
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
-    <mergeCell ref="C58:H58"/>
-    <mergeCell ref="M55:Q55"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="M57:Q57"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="J1:J2"/>
   </mergeCells>
   <conditionalFormatting sqref="I3">
     <cfRule type="colorScale" priority="2">
@@ -17279,83 +17282,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="23.25" customHeight="1">
-      <c r="A1" s="934" t="s">
+      <c r="A1" s="920" t="s">
         <v>141</v>
       </c>
       <c r="B1" s="240"/>
-      <c r="C1" s="936" t="s">
+      <c r="C1" s="922" t="s">
         <v>142</v>
       </c>
-      <c r="D1" s="937"/>
-      <c r="E1" s="937"/>
-      <c r="F1" s="937"/>
-      <c r="G1" s="938"/>
+      <c r="D1" s="923"/>
+      <c r="E1" s="923"/>
+      <c r="F1" s="923"/>
+      <c r="G1" s="924"/>
       <c r="H1" s="240"/>
-      <c r="I1" s="934" t="s">
+      <c r="I1" s="920" t="s">
         <v>143</v>
       </c>
-      <c r="K1" s="936" t="s">
+      <c r="K1" s="922" t="s">
         <v>144</v>
       </c>
-      <c r="L1" s="937"/>
-      <c r="M1" s="937"/>
-      <c r="N1" s="937"/>
-      <c r="O1" s="937"/>
-      <c r="P1" s="937"/>
-      <c r="Q1" s="938"/>
-      <c r="S1" s="936" t="s">
+      <c r="L1" s="923"/>
+      <c r="M1" s="923"/>
+      <c r="N1" s="923"/>
+      <c r="O1" s="923"/>
+      <c r="P1" s="923"/>
+      <c r="Q1" s="924"/>
+      <c r="S1" s="922" t="s">
         <v>145</v>
       </c>
-      <c r="T1" s="937"/>
-      <c r="U1" s="937"/>
-      <c r="V1" s="937"/>
-      <c r="W1" s="937"/>
-      <c r="X1" s="937"/>
-      <c r="Y1" s="938"/>
-      <c r="AA1" s="923"/>
-      <c r="AB1" s="924"/>
-      <c r="AC1" s="921" t="s">
+      <c r="T1" s="923"/>
+      <c r="U1" s="923"/>
+      <c r="V1" s="923"/>
+      <c r="W1" s="923"/>
+      <c r="X1" s="923"/>
+      <c r="Y1" s="924"/>
+      <c r="AA1" s="935"/>
+      <c r="AB1" s="936"/>
+      <c r="AC1" s="933" t="s">
         <v>146</v>
       </c>
       <c r="AD1" s="721"/>
-      <c r="AE1" s="919" t="s">
+      <c r="AE1" s="931" t="s">
         <v>147</v>
       </c>
-      <c r="AF1" s="927"/>
-      <c r="AG1" s="928"/>
+      <c r="AF1" s="939"/>
+      <c r="AG1" s="940"/>
       <c r="AH1" s="129"/>
     </row>
     <row r="2" spans="1:34" ht="23.25">
-      <c r="A2" s="935"/>
+      <c r="A2" s="921"/>
       <c r="B2" s="240"/>
-      <c r="C2" s="939"/>
-      <c r="D2" s="940"/>
-      <c r="E2" s="940"/>
-      <c r="F2" s="940"/>
-      <c r="G2" s="941"/>
+      <c r="C2" s="925"/>
+      <c r="D2" s="926"/>
+      <c r="E2" s="926"/>
+      <c r="F2" s="926"/>
+      <c r="G2" s="927"/>
       <c r="H2" s="240"/>
-      <c r="I2" s="935"/>
-      <c r="K2" s="939"/>
-      <c r="L2" s="940"/>
-      <c r="M2" s="940"/>
-      <c r="N2" s="940"/>
-      <c r="O2" s="940"/>
-      <c r="P2" s="940"/>
-      <c r="Q2" s="941"/>
-      <c r="S2" s="939"/>
-      <c r="T2" s="940"/>
-      <c r="U2" s="940"/>
-      <c r="V2" s="940"/>
-      <c r="W2" s="940"/>
-      <c r="X2" s="940"/>
-      <c r="Y2" s="941"/>
-      <c r="AA2" s="925"/>
-      <c r="AB2" s="926"/>
-      <c r="AC2" s="922"/>
+      <c r="I2" s="921"/>
+      <c r="K2" s="925"/>
+      <c r="L2" s="926"/>
+      <c r="M2" s="926"/>
+      <c r="N2" s="926"/>
+      <c r="O2" s="926"/>
+      <c r="P2" s="926"/>
+      <c r="Q2" s="927"/>
+      <c r="S2" s="925"/>
+      <c r="T2" s="926"/>
+      <c r="U2" s="926"/>
+      <c r="V2" s="926"/>
+      <c r="W2" s="926"/>
+      <c r="X2" s="926"/>
+      <c r="Y2" s="927"/>
+      <c r="AA2" s="937"/>
+      <c r="AB2" s="938"/>
+      <c r="AC2" s="934"/>
       <c r="AD2" s="722"/>
-      <c r="AE2" s="920"/>
-      <c r="AF2" s="929"/>
-      <c r="AG2" s="930"/>
+      <c r="AE2" s="932"/>
+      <c r="AF2" s="941"/>
+      <c r="AG2" s="942"/>
       <c r="AH2" s="129"/>
     </row>
     <row r="3" spans="1:34" ht="41.25">
@@ -19265,29 +19268,35 @@
       </c>
     </row>
     <row r="46" spans="11:33" ht="15" customHeight="1">
-      <c r="S46" s="931" t="s">
+      <c r="S46" s="928" t="s">
         <v>220</v>
       </c>
-      <c r="T46" s="932"/>
-      <c r="U46" s="933"/>
-      <c r="W46" s="931" t="s">
+      <c r="T46" s="929"/>
+      <c r="U46" s="930"/>
+      <c r="W46" s="928" t="s">
         <v>221</v>
       </c>
-      <c r="X46" s="932"/>
-      <c r="Y46" s="933"/>
-      <c r="AA46" s="931" t="s">
+      <c r="X46" s="929"/>
+      <c r="Y46" s="930"/>
+      <c r="AA46" s="928" t="s">
         <v>220</v>
       </c>
-      <c r="AB46" s="932"/>
-      <c r="AC46" s="933"/>
-      <c r="AE46" s="931" t="s">
+      <c r="AB46" s="929"/>
+      <c r="AC46" s="930"/>
+      <c r="AE46" s="928" t="s">
         <v>221</v>
       </c>
-      <c r="AF46" s="932"/>
-      <c r="AG46" s="933"/>
+      <c r="AF46" s="929"/>
+      <c r="AG46" s="930"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="AE1:AE2"/>
+    <mergeCell ref="AC1:AC2"/>
+    <mergeCell ref="AA1:AB2"/>
+    <mergeCell ref="AF1:AG2"/>
+    <mergeCell ref="AA46:AC46"/>
+    <mergeCell ref="AE46:AG46"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="C1:G2"/>
     <mergeCell ref="W46:Y46"/>
@@ -19295,12 +19304,6 @@
     <mergeCell ref="K1:Q2"/>
     <mergeCell ref="S1:Y2"/>
     <mergeCell ref="I1:I2"/>
-    <mergeCell ref="AE1:AE2"/>
-    <mergeCell ref="AC1:AC2"/>
-    <mergeCell ref="AA1:AB2"/>
-    <mergeCell ref="AF1:AG2"/>
-    <mergeCell ref="AA46:AC46"/>
-    <mergeCell ref="AE46:AG46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -19339,57 +19342,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="26.1" customHeight="1">
-      <c r="A1" s="942" t="s">
+      <c r="A1" s="943" t="s">
         <v>222</v>
       </c>
-      <c r="B1" s="942"/>
-      <c r="C1" s="954" t="s">
+      <c r="B1" s="943"/>
+      <c r="C1" s="955" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="943" t="s">
+      <c r="D1" s="944" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="945" t="s">
+      <c r="E1" s="946" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="947" t="s">
+      <c r="F1" s="948" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="952" t="s">
+      <c r="G1" s="953" t="s">
         <v>223</v>
       </c>
-      <c r="H1" s="948" t="s">
+      <c r="H1" s="949" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="948" t="s">
+      <c r="I1" s="949" t="s">
         <v>224</v>
       </c>
-      <c r="J1" s="948" t="s">
+      <c r="J1" s="949" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="950" t="s">
+      <c r="K1" s="951" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="37.5" customHeight="1">
-      <c r="A2" s="942"/>
-      <c r="B2" s="942"/>
-      <c r="C2" s="955"/>
-      <c r="D2" s="944"/>
-      <c r="E2" s="946"/>
-      <c r="F2" s="947"/>
-      <c r="G2" s="953"/>
-      <c r="H2" s="949"/>
-      <c r="I2" s="949"/>
-      <c r="J2" s="949"/>
-      <c r="K2" s="951"/>
-      <c r="M2" s="936" t="s">
+      <c r="A2" s="943"/>
+      <c r="B2" s="943"/>
+      <c r="C2" s="956"/>
+      <c r="D2" s="945"/>
+      <c r="E2" s="947"/>
+      <c r="F2" s="948"/>
+      <c r="G2" s="954"/>
+      <c r="H2" s="950"/>
+      <c r="I2" s="950"/>
+      <c r="J2" s="950"/>
+      <c r="K2" s="952"/>
+      <c r="M2" s="922" t="s">
         <v>225</v>
       </c>
-      <c r="N2" s="937"/>
-      <c r="O2" s="937"/>
-      <c r="P2" s="937"/>
-      <c r="Q2" s="938"/>
+      <c r="N2" s="923"/>
+      <c r="O2" s="923"/>
+      <c r="P2" s="923"/>
+      <c r="Q2" s="924"/>
     </row>
     <row r="3" spans="1:17" ht="15.75" customHeight="1">
       <c r="A3" s="6">
@@ -19419,11 +19422,11 @@
         <v>12</v>
       </c>
       <c r="K3" s="74"/>
-      <c r="M3" s="939"/>
-      <c r="N3" s="940"/>
-      <c r="O3" s="940"/>
-      <c r="P3" s="940"/>
-      <c r="Q3" s="941"/>
+      <c r="M3" s="925"/>
+      <c r="N3" s="926"/>
+      <c r="O3" s="926"/>
+      <c r="P3" s="926"/>
+      <c r="Q3" s="927"/>
     </row>
     <row r="4" spans="1:17" ht="15.75" customHeight="1">
       <c r="A4" s="4">
@@ -20096,40 +20099,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="26.1" customHeight="1">
-      <c r="A1" s="870" t="s">
+      <c r="A1" s="871" t="s">
         <v>250</v>
       </c>
-      <c r="B1" s="871"/>
-      <c r="C1" s="962" t="s">
+      <c r="B1" s="872"/>
+      <c r="C1" s="963" t="s">
         <v>251</v>
       </c>
-      <c r="D1" s="960" t="s">
+      <c r="D1" s="961" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="945" t="s">
+      <c r="E1" s="946" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="882" t="s">
+      <c r="F1" s="883" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="952" t="s">
+      <c r="G1" s="953" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="956" t="s">
+      <c r="H1" s="957" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="957"/>
+      <c r="I1" s="958"/>
     </row>
     <row r="2" spans="1:10" ht="30" customHeight="1">
-      <c r="A2" s="872"/>
-      <c r="B2" s="873"/>
-      <c r="C2" s="963"/>
-      <c r="D2" s="961"/>
-      <c r="E2" s="946"/>
-      <c r="F2" s="883"/>
-      <c r="G2" s="953"/>
-      <c r="H2" s="958"/>
-      <c r="I2" s="959"/>
+      <c r="A2" s="873"/>
+      <c r="B2" s="874"/>
+      <c r="C2" s="964"/>
+      <c r="D2" s="962"/>
+      <c r="E2" s="947"/>
+      <c r="F2" s="884"/>
+      <c r="G2" s="954"/>
+      <c r="H2" s="959"/>
+      <c r="I2" s="960"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="36">
@@ -20312,54 +20315,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A1" s="964" t="s">
+      <c r="A1" s="976" t="s">
         <v>260</v>
       </c>
-      <c r="B1" s="964"/>
-      <c r="C1" s="968" t="s">
+      <c r="B1" s="976"/>
+      <c r="C1" s="980" t="s">
         <v>129</v>
       </c>
-      <c r="D1" s="969"/>
-      <c r="E1" s="966" t="s">
+      <c r="D1" s="981"/>
+      <c r="E1" s="978" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="967"/>
-      <c r="G1" s="970" t="s">
+      <c r="F1" s="979"/>
+      <c r="G1" s="982" t="s">
         <v>222</v>
       </c>
-      <c r="H1" s="971"/>
-      <c r="I1" s="972" t="s">
-        <v>137</v>
-      </c>
-      <c r="J1" s="973"/>
-      <c r="K1" s="982" t="s">
+      <c r="H1" s="983"/>
+      <c r="I1" s="984" t="s">
+        <v>137</v>
+      </c>
+      <c r="J1" s="985"/>
+      <c r="K1" s="973" t="s">
         <v>261</v>
       </c>
-      <c r="L1" s="983"/>
+      <c r="L1" s="974"/>
       <c r="M1" s="680"/>
-      <c r="N1" s="980" t="s">
+      <c r="N1" s="971" t="s">
         <v>262</v>
       </c>
-      <c r="O1" s="981"/>
+      <c r="O1" s="972"/>
       <c r="P1" s="625"/>
-      <c r="Q1" s="901" t="s">
+      <c r="Q1" s="888" t="s">
         <v>263</v>
       </c>
       <c r="R1" s="649"/>
-      <c r="S1" s="977" t="s">
+      <c r="S1" s="968" t="s">
         <v>264</v>
       </c>
-      <c r="T1" s="978"/>
-      <c r="U1" s="978"/>
-      <c r="V1" s="978"/>
-      <c r="W1" s="978"/>
-      <c r="X1" s="978"/>
-      <c r="Y1" s="978"/>
-      <c r="Z1" s="979"/>
+      <c r="T1" s="969"/>
+      <c r="U1" s="969"/>
+      <c r="V1" s="969"/>
+      <c r="W1" s="969"/>
+      <c r="X1" s="969"/>
+      <c r="Y1" s="969"/>
+      <c r="Z1" s="970"/>
     </row>
     <row r="2" spans="1:26" ht="20.25" customHeight="1">
-      <c r="A2" s="965"/>
-      <c r="B2" s="965"/>
+      <c r="A2" s="977"/>
+      <c r="B2" s="977"/>
       <c r="C2" s="24" t="s">
         <v>265</v>
       </c>
@@ -20398,7 +20401,7 @@
         <v>268</v>
       </c>
       <c r="P2" s="1"/>
-      <c r="Q2" s="984"/>
+      <c r="Q2" s="975"/>
       <c r="R2" s="649"/>
       <c r="S2" s="229" t="s">
         <v>269</v>
@@ -22151,12 +22154,12 @@
       <c r="S31" s="11"/>
       <c r="T31" s="11"/>
       <c r="U31" s="642"/>
-      <c r="V31" s="974" t="s">
+      <c r="V31" s="965" t="s">
         <v>293</v>
       </c>
-      <c r="W31" s="975"/>
-      <c r="X31" s="975"/>
-      <c r="Y31" s="976"/>
+      <c r="W31" s="966"/>
+      <c r="X31" s="966"/>
+      <c r="Y31" s="967"/>
       <c r="Z31" s="473">
         <f>SUM(S29:Z29)</f>
         <v>26</v>
@@ -22181,12 +22184,12 @@
       <c r="B33" s="573" t="s">
         <v>18</v>
       </c>
-      <c r="V33" s="974" t="s">
+      <c r="V33" s="965" t="s">
         <v>294</v>
       </c>
-      <c r="W33" s="975"/>
-      <c r="X33" s="975"/>
-      <c r="Y33" s="976"/>
+      <c r="W33" s="966"/>
+      <c r="X33" s="966"/>
+      <c r="Y33" s="967"/>
       <c r="Z33" s="299">
         <f>SUM(Z31-Z29)</f>
         <v>23</v>
@@ -22212,17 +22215,17 @@
     <sortCondition ref="B3:B25"/>
   </sortState>
   <mergeCells count="11">
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
     <mergeCell ref="V31:Y31"/>
     <mergeCell ref="V33:Y33"/>
     <mergeCell ref="S1:Z1"/>
     <mergeCell ref="N1:O1"/>
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
   </mergeCells>
   <conditionalFormatting sqref="K3:K28">
     <cfRule type="colorScale" priority="108">
@@ -23729,29 +23732,29 @@
   <sheetData>
     <row r="1" spans="1:16" ht="18" customHeight="1"/>
     <row r="2" spans="1:16" ht="21.75" customHeight="1">
-      <c r="A2" s="994" t="s">
+      <c r="A2" s="1001" t="s">
         <v>319</v>
       </c>
-      <c r="B2" s="995"/>
-      <c r="D2" s="994" t="s">
+      <c r="B2" s="1002"/>
+      <c r="D2" s="1001" t="s">
         <v>320</v>
       </c>
-      <c r="E2" s="995"/>
-      <c r="G2" s="987" t="s">
+      <c r="E2" s="1002"/>
+      <c r="G2" s="998" t="s">
         <v>321</v>
       </c>
-      <c r="H2" s="989" t="s">
+      <c r="H2" s="994" t="s">
         <v>322</v>
       </c>
-      <c r="I2" s="991" t="s">
+      <c r="I2" s="996" t="s">
         <v>323</v>
       </c>
       <c r="J2" s="91"/>
-      <c r="K2" s="998" t="s">
+      <c r="K2" s="986" t="s">
         <v>324</v>
       </c>
-      <c r="L2" s="999"/>
-      <c r="M2" s="900"/>
+      <c r="L2" s="987"/>
+      <c r="M2" s="887"/>
     </row>
     <row r="3" spans="1:16" ht="15.75" customHeight="1">
       <c r="A3" s="67" t="s">
@@ -23766,16 +23769,16 @@
       <c r="E3" s="63">
         <v>46</v>
       </c>
-      <c r="G3" s="988"/>
-      <c r="H3" s="990"/>
-      <c r="I3" s="992"/>
+      <c r="G3" s="999"/>
+      <c r="H3" s="995"/>
+      <c r="I3" s="997"/>
       <c r="J3" s="91"/>
-      <c r="K3" s="1000"/>
-      <c r="L3" s="1001"/>
-      <c r="M3" s="1002"/>
-      <c r="N3" s="993"/>
-      <c r="O3" s="993"/>
-      <c r="P3" s="993"/>
+      <c r="K3" s="988"/>
+      <c r="L3" s="989"/>
+      <c r="M3" s="990"/>
+      <c r="N3" s="1000"/>
+      <c r="O3" s="1000"/>
+      <c r="P3" s="1000"/>
     </row>
     <row r="4" spans="1:16" ht="15">
       <c r="A4" s="69" t="s">
@@ -23805,42 +23808,42 @@
         <v>2.9722222222222223</v>
       </c>
       <c r="J4" s="1"/>
-      <c r="K4" s="1000"/>
-      <c r="L4" s="1001"/>
-      <c r="M4" s="1002"/>
-      <c r="N4" s="993"/>
-      <c r="O4" s="993"/>
-      <c r="P4" s="993"/>
+      <c r="K4" s="988"/>
+      <c r="L4" s="989"/>
+      <c r="M4" s="990"/>
+      <c r="N4" s="1000"/>
+      <c r="O4" s="1000"/>
+      <c r="P4" s="1000"/>
     </row>
     <row r="5" spans="1:16">
-      <c r="K5" s="1000"/>
-      <c r="L5" s="1001"/>
-      <c r="M5" s="1002"/>
-      <c r="N5" s="993"/>
-      <c r="O5" s="993"/>
-      <c r="P5" s="993"/>
+      <c r="K5" s="988"/>
+      <c r="L5" s="989"/>
+      <c r="M5" s="990"/>
+      <c r="N5" s="1000"/>
+      <c r="O5" s="1000"/>
+      <c r="P5" s="1000"/>
     </row>
     <row r="6" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A6" s="985" t="s">
+      <c r="A6" s="1006" t="s">
         <v>327</v>
       </c>
-      <c r="B6" s="986"/>
-      <c r="G6" s="987" t="s">
+      <c r="B6" s="1003"/>
+      <c r="G6" s="998" t="s">
         <v>321</v>
       </c>
-      <c r="H6" s="989" t="s">
+      <c r="H6" s="994" t="s">
         <v>322</v>
       </c>
-      <c r="I6" s="991" t="s">
+      <c r="I6" s="996" t="s">
         <v>323</v>
       </c>
       <c r="J6" s="91"/>
-      <c r="K6" s="1000"/>
-      <c r="L6" s="1001"/>
-      <c r="M6" s="1002"/>
-      <c r="N6" s="993"/>
-      <c r="O6" s="993"/>
-      <c r="P6" s="993"/>
+      <c r="K6" s="988"/>
+      <c r="L6" s="989"/>
+      <c r="M6" s="990"/>
+      <c r="N6" s="1000"/>
+      <c r="O6" s="1000"/>
+      <c r="P6" s="1000"/>
     </row>
     <row r="7" spans="1:16" ht="15.75" customHeight="1">
       <c r="A7" s="67" t="s">
@@ -23849,16 +23852,16 @@
       <c r="B7" s="68">
         <v>6</v>
       </c>
-      <c r="G7" s="988"/>
-      <c r="H7" s="990"/>
-      <c r="I7" s="992"/>
+      <c r="G7" s="999"/>
+      <c r="H7" s="995"/>
+      <c r="I7" s="997"/>
       <c r="J7" s="91"/>
-      <c r="K7" s="1000"/>
-      <c r="L7" s="1001"/>
-      <c r="M7" s="1002"/>
-      <c r="N7" s="993"/>
-      <c r="O7" s="993"/>
-      <c r="P7" s="993"/>
+      <c r="K7" s="988"/>
+      <c r="L7" s="989"/>
+      <c r="M7" s="990"/>
+      <c r="N7" s="1000"/>
+      <c r="O7" s="1000"/>
+      <c r="P7" s="1000"/>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="69" t="s">
@@ -23881,34 +23884,34 @@
         <v>0.16666666666666666</v>
       </c>
       <c r="J8" s="1"/>
-      <c r="K8" s="1003"/>
-      <c r="L8" s="1004"/>
-      <c r="M8" s="1005"/>
-      <c r="N8" s="993"/>
-      <c r="O8" s="993"/>
-      <c r="P8" s="993"/>
+      <c r="K8" s="991"/>
+      <c r="L8" s="992"/>
+      <c r="M8" s="993"/>
+      <c r="N8" s="1000"/>
+      <c r="O8" s="1000"/>
+      <c r="P8" s="1000"/>
     </row>
     <row r="9" spans="1:16">
-      <c r="N9" s="993"/>
-      <c r="O9" s="993"/>
-      <c r="P9" s="993"/>
+      <c r="N9" s="1000"/>
+      <c r="O9" s="1000"/>
+      <c r="P9" s="1000"/>
     </row>
     <row r="10" spans="1:16">
-      <c r="A10" s="994" t="s">
+      <c r="A10" s="1001" t="s">
         <v>328</v>
       </c>
-      <c r="B10" s="986"/>
-      <c r="D10" s="994" t="s">
+      <c r="B10" s="1003"/>
+      <c r="D10" s="1001" t="s">
         <v>329</v>
       </c>
-      <c r="E10" s="986"/>
-      <c r="G10" s="987" t="s">
+      <c r="E10" s="1003"/>
+      <c r="G10" s="998" t="s">
         <v>321</v>
       </c>
-      <c r="H10" s="989" t="s">
+      <c r="H10" s="994" t="s">
         <v>322</v>
       </c>
-      <c r="I10" s="991" t="s">
+      <c r="I10" s="996" t="s">
         <v>330</v>
       </c>
       <c r="J10" s="91"/>
@@ -23924,9 +23927,9 @@
         <v>325</v>
       </c>
       <c r="E11" s="63"/>
-      <c r="G11" s="988"/>
-      <c r="H11" s="990"/>
-      <c r="I11" s="992"/>
+      <c r="G11" s="999"/>
+      <c r="H11" s="995"/>
+      <c r="I11" s="997"/>
       <c r="J11" s="91"/>
     </row>
     <row r="12" spans="1:16">
@@ -23959,19 +23962,19 @@
       <c r="J12" s="92"/>
     </row>
     <row r="14" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A14" s="985" t="s">
+      <c r="A14" s="1006" t="s">
         <v>331</v>
       </c>
-      <c r="B14" s="986"/>
-      <c r="D14" s="985"/>
-      <c r="E14" s="986"/>
-      <c r="G14" s="987" t="s">
+      <c r="B14" s="1003"/>
+      <c r="D14" s="1006"/>
+      <c r="E14" s="1003"/>
+      <c r="G14" s="998" t="s">
         <v>321</v>
       </c>
-      <c r="H14" s="989" t="s">
+      <c r="H14" s="994" t="s">
         <v>322</v>
       </c>
-      <c r="I14" s="991" t="s">
+      <c r="I14" s="996" t="s">
         <v>330</v>
       </c>
     </row>
@@ -23985,9 +23988,9 @@
       </c>
       <c r="D15" s="67"/>
       <c r="E15" s="68"/>
-      <c r="G15" s="988"/>
-      <c r="H15" s="990"/>
-      <c r="I15" s="992"/>
+      <c r="G15" s="999"/>
+      <c r="H15" s="995"/>
+      <c r="I15" s="997"/>
     </row>
     <row r="16" spans="1:16" ht="15" customHeight="1">
       <c r="A16" s="69" t="s">
@@ -24013,19 +24016,19 @@
       </c>
     </row>
     <row r="18" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A18" s="996" t="s">
+      <c r="A18" s="1004" t="s">
         <v>332</v>
       </c>
-      <c r="B18" s="997"/>
-      <c r="D18" s="994"/>
-      <c r="E18" s="986"/>
-      <c r="G18" s="987" t="s">
+      <c r="B18" s="1005"/>
+      <c r="D18" s="1001"/>
+      <c r="E18" s="1003"/>
+      <c r="G18" s="998" t="s">
         <v>321</v>
       </c>
-      <c r="H18" s="989" t="s">
+      <c r="H18" s="994" t="s">
         <v>322</v>
       </c>
-      <c r="I18" s="991" t="s">
+      <c r="I18" s="996" t="s">
         <v>323</v>
       </c>
     </row>
@@ -24038,9 +24041,9 @@
       </c>
       <c r="D19" s="67"/>
       <c r="E19" s="63"/>
-      <c r="G19" s="988"/>
-      <c r="H19" s="990"/>
-      <c r="I19" s="992"/>
+      <c r="G19" s="999"/>
+      <c r="H19" s="995"/>
+      <c r="I19" s="997"/>
     </row>
     <row r="20" spans="1:9" ht="15.75" customHeight="1">
       <c r="A20" s="69" t="s">
@@ -24063,17 +24066,17 @@
       </c>
     </row>
     <row r="22" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A22" s="985" t="s">
+      <c r="A22" s="1006" t="s">
         <v>333</v>
       </c>
-      <c r="B22" s="986"/>
-      <c r="G22" s="987" t="s">
+      <c r="B22" s="1003"/>
+      <c r="G22" s="998" t="s">
         <v>321</v>
       </c>
-      <c r="H22" s="989" t="s">
+      <c r="H22" s="994" t="s">
         <v>322</v>
       </c>
-      <c r="I22" s="991" t="s">
+      <c r="I22" s="996" t="s">
         <v>323</v>
       </c>
     </row>
@@ -24082,9 +24085,9 @@
         <v>325</v>
       </c>
       <c r="B23" s="68"/>
-      <c r="G23" s="988"/>
-      <c r="H23" s="990"/>
-      <c r="I23" s="992"/>
+      <c r="G23" s="999"/>
+      <c r="H23" s="995"/>
+      <c r="I23" s="997"/>
     </row>
     <row r="24" spans="1:9" ht="15.75" customHeight="1">
       <c r="A24" s="69" t="s">
@@ -24106,12 +24109,14 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="K2:M8"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="I22:I23"/>
     <mergeCell ref="N3:P9"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="A10:B10"/>
@@ -24128,14 +24133,12 @@
     <mergeCell ref="G18:G19"/>
     <mergeCell ref="H18:H19"/>
     <mergeCell ref="I18:I19"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="K2:M8"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -24568,11 +24571,11 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="15.75">
-      <c r="A15" s="1008" t="s">
+      <c r="A15" s="1009" t="s">
         <v>373</v>
       </c>
-      <c r="B15" s="1009"/>
-      <c r="C15" s="1010"/>
+      <c r="B15" s="1010"/>
+      <c r="C15" s="1011"/>
       <c r="D15" s="102"/>
       <c r="E15" s="114">
         <v>13</v>
@@ -24594,12 +24597,12 @@
       </c>
     </row>
     <row r="16" spans="1:11" ht="15.75">
-      <c r="A16" s="1011">
+      <c r="A16" s="1012">
         <f>SUM('Supervision Load'!E3)</f>
         <v>46</v>
       </c>
-      <c r="B16" s="1012"/>
-      <c r="C16" s="1013"/>
+      <c r="B16" s="1013"/>
+      <c r="C16" s="1014"/>
       <c r="D16" s="102"/>
       <c r="E16" s="114">
         <v>14</v>
@@ -24621,9 +24624,9 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="15.75">
-      <c r="A17" s="1011"/>
-      <c r="B17" s="1012"/>
-      <c r="C17" s="1013"/>
+      <c r="A17" s="1012"/>
+      <c r="B17" s="1013"/>
+      <c r="C17" s="1014"/>
       <c r="D17" s="102"/>
       <c r="E17" s="114">
         <v>15</v>
@@ -24645,9 +24648,9 @@
       </c>
     </row>
     <row r="18" spans="1:11" ht="15.75">
-      <c r="A18" s="1014"/>
-      <c r="B18" s="1015"/>
-      <c r="C18" s="1016"/>
+      <c r="A18" s="1015"/>
+      <c r="B18" s="1016"/>
+      <c r="C18" s="1017"/>
       <c r="D18" s="102"/>
       <c r="E18" s="116">
         <v>16</v>
@@ -24736,10 +24739,10 @@
       <c r="G25" s="12">
         <v>10</v>
       </c>
-      <c r="H25" s="1017" t="s">
+      <c r="H25" s="1018" t="s">
         <v>390</v>
       </c>
-      <c r="I25" s="1018"/>
+      <c r="I25" s="1019"/>
       <c r="J25" s="218">
         <f>COUNTIF(G3:G18:K3:K21, "Marc")</f>
         <v>10</v>
@@ -24759,10 +24762,10 @@
       <c r="G26" s="12">
         <v>0</v>
       </c>
-      <c r="H26" s="1006" t="s">
+      <c r="H26" s="1007" t="s">
         <v>278</v>
       </c>
-      <c r="I26" s="1006"/>
+      <c r="I26" s="1007"/>
       <c r="J26" s="219">
         <f>COUNTIF(G3:G18:K3:K21, "Andy")</f>
         <v>0</v>
@@ -24782,10 +24785,10 @@
       <c r="G27" s="12">
         <v>10</v>
       </c>
-      <c r="H27" s="1006" t="s">
+      <c r="H27" s="1007" t="s">
         <v>278</v>
       </c>
-      <c r="I27" s="1006"/>
+      <c r="I27" s="1007"/>
       <c r="J27" s="472">
         <f>COUNTIF(G3:G18:K3:K21, "Bode")</f>
         <v>10</v>
@@ -24805,10 +24808,10 @@
       <c r="G28" s="12">
         <v>4</v>
       </c>
-      <c r="H28" s="1006" t="s">
+      <c r="H28" s="1007" t="s">
         <v>278</v>
       </c>
-      <c r="I28" s="1006"/>
+      <c r="I28" s="1007"/>
       <c r="J28" s="219">
         <f>COUNTIF(G3:G18:K3:K21, "Kalin")</f>
         <v>4</v>
@@ -24828,10 +24831,10 @@
       <c r="G29" s="12">
         <v>10</v>
       </c>
-      <c r="H29" s="1006" t="s">
+      <c r="H29" s="1007" t="s">
         <v>278</v>
       </c>
-      <c r="I29" s="1006"/>
+      <c r="I29" s="1007"/>
       <c r="J29" s="219">
         <f>COUNTIF(G3:G18:K3:K21:C3:C12, "Anthony")</f>
         <v>10</v>
@@ -24851,10 +24854,10 @@
       <c r="G30" s="12">
         <v>4</v>
       </c>
-      <c r="H30" s="1006" t="s">
+      <c r="H30" s="1007" t="s">
         <v>278</v>
       </c>
-      <c r="I30" s="1006"/>
+      <c r="I30" s="1007"/>
       <c r="J30" s="219">
         <f>COUNTIF(G3:G18:C3:K13, "Nick")</f>
         <v>4</v>
@@ -24874,10 +24877,10 @@
       <c r="G31" s="12">
         <v>8</v>
       </c>
-      <c r="H31" s="1006" t="s">
+      <c r="H31" s="1007" t="s">
         <v>278</v>
       </c>
-      <c r="I31" s="1006"/>
+      <c r="I31" s="1007"/>
       <c r="J31" s="219">
         <f>COUNTIF(G4:G19:K4:K22, "Pengfei")</f>
         <v>8</v>
@@ -24891,8 +24894,8 @@
       <c r="E32" s="217"/>
       <c r="F32" s="217"/>
       <c r="G32" s="217"/>
-      <c r="H32" s="1007"/>
-      <c r="I32" s="1007"/>
+      <c r="H32" s="1008"/>
+      <c r="I32" s="1008"/>
     </row>
     <row r="34" spans="7:12">
       <c r="G34" s="473">
